--- a/Gantt.xlsx
+++ b/Gantt.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BA0EA2EC-B8D0-468D-831E-A80ED8078B40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67442870-8BA8-44AF-AA82-AA46117F48D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" tabRatio="415" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -70,7 +70,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="64">
   <si>
     <t>ACERCA DESTE GRÁFICO GANTT</t>
   </si>
@@ -236,7 +236,42 @@
     <t>Implementação Física</t>
   </si>
   <si>
-    <t>?</t>
+    <t>Definição de Entidades</t>
+  </si>
+  <si>
+    <t>Definição de Atributos</t>
+  </si>
+  <si>
+    <t>Definição de Relacionamentos</t>
+  </si>
+  <si>
+    <t>Finalização</t>
+  </si>
+  <si>
+    <t>Criação do esquema físico da base
+de dados</t>
+  </si>
+  <si>
+    <t>Exemplos de queries de consulta</t>
+  </si>
+  <si>
+    <t>Um exemplo de uma transação de venda</t>
+  </si>
+  <si>
+    <t>Criação do sistema de dados</t>
+  </si>
+  <si>
+    <t>Povoamento inicial da base de
+dados</t>
+  </si>
+  <si>
+    <t>Derivação de relações do modelo de dados local</t>
+  </si>
+  <si>
+    <t>Elaboração do esquema lógico final.</t>
+  </si>
+  <si>
+    <t>Validação do esquema final.</t>
   </si>
 </sst>
 </file>
@@ -1236,34 +1271,282 @@
   </cellStyles>
   <dxfs count="56">
     <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <fill>
+        <patternFill>
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
     </dxf>
     <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="1" relativeIndent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <fill>
+        <patternFill>
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </bottom>
+      </border>
     </dxf>
     <dxf>
       <font>
         <b/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
+        <i val="0"/>
         <color theme="0"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
+      </font>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
       </font>
       <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="9" tint="-0.499984740745262"/>
+        <patternFill>
+          <bgColor theme="1" tint="0.499984740745262"/>
         </patternFill>
       </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.34998626667073579"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.34998626667073579"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
     </dxf>
     <dxf>
       <fill>
@@ -1425,6 +1708,36 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="12"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="1" relativeIndent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
         <color auto="1"/>
         <name val="Calibri"/>
         <family val="2"/>
@@ -1436,142 +1749,6 @@
           <bgColor theme="0" tint="-0.14999847407452621"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.499984740745262"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.34998626667073579"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.34998626667073579"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
     </dxf>
     <dxf>
       <font>
@@ -1687,148 +1864,6 @@
           <bgColor theme="1" tint="0.249977111117893"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom style="thin">
-          <color theme="0" tint="-0.34998626667073579"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom style="thin">
-          <color theme="0" tint="-0.34998626667073579"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom style="thin">
-          <color theme="0" tint="-0.34998626667073579"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
     </dxf>
     <dxf>
       <border diagonalUp="0" diagonalDown="0">
@@ -2117,7 +2152,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp3.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Scroll" dx="39" fmlaLink="$C$7" horiz="1" max="365" page="2"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Scroll" dx="39" fmlaLink="$C$7" horiz="1" max="365" page="2" val="0"/>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2344,7 +2379,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{DD82988E-1813-40AE-BDE7-9F0200A703CB}" name="Marcos4352" displayName="Marcos4352" ref="B9:G36" totalsRowShown="0" headerRowDxfId="33" dataDxfId="32">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{DD82988E-1813-40AE-BDE7-9F0200A703CB}" name="Marcos4352" displayName="Marcos4352" ref="B9:G36" totalsRowShown="0" headerRowDxfId="42" dataDxfId="41">
   <autoFilter ref="B9:G36" xr:uid="{29E5A880-80D5-4B65-B5FB-8FB3913D3D27}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -2354,12 +2389,12 @@
     <filterColumn colId="5" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{619BF8F6-D0F1-41AD-871D-FE0240C45A93}" name="Descrição do marco" dataDxfId="31"/>
-    <tableColumn id="2" xr3:uid="{39BD914E-FB02-4352-846C-6D59624DC0B0}" name="Categoria" dataDxfId="30"/>
-    <tableColumn id="3" xr3:uid="{D274194F-BCA0-44F3-84B2-217254EE241C}" name="Atribuído a" dataDxfId="29"/>
-    <tableColumn id="4" xr3:uid="{8385BC6F-56EE-4363-A106-8DB0A1E4EF5A}" name="Progresso" dataDxfId="28"/>
-    <tableColumn id="5" xr3:uid="{02926609-7B93-4B6F-BE96-92EC7A949E4B}" name="Início" dataDxfId="27" dataCellStyle="Data"/>
-    <tableColumn id="6" xr3:uid="{8FF9BE8E-04B7-4B39-AC27-D2E534204BC3}" name="Dias" dataDxfId="26"/>
+    <tableColumn id="1" xr3:uid="{619BF8F6-D0F1-41AD-871D-FE0240C45A93}" name="Descrição do marco" dataDxfId="40"/>
+    <tableColumn id="2" xr3:uid="{39BD914E-FB02-4352-846C-6D59624DC0B0}" name="Categoria" dataDxfId="39"/>
+    <tableColumn id="3" xr3:uid="{D274194F-BCA0-44F3-84B2-217254EE241C}" name="Atribuído a" dataDxfId="38"/>
+    <tableColumn id="4" xr3:uid="{8385BC6F-56EE-4363-A106-8DB0A1E4EF5A}" name="Progresso" dataDxfId="37"/>
+    <tableColumn id="5" xr3:uid="{02926609-7B93-4B6F-BE96-92EC7A949E4B}" name="Início" dataDxfId="36" dataCellStyle="Data"/>
+    <tableColumn id="6" xr3:uid="{8FF9BE8E-04B7-4B39-AC27-D2E534204BC3}" name="Dias" dataDxfId="35"/>
   </tableColumns>
   <tableStyleInfo name="ListaDeTarefas" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -2371,7 +2406,7 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{0EDB95CA-98FE-4198-8801-690B9B480FDF}" name="Marcos435" displayName="Marcos435" ref="B9:G36" totalsRowShown="0" headerRowDxfId="16">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{0EDB95CA-98FE-4198-8801-690B9B480FDF}" name="Marcos435" displayName="Marcos435" ref="B9:G36" totalsRowShown="0" headerRowDxfId="34">
   <autoFilter ref="B9:G36" xr:uid="{29E5A880-80D5-4B65-B5FB-8FB3913D3D27}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -2381,9 +2416,9 @@
     <filterColumn colId="5" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{6E47A83D-ACD7-4EB6-9B84-5195E813945E}" name="Descrição do marco" dataDxfId="15"/>
-    <tableColumn id="2" xr3:uid="{529EEF64-D037-4ACF-8CA4-0C10FE2D1FBB}" name="Categoria" dataDxfId="14"/>
-    <tableColumn id="3" xr3:uid="{711D01BA-2785-403A-9636-CCC7E2ADA584}" name="Atribuído a" dataDxfId="13"/>
+    <tableColumn id="1" xr3:uid="{6E47A83D-ACD7-4EB6-9B84-5195E813945E}" name="Descrição do marco" dataDxfId="33"/>
+    <tableColumn id="2" xr3:uid="{529EEF64-D037-4ACF-8CA4-0C10FE2D1FBB}" name="Categoria" dataDxfId="32"/>
+    <tableColumn id="3" xr3:uid="{711D01BA-2785-403A-9636-CCC7E2ADA584}" name="Atribuído a" dataDxfId="31"/>
     <tableColumn id="4" xr3:uid="{62B00BEF-16BE-4692-B5E2-F287F680F2C1}" name="Progresso"/>
     <tableColumn id="5" xr3:uid="{D6D72902-F68F-4E59-A714-AFFF520C647A}" name="Início" dataCellStyle="Data"/>
     <tableColumn id="6" xr3:uid="{93E698DE-286F-49ED-AA20-D0C843671DE8}" name="Dias"/>
@@ -2398,7 +2433,7 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{876EA49D-634E-482B-8173-880F7B761E2C}" name="Marcos43524" displayName="Marcos43524" ref="B9:G36" totalsRowShown="0" headerRowDxfId="3">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{876EA49D-634E-482B-8173-880F7B761E2C}" name="Marcos43524" displayName="Marcos43524" ref="B9:G36" totalsRowShown="0" headerRowDxfId="30">
   <autoFilter ref="B9:G36" xr:uid="{29E5A880-80D5-4B65-B5FB-8FB3913D3D27}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -2408,9 +2443,9 @@
     <filterColumn colId="5" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{0971B905-713A-4980-8BBC-DF959C2E61F9}" name="Descrição do marco" dataDxfId="2"/>
-    <tableColumn id="2" xr3:uid="{4492A0B8-068F-4002-9E8D-E1F5FED367F0}" name="Categoria" dataDxfId="1"/>
-    <tableColumn id="3" xr3:uid="{DF1A764E-7050-4528-B7F9-B6AB99372146}" name="Atribuído a" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{0971B905-713A-4980-8BBC-DF959C2E61F9}" name="Descrição do marco" dataDxfId="29"/>
+    <tableColumn id="2" xr3:uid="{4492A0B8-068F-4002-9E8D-E1F5FED367F0}" name="Categoria" dataDxfId="28"/>
+    <tableColumn id="3" xr3:uid="{DF1A764E-7050-4528-B7F9-B6AB99372146}" name="Atribuído a" dataDxfId="27"/>
     <tableColumn id="4" xr3:uid="{47C54592-75B0-4C70-BBF8-0F40483670E9}" name="Progresso"/>
     <tableColumn id="5" xr3:uid="{663FB5E0-7616-4EA5-B56A-FF069E2E07D7}" name="Início" dataCellStyle="Data"/>
     <tableColumn id="6" xr3:uid="{3B766962-C06F-4E12-BE91-12AB93439874}" name="Dias"/>
@@ -3025,7 +3060,7 @@
       </c>
       <c r="C6" s="79" cm="1">
         <f t="array" aca="1" ref="C6" ca="1">IFERROR(IF(MIN(Marcos4352[Início])=0,TODAY(),B11(Marcos4352[Início])),TODAY())</f>
-        <v>45009</v>
+        <v>45010</v>
       </c>
       <c r="D6" s="79"/>
       <c r="E6" s="74"/>
@@ -3128,227 +3163,227 @@
       <c r="H7" s="81"/>
       <c r="I7" s="96">
         <f ca="1">IFERROR(Projeto_Início+Incremento_de_Deslocamento,TODAY())</f>
-        <v>45010</v>
+        <v>45011</v>
       </c>
       <c r="J7" s="97">
         <f ca="1">I7+1</f>
-        <v>45011</v>
+        <v>45012</v>
       </c>
       <c r="K7" s="97">
         <f t="shared" ref="K7:AX7" ca="1" si="0">J7+1</f>
-        <v>45012</v>
+        <v>45013</v>
       </c>
       <c r="L7" s="97">
         <f t="shared" ca="1" si="0"/>
-        <v>45013</v>
+        <v>45014</v>
       </c>
       <c r="M7" s="97">
         <f t="shared" ca="1" si="0"/>
-        <v>45014</v>
+        <v>45015</v>
       </c>
       <c r="N7" s="97">
         <f t="shared" ca="1" si="0"/>
-        <v>45015</v>
+        <v>45016</v>
       </c>
       <c r="O7" s="98">
         <f t="shared" ca="1" si="0"/>
-        <v>45016</v>
+        <v>45017</v>
       </c>
       <c r="P7" s="97">
         <f ca="1">O7+1</f>
-        <v>45017</v>
+        <v>45018</v>
       </c>
       <c r="Q7" s="97">
         <f ca="1">P7+1</f>
-        <v>45018</v>
+        <v>45019</v>
       </c>
       <c r="R7" s="97">
         <f t="shared" ca="1" si="0"/>
-        <v>45019</v>
+        <v>45020</v>
       </c>
       <c r="S7" s="97">
         <f t="shared" ca="1" si="0"/>
-        <v>45020</v>
+        <v>45021</v>
       </c>
       <c r="T7" s="97">
         <f t="shared" ca="1" si="0"/>
-        <v>45021</v>
+        <v>45022</v>
       </c>
       <c r="U7" s="97">
         <f t="shared" ca="1" si="0"/>
-        <v>45022</v>
+        <v>45023</v>
       </c>
       <c r="V7" s="98">
         <f t="shared" ca="1" si="0"/>
-        <v>45023</v>
+        <v>45024</v>
       </c>
       <c r="W7" s="97">
         <f ca="1">V7+1</f>
-        <v>45024</v>
+        <v>45025</v>
       </c>
       <c r="X7" s="97">
         <f ca="1">W7+1</f>
-        <v>45025</v>
+        <v>45026</v>
       </c>
       <c r="Y7" s="97">
         <f t="shared" ca="1" si="0"/>
-        <v>45026</v>
+        <v>45027</v>
       </c>
       <c r="Z7" s="97">
         <f t="shared" ca="1" si="0"/>
-        <v>45027</v>
+        <v>45028</v>
       </c>
       <c r="AA7" s="97">
         <f t="shared" ca="1" si="0"/>
-        <v>45028</v>
+        <v>45029</v>
       </c>
       <c r="AB7" s="97">
         <f t="shared" ca="1" si="0"/>
-        <v>45029</v>
+        <v>45030</v>
       </c>
       <c r="AC7" s="98">
         <f t="shared" ca="1" si="0"/>
-        <v>45030</v>
+        <v>45031</v>
       </c>
       <c r="AD7" s="97">
         <f ca="1">AC7+1</f>
-        <v>45031</v>
+        <v>45032</v>
       </c>
       <c r="AE7" s="97">
         <f ca="1">AD7+1</f>
-        <v>45032</v>
+        <v>45033</v>
       </c>
       <c r="AF7" s="97">
         <f t="shared" ca="1" si="0"/>
-        <v>45033</v>
+        <v>45034</v>
       </c>
       <c r="AG7" s="97">
         <f t="shared" ca="1" si="0"/>
-        <v>45034</v>
+        <v>45035</v>
       </c>
       <c r="AH7" s="97">
         <f t="shared" ca="1" si="0"/>
-        <v>45035</v>
+        <v>45036</v>
       </c>
       <c r="AI7" s="97">
         <f t="shared" ca="1" si="0"/>
-        <v>45036</v>
+        <v>45037</v>
       </c>
       <c r="AJ7" s="98">
         <f t="shared" ca="1" si="0"/>
-        <v>45037</v>
+        <v>45038</v>
       </c>
       <c r="AK7" s="97">
         <f ca="1">AJ7+1</f>
-        <v>45038</v>
+        <v>45039</v>
       </c>
       <c r="AL7" s="97">
         <f ca="1">AK7+1</f>
-        <v>45039</v>
+        <v>45040</v>
       </c>
       <c r="AM7" s="97">
         <f t="shared" ca="1" si="0"/>
-        <v>45040</v>
+        <v>45041</v>
       </c>
       <c r="AN7" s="97">
         <f t="shared" ca="1" si="0"/>
-        <v>45041</v>
+        <v>45042</v>
       </c>
       <c r="AO7" s="97">
         <f t="shared" ca="1" si="0"/>
-        <v>45042</v>
+        <v>45043</v>
       </c>
       <c r="AP7" s="97">
         <f t="shared" ca="1" si="0"/>
-        <v>45043</v>
+        <v>45044</v>
       </c>
       <c r="AQ7" s="98">
         <f t="shared" ca="1" si="0"/>
-        <v>45044</v>
+        <v>45045</v>
       </c>
       <c r="AR7" s="97">
         <f ca="1">AQ7+1</f>
-        <v>45045</v>
+        <v>45046</v>
       </c>
       <c r="AS7" s="97">
         <f ca="1">AR7+1</f>
-        <v>45046</v>
+        <v>45047</v>
       </c>
       <c r="AT7" s="97">
         <f t="shared" ca="1" si="0"/>
-        <v>45047</v>
+        <v>45048</v>
       </c>
       <c r="AU7" s="97">
         <f t="shared" ca="1" si="0"/>
-        <v>45048</v>
+        <v>45049</v>
       </c>
       <c r="AV7" s="97">
         <f t="shared" ca="1" si="0"/>
-        <v>45049</v>
+        <v>45050</v>
       </c>
       <c r="AW7" s="97">
         <f t="shared" ca="1" si="0"/>
-        <v>45050</v>
+        <v>45051</v>
       </c>
       <c r="AX7" s="98">
         <f t="shared" ca="1" si="0"/>
-        <v>45051</v>
+        <v>45052</v>
       </c>
       <c r="AY7" s="97">
         <f ca="1">AX7+1</f>
-        <v>45052</v>
+        <v>45053</v>
       </c>
       <c r="AZ7" s="97">
         <f ca="1">AY7+1</f>
-        <v>45053</v>
+        <v>45054</v>
       </c>
       <c r="BA7" s="97">
         <f t="shared" ref="BA7:BE7" ca="1" si="1">AZ7+1</f>
-        <v>45054</v>
+        <v>45055</v>
       </c>
       <c r="BB7" s="97">
         <f t="shared" ca="1" si="1"/>
-        <v>45055</v>
+        <v>45056</v>
       </c>
       <c r="BC7" s="97">
         <f t="shared" ca="1" si="1"/>
-        <v>45056</v>
+        <v>45057</v>
       </c>
       <c r="BD7" s="97">
         <f t="shared" ca="1" si="1"/>
-        <v>45057</v>
+        <v>45058</v>
       </c>
       <c r="BE7" s="98">
         <f t="shared" ca="1" si="1"/>
-        <v>45058</v>
+        <v>45059</v>
       </c>
       <c r="BF7" s="97">
         <f ca="1">BE7+1</f>
-        <v>45059</v>
+        <v>45060</v>
       </c>
       <c r="BG7" s="97">
         <f ca="1">BF7+1</f>
-        <v>45060</v>
+        <v>45061</v>
       </c>
       <c r="BH7" s="97">
         <f t="shared" ref="BH7:BL7" ca="1" si="2">BG7+1</f>
-        <v>45061</v>
+        <v>45062</v>
       </c>
       <c r="BI7" s="97">
         <f t="shared" ca="1" si="2"/>
-        <v>45062</v>
+        <v>45063</v>
       </c>
       <c r="BJ7" s="97">
         <f t="shared" ca="1" si="2"/>
-        <v>45063</v>
+        <v>45064</v>
       </c>
       <c r="BK7" s="97">
         <f t="shared" ca="1" si="2"/>
-        <v>45064</v>
+        <v>45065</v>
       </c>
       <c r="BL7" s="98">
         <f t="shared" ca="1" si="2"/>
-        <v>45065</v>
+        <v>45066</v>
       </c>
     </row>
     <row r="8" spans="1:68" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
@@ -3442,19 +3477,19 @@
       <c r="H9" s="86"/>
       <c r="I9" s="104" t="str">
         <f t="shared" ref="I9:BL9" ca="1" si="3">LEFT(TEXT(I7,"ddd"),1)</f>
-        <v>s</v>
+        <v>d</v>
       </c>
       <c r="J9" s="104" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>d</v>
+        <v>s</v>
       </c>
       <c r="K9" s="104" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>s</v>
+        <v>t</v>
       </c>
       <c r="L9" s="104" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>t</v>
+        <v>q</v>
       </c>
       <c r="M9" s="104" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -3462,7 +3497,7 @@
       </c>
       <c r="N9" s="104" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>q</v>
+        <v>s</v>
       </c>
       <c r="O9" s="104" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -3470,19 +3505,19 @@
       </c>
       <c r="P9" s="104" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>s</v>
+        <v>d</v>
       </c>
       <c r="Q9" s="104" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>d</v>
+        <v>s</v>
       </c>
       <c r="R9" s="104" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>s</v>
+        <v>t</v>
       </c>
       <c r="S9" s="104" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>t</v>
+        <v>q</v>
       </c>
       <c r="T9" s="104" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -3490,7 +3525,7 @@
       </c>
       <c r="U9" s="104" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>q</v>
+        <v>s</v>
       </c>
       <c r="V9" s="104" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -3498,19 +3533,19 @@
       </c>
       <c r="W9" s="104" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>s</v>
+        <v>d</v>
       </c>
       <c r="X9" s="104" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>d</v>
+        <v>s</v>
       </c>
       <c r="Y9" s="104" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>s</v>
+        <v>t</v>
       </c>
       <c r="Z9" s="104" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>t</v>
+        <v>q</v>
       </c>
       <c r="AA9" s="104" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -3518,7 +3553,7 @@
       </c>
       <c r="AB9" s="104" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>q</v>
+        <v>s</v>
       </c>
       <c r="AC9" s="104" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -3526,19 +3561,19 @@
       </c>
       <c r="AD9" s="104" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>s</v>
+        <v>d</v>
       </c>
       <c r="AE9" s="104" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>d</v>
+        <v>s</v>
       </c>
       <c r="AF9" s="104" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>s</v>
+        <v>t</v>
       </c>
       <c r="AG9" s="104" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>t</v>
+        <v>q</v>
       </c>
       <c r="AH9" s="104" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -3546,7 +3581,7 @@
       </c>
       <c r="AI9" s="104" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>q</v>
+        <v>s</v>
       </c>
       <c r="AJ9" s="104" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -3554,19 +3589,19 @@
       </c>
       <c r="AK9" s="104" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>s</v>
+        <v>d</v>
       </c>
       <c r="AL9" s="104" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>d</v>
+        <v>s</v>
       </c>
       <c r="AM9" s="104" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>s</v>
+        <v>t</v>
       </c>
       <c r="AN9" s="104" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>t</v>
+        <v>q</v>
       </c>
       <c r="AO9" s="104" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -3574,7 +3609,7 @@
       </c>
       <c r="AP9" s="104" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>q</v>
+        <v>s</v>
       </c>
       <c r="AQ9" s="104" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -3582,19 +3617,19 @@
       </c>
       <c r="AR9" s="104" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>s</v>
+        <v>d</v>
       </c>
       <c r="AS9" s="104" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>d</v>
+        <v>s</v>
       </c>
       <c r="AT9" s="104" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>s</v>
+        <v>t</v>
       </c>
       <c r="AU9" s="104" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>t</v>
+        <v>q</v>
       </c>
       <c r="AV9" s="104" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -3602,7 +3637,7 @@
       </c>
       <c r="AW9" s="104" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>q</v>
+        <v>s</v>
       </c>
       <c r="AX9" s="104" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -3610,19 +3645,19 @@
       </c>
       <c r="AY9" s="104" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>s</v>
+        <v>d</v>
       </c>
       <c r="AZ9" s="104" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>d</v>
+        <v>s</v>
       </c>
       <c r="BA9" s="104" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>s</v>
+        <v>t</v>
       </c>
       <c r="BB9" s="104" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>t</v>
+        <v>q</v>
       </c>
       <c r="BC9" s="104" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -3630,7 +3665,7 @@
       </c>
       <c r="BD9" s="104" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>q</v>
+        <v>s</v>
       </c>
       <c r="BE9" s="104" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -3638,19 +3673,19 @@
       </c>
       <c r="BF9" s="104" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>s</v>
+        <v>d</v>
       </c>
       <c r="BG9" s="104" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>d</v>
+        <v>s</v>
       </c>
       <c r="BH9" s="104" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>s</v>
+        <v>t</v>
       </c>
       <c r="BI9" s="104" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>t</v>
+        <v>q</v>
       </c>
       <c r="BJ9" s="104" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -3658,7 +3693,7 @@
       </c>
       <c r="BK9" s="104" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>q</v>
+        <v>s</v>
       </c>
       <c r="BL9" s="104" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -3984,7 +4019,7 @@
       </c>
       <c r="F12" s="60">
         <f ca="1">TODAY()</f>
-        <v>45009</v>
+        <v>45010</v>
       </c>
       <c r="G12" s="61">
         <v>3</v>
@@ -4227,7 +4262,7 @@
       <c r="E13" s="59"/>
       <c r="F13" s="60">
         <f ca="1">TODAY()+5</f>
-        <v>45014</v>
+        <v>45015</v>
       </c>
       <c r="G13" s="61">
         <v>1</v>
@@ -4472,7 +4507,7 @@
       </c>
       <c r="F14" s="60">
         <f ca="1">F12-3</f>
-        <v>45006</v>
+        <v>45007</v>
       </c>
       <c r="G14" s="61">
         <v>10</v>
@@ -4715,7 +4750,7 @@
       <c r="E15" s="59"/>
       <c r="F15" s="60">
         <f ca="1">F12+20</f>
-        <v>45029</v>
+        <v>45030</v>
       </c>
       <c r="G15" s="61">
         <v>1</v>
@@ -4960,7 +4995,7 @@
       </c>
       <c r="F16" s="60">
         <f ca="1">F12+6</f>
-        <v>45015</v>
+        <v>45016</v>
       </c>
       <c r="G16" s="61">
         <v>6</v>
@@ -5441,7 +5476,7 @@
       </c>
       <c r="F18" s="60">
         <f ca="1">F12+6</f>
-        <v>45015</v>
+        <v>45016</v>
       </c>
       <c r="G18" s="61">
         <v>13</v>
@@ -5686,7 +5721,7 @@
       </c>
       <c r="F19" s="60">
         <f ca="1">F18+2</f>
-        <v>45017</v>
+        <v>45018</v>
       </c>
       <c r="G19" s="61">
         <v>9</v>
@@ -5931,7 +5966,7 @@
       </c>
       <c r="F20" s="60">
         <f ca="1">F19+5</f>
-        <v>45022</v>
+        <v>45023</v>
       </c>
       <c r="G20" s="61">
         <v>11</v>
@@ -6174,7 +6209,7 @@
       <c r="E21" s="59"/>
       <c r="F21" s="60">
         <f ca="1">F20+2</f>
-        <v>45024</v>
+        <v>45025</v>
       </c>
       <c r="G21" s="61">
         <v>1</v>
@@ -6415,7 +6450,7 @@
       <c r="E22" s="59"/>
       <c r="F22" s="60">
         <f ca="1">F21+1</f>
-        <v>45025</v>
+        <v>45026</v>
       </c>
       <c r="G22" s="61">
         <v>24</v>
@@ -6894,7 +6929,7 @@
       <c r="E24" s="59"/>
       <c r="F24" s="60">
         <f ca="1">F12+15</f>
-        <v>45024</v>
+        <v>45025</v>
       </c>
       <c r="G24" s="61">
         <v>4</v>
@@ -7137,7 +7172,7 @@
       <c r="E25" s="59"/>
       <c r="F25" s="60">
         <f ca="1">F24+3</f>
-        <v>45027</v>
+        <v>45028</v>
       </c>
       <c r="G25" s="61">
         <v>14</v>
@@ -7380,7 +7415,7 @@
       <c r="E26" s="59"/>
       <c r="F26" s="60">
         <f ca="1">F25+15</f>
-        <v>45042</v>
+        <v>45043</v>
       </c>
       <c r="G26" s="61">
         <v>6</v>
@@ -7623,7 +7658,7 @@
       <c r="E27" s="59"/>
       <c r="F27" s="60">
         <f ca="1">F21+22</f>
-        <v>45046</v>
+        <v>45047</v>
       </c>
       <c r="G27" s="61">
         <v>3</v>
@@ -7866,7 +7901,7 @@
       <c r="E28" s="59"/>
       <c r="F28" s="60">
         <f ca="1">F16</f>
-        <v>45015</v>
+        <v>45016</v>
       </c>
       <c r="G28" s="61">
         <v>19</v>
@@ -8343,7 +8378,7 @@
       <c r="E30" s="59"/>
       <c r="F30" s="60">
         <f ca="1">F27+3</f>
-        <v>45049</v>
+        <v>45050</v>
       </c>
       <c r="G30" s="61">
         <v>15</v>
@@ -8584,7 +8619,7 @@
       <c r="E31" s="59"/>
       <c r="F31" s="60">
         <f ca="1">F30+14</f>
-        <v>45063</v>
+        <v>45064</v>
       </c>
       <c r="G31" s="61">
         <v>5</v>
@@ -8827,7 +8862,7 @@
       <c r="E32" s="59"/>
       <c r="F32" s="60">
         <f ca="1">F31+42</f>
-        <v>45105</v>
+        <v>45106</v>
       </c>
       <c r="G32" s="61">
         <v>1</v>
@@ -9868,39 +9903,39 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I7:BL36">
-    <cfRule type="expression" dxfId="42" priority="1">
+    <cfRule type="expression" dxfId="26" priority="1">
       <formula>AND(TODAY()&gt;=I$7,TODAY()&lt;J$7)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I6:AM6">
-    <cfRule type="expression" dxfId="41" priority="4">
+    <cfRule type="expression" dxfId="25" priority="4">
       <formula>I$7&lt;=EOMONTH($I$7,0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J6:BL6">
-    <cfRule type="expression" dxfId="40" priority="3">
+    <cfRule type="expression" dxfId="24" priority="3">
       <formula>AND(J$7&lt;=EOMONTH($I$7,2),J$7&gt;EOMONTH($I$7,0),J$7&gt;EOMONTH($I$7,1))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I6:BL6">
-    <cfRule type="expression" dxfId="39" priority="2">
+    <cfRule type="expression" dxfId="23" priority="2">
       <formula>AND(I$7&lt;=EOMONTH($I$7,1),I$7&gt;EOMONTH($I$7,0))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I10:BL35">
-    <cfRule type="expression" dxfId="38" priority="7" stopIfTrue="1">
+    <cfRule type="expression" dxfId="22" priority="7" stopIfTrue="1">
       <formula>AND($C10="Risco Baixo",I$7&gt;=$F10,I$7&lt;=$F10+$G10-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="37" priority="8" stopIfTrue="1">
+    <cfRule type="expression" dxfId="21" priority="8" stopIfTrue="1">
       <formula>AND($C10="Risco Elevado",I$7&gt;=$F10,I$7&lt;=$F10+$G10-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="36" priority="9" stopIfTrue="1">
+    <cfRule type="expression" dxfId="20" priority="9" stopIfTrue="1">
       <formula>AND($C10="Dentro do prazo",I$7&gt;=$F10,I$7&lt;=$F10+$G10-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="35" priority="10" stopIfTrue="1">
+    <cfRule type="expression" dxfId="19" priority="10" stopIfTrue="1">
       <formula>AND($C10="Risco Médio",I$7&gt;=$F10,I$7&lt;=$F10+$G10-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="34" priority="11" stopIfTrue="1">
+    <cfRule type="expression" dxfId="18" priority="11" stopIfTrue="1">
       <formula>AND(LEN($C10)=0,I$7&gt;=$F10,I$7&lt;=$F10+$G10-1)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10028,7 +10063,7 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:BP38"/>
   <sheetViews>
-    <sheetView showGridLines="0" showRuler="0" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0"/>
+    <sheetView showGridLines="0" showRuler="0" topLeftCell="A6" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
@@ -10341,7 +10376,7 @@
       </c>
       <c r="C6" s="34" cm="1">
         <f t="array" aca="1" ref="C6" ca="1">IFERROR(IF(MIN(Marcos435[Início])=0,TODAY(),B11(Marcos435[Início])),TODAY())</f>
-        <v>45009</v>
+        <v>45010</v>
       </c>
       <c r="D6" s="122"/>
       <c r="E6" s="32"/>
@@ -10445,227 +10480,227 @@
       <c r="H7" s="29"/>
       <c r="I7" s="94">
         <f ca="1">IFERROR(Projeto_Início+Incremento_de_Deslocamento,TODAY())</f>
-        <v>45010</v>
+        <v>45011</v>
       </c>
       <c r="J7" s="17">
         <f ca="1">I7+1</f>
-        <v>45011</v>
+        <v>45012</v>
       </c>
       <c r="K7" s="17">
         <f t="shared" ref="K7:AX7" ca="1" si="0">J7+1</f>
-        <v>45012</v>
+        <v>45013</v>
       </c>
       <c r="L7" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>45013</v>
+        <v>45014</v>
       </c>
       <c r="M7" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>45014</v>
+        <v>45015</v>
       </c>
       <c r="N7" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>45015</v>
+        <v>45016</v>
       </c>
       <c r="O7" s="63">
         <f t="shared" ca="1" si="0"/>
-        <v>45016</v>
+        <v>45017</v>
       </c>
       <c r="P7" s="17">
         <f ca="1">O7+1</f>
-        <v>45017</v>
+        <v>45018</v>
       </c>
       <c r="Q7" s="17">
         <f ca="1">P7+1</f>
-        <v>45018</v>
+        <v>45019</v>
       </c>
       <c r="R7" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>45019</v>
+        <v>45020</v>
       </c>
       <c r="S7" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>45020</v>
+        <v>45021</v>
       </c>
       <c r="T7" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>45021</v>
+        <v>45022</v>
       </c>
       <c r="U7" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>45022</v>
+        <v>45023</v>
       </c>
       <c r="V7" s="63">
         <f t="shared" ca="1" si="0"/>
-        <v>45023</v>
+        <v>45024</v>
       </c>
       <c r="W7" s="17">
         <f ca="1">V7+1</f>
-        <v>45024</v>
+        <v>45025</v>
       </c>
       <c r="X7" s="17">
         <f ca="1">W7+1</f>
-        <v>45025</v>
+        <v>45026</v>
       </c>
       <c r="Y7" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>45026</v>
+        <v>45027</v>
       </c>
       <c r="Z7" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>45027</v>
+        <v>45028</v>
       </c>
       <c r="AA7" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>45028</v>
+        <v>45029</v>
       </c>
       <c r="AB7" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>45029</v>
+        <v>45030</v>
       </c>
       <c r="AC7" s="63">
         <f t="shared" ca="1" si="0"/>
-        <v>45030</v>
+        <v>45031</v>
       </c>
       <c r="AD7" s="17">
         <f ca="1">AC7+1</f>
-        <v>45031</v>
+        <v>45032</v>
       </c>
       <c r="AE7" s="17">
         <f ca="1">AD7+1</f>
-        <v>45032</v>
+        <v>45033</v>
       </c>
       <c r="AF7" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>45033</v>
+        <v>45034</v>
       </c>
       <c r="AG7" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>45034</v>
+        <v>45035</v>
       </c>
       <c r="AH7" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>45035</v>
+        <v>45036</v>
       </c>
       <c r="AI7" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>45036</v>
+        <v>45037</v>
       </c>
       <c r="AJ7" s="63">
         <f t="shared" ca="1" si="0"/>
-        <v>45037</v>
+        <v>45038</v>
       </c>
       <c r="AK7" s="17">
         <f ca="1">AJ7+1</f>
-        <v>45038</v>
+        <v>45039</v>
       </c>
       <c r="AL7" s="17">
         <f ca="1">AK7+1</f>
-        <v>45039</v>
+        <v>45040</v>
       </c>
       <c r="AM7" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>45040</v>
+        <v>45041</v>
       </c>
       <c r="AN7" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>45041</v>
+        <v>45042</v>
       </c>
       <c r="AO7" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>45042</v>
+        <v>45043</v>
       </c>
       <c r="AP7" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>45043</v>
+        <v>45044</v>
       </c>
       <c r="AQ7" s="63">
         <f t="shared" ca="1" si="0"/>
-        <v>45044</v>
+        <v>45045</v>
       </c>
       <c r="AR7" s="17">
         <f ca="1">AQ7+1</f>
-        <v>45045</v>
+        <v>45046</v>
       </c>
       <c r="AS7" s="17">
         <f ca="1">AR7+1</f>
-        <v>45046</v>
+        <v>45047</v>
       </c>
       <c r="AT7" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>45047</v>
+        <v>45048</v>
       </c>
       <c r="AU7" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>45048</v>
+        <v>45049</v>
       </c>
       <c r="AV7" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>45049</v>
+        <v>45050</v>
       </c>
       <c r="AW7" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>45050</v>
+        <v>45051</v>
       </c>
       <c r="AX7" s="63">
         <f t="shared" ca="1" si="0"/>
-        <v>45051</v>
+        <v>45052</v>
       </c>
       <c r="AY7" s="17">
         <f ca="1">AX7+1</f>
-        <v>45052</v>
+        <v>45053</v>
       </c>
       <c r="AZ7" s="17">
         <f ca="1">AY7+1</f>
-        <v>45053</v>
+        <v>45054</v>
       </c>
       <c r="BA7" s="17">
         <f t="shared" ref="BA7:BE7" ca="1" si="1">AZ7+1</f>
-        <v>45054</v>
+        <v>45055</v>
       </c>
       <c r="BB7" s="17">
         <f t="shared" ca="1" si="1"/>
-        <v>45055</v>
+        <v>45056</v>
       </c>
       <c r="BC7" s="17">
         <f t="shared" ca="1" si="1"/>
-        <v>45056</v>
+        <v>45057</v>
       </c>
       <c r="BD7" s="17">
         <f t="shared" ca="1" si="1"/>
-        <v>45057</v>
+        <v>45058</v>
       </c>
       <c r="BE7" s="63">
         <f t="shared" ca="1" si="1"/>
-        <v>45058</v>
+        <v>45059</v>
       </c>
       <c r="BF7" s="17">
         <f ca="1">BE7+1</f>
-        <v>45059</v>
+        <v>45060</v>
       </c>
       <c r="BG7" s="17">
         <f ca="1">BF7+1</f>
-        <v>45060</v>
+        <v>45061</v>
       </c>
       <c r="BH7" s="17">
         <f t="shared" ref="BH7:BL7" ca="1" si="2">BG7+1</f>
-        <v>45061</v>
+        <v>45062</v>
       </c>
       <c r="BI7" s="17">
         <f t="shared" ca="1" si="2"/>
-        <v>45062</v>
+        <v>45063</v>
       </c>
       <c r="BJ7" s="17">
         <f t="shared" ca="1" si="2"/>
-        <v>45063</v>
+        <v>45064</v>
       </c>
       <c r="BK7" s="17">
         <f t="shared" ca="1" si="2"/>
-        <v>45064</v>
+        <v>45065</v>
       </c>
       <c r="BL7" s="18">
         <f t="shared" ca="1" si="2"/>
-        <v>45065</v>
+        <v>45066</v>
       </c>
       <c r="BM7" s="32"/>
     </row>
@@ -10761,19 +10796,19 @@
       <c r="H9" s="48"/>
       <c r="I9" s="37" t="str">
         <f t="shared" ref="I9:BL9" ca="1" si="3">LEFT(TEXT(I7,"ddd"),1)</f>
-        <v>s</v>
+        <v>d</v>
       </c>
       <c r="J9" s="37" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>d</v>
+        <v>s</v>
       </c>
       <c r="K9" s="37" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>s</v>
+        <v>t</v>
       </c>
       <c r="L9" s="37" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>t</v>
+        <v>q</v>
       </c>
       <c r="M9" s="37" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -10781,7 +10816,7 @@
       </c>
       <c r="N9" s="37" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>q</v>
+        <v>s</v>
       </c>
       <c r="O9" s="37" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -10789,19 +10824,19 @@
       </c>
       <c r="P9" s="37" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>s</v>
+        <v>d</v>
       </c>
       <c r="Q9" s="37" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>d</v>
+        <v>s</v>
       </c>
       <c r="R9" s="37" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>s</v>
+        <v>t</v>
       </c>
       <c r="S9" s="37" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>t</v>
+        <v>q</v>
       </c>
       <c r="T9" s="37" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -10809,7 +10844,7 @@
       </c>
       <c r="U9" s="37" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>q</v>
+        <v>s</v>
       </c>
       <c r="V9" s="37" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -10817,19 +10852,19 @@
       </c>
       <c r="W9" s="37" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>s</v>
+        <v>d</v>
       </c>
       <c r="X9" s="37" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>d</v>
+        <v>s</v>
       </c>
       <c r="Y9" s="37" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>s</v>
+        <v>t</v>
       </c>
       <c r="Z9" s="37" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>t</v>
+        <v>q</v>
       </c>
       <c r="AA9" s="37" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -10837,7 +10872,7 @@
       </c>
       <c r="AB9" s="37" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>q</v>
+        <v>s</v>
       </c>
       <c r="AC9" s="37" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -10845,19 +10880,19 @@
       </c>
       <c r="AD9" s="37" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>s</v>
+        <v>d</v>
       </c>
       <c r="AE9" s="37" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>d</v>
+        <v>s</v>
       </c>
       <c r="AF9" s="37" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>s</v>
+        <v>t</v>
       </c>
       <c r="AG9" s="37" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>t</v>
+        <v>q</v>
       </c>
       <c r="AH9" s="37" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -10865,7 +10900,7 @@
       </c>
       <c r="AI9" s="37" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>q</v>
+        <v>s</v>
       </c>
       <c r="AJ9" s="37" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -10873,19 +10908,19 @@
       </c>
       <c r="AK9" s="37" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>s</v>
+        <v>d</v>
       </c>
       <c r="AL9" s="37" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>d</v>
+        <v>s</v>
       </c>
       <c r="AM9" s="37" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>s</v>
+        <v>t</v>
       </c>
       <c r="AN9" s="37" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>t</v>
+        <v>q</v>
       </c>
       <c r="AO9" s="37" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -10893,7 +10928,7 @@
       </c>
       <c r="AP9" s="37" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>q</v>
+        <v>s</v>
       </c>
       <c r="AQ9" s="37" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -10901,19 +10936,19 @@
       </c>
       <c r="AR9" s="37" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>s</v>
+        <v>d</v>
       </c>
       <c r="AS9" s="37" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>d</v>
+        <v>s</v>
       </c>
       <c r="AT9" s="37" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>s</v>
+        <v>t</v>
       </c>
       <c r="AU9" s="37" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>t</v>
+        <v>q</v>
       </c>
       <c r="AV9" s="37" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -10921,7 +10956,7 @@
       </c>
       <c r="AW9" s="37" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>q</v>
+        <v>s</v>
       </c>
       <c r="AX9" s="37" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -10929,19 +10964,19 @@
       </c>
       <c r="AY9" s="37" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>s</v>
+        <v>d</v>
       </c>
       <c r="AZ9" s="37" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>d</v>
+        <v>s</v>
       </c>
       <c r="BA9" s="37" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>s</v>
+        <v>t</v>
       </c>
       <c r="BB9" s="37" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>t</v>
+        <v>q</v>
       </c>
       <c r="BC9" s="37" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -10949,7 +10984,7 @@
       </c>
       <c r="BD9" s="37" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>q</v>
+        <v>s</v>
       </c>
       <c r="BE9" s="37" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -10957,19 +10992,19 @@
       </c>
       <c r="BF9" s="37" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>s</v>
+        <v>d</v>
       </c>
       <c r="BG9" s="37" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>d</v>
+        <v>s</v>
       </c>
       <c r="BH9" s="37" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>s</v>
+        <v>t</v>
       </c>
       <c r="BI9" s="37" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>t</v>
+        <v>q</v>
       </c>
       <c r="BJ9" s="37" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -10977,7 +11012,7 @@
       </c>
       <c r="BK9" s="37" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>q</v>
+        <v>s</v>
       </c>
       <c r="BL9" s="37" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -11307,7 +11342,7 @@
       </c>
       <c r="F12" s="23">
         <f ca="1">TODAY()</f>
-        <v>45009</v>
+        <v>45010</v>
       </c>
       <c r="G12" s="24">
         <v>3</v>
@@ -11551,7 +11586,7 @@
       <c r="E13" s="22"/>
       <c r="F13" s="23">
         <f ca="1">TODAY()+5</f>
-        <v>45014</v>
+        <v>45015</v>
       </c>
       <c r="G13" s="24">
         <v>1</v>
@@ -11797,7 +11832,7 @@
       </c>
       <c r="F14" s="23">
         <f ca="1">F12-3</f>
-        <v>45006</v>
+        <v>45007</v>
       </c>
       <c r="G14" s="24">
         <v>10</v>
@@ -12041,7 +12076,7 @@
       <c r="E15" s="22"/>
       <c r="F15" s="23">
         <f ca="1">F12+20</f>
-        <v>45029</v>
+        <v>45030</v>
       </c>
       <c r="G15" s="24">
         <v>1</v>
@@ -12287,7 +12322,7 @@
       </c>
       <c r="F16" s="23">
         <f ca="1">F12+6</f>
-        <v>45015</v>
+        <v>45016</v>
       </c>
       <c r="G16" s="24">
         <v>6</v>
@@ -12770,7 +12805,7 @@
       </c>
       <c r="F18" s="23">
         <f ca="1">F12+6</f>
-        <v>45015</v>
+        <v>45016</v>
       </c>
       <c r="G18" s="24">
         <v>13</v>
@@ -13016,7 +13051,7 @@
       </c>
       <c r="F19" s="23">
         <f ca="1">F18+2</f>
-        <v>45017</v>
+        <v>45018</v>
       </c>
       <c r="G19" s="24">
         <v>9</v>
@@ -13262,7 +13297,7 @@
       </c>
       <c r="F20" s="23">
         <f ca="1">F19+5</f>
-        <v>45022</v>
+        <v>45023</v>
       </c>
       <c r="G20" s="24">
         <v>11</v>
@@ -13506,7 +13541,7 @@
       <c r="E21" s="22"/>
       <c r="F21" s="23">
         <f ca="1">F20+2</f>
-        <v>45024</v>
+        <v>45025</v>
       </c>
       <c r="G21" s="24">
         <v>1</v>
@@ -13748,7 +13783,7 @@
       <c r="E22" s="22"/>
       <c r="F22" s="23">
         <f ca="1">F21+1</f>
-        <v>45025</v>
+        <v>45026</v>
       </c>
       <c r="G22" s="24">
         <v>24</v>
@@ -14229,7 +14264,7 @@
       <c r="E24" s="22"/>
       <c r="F24" s="23">
         <f ca="1">F12+15</f>
-        <v>45024</v>
+        <v>45025</v>
       </c>
       <c r="G24" s="24">
         <v>4</v>
@@ -14473,7 +14508,7 @@
       <c r="E25" s="22"/>
       <c r="F25" s="23">
         <f ca="1">F24+3</f>
-        <v>45027</v>
+        <v>45028</v>
       </c>
       <c r="G25" s="24">
         <v>14</v>
@@ -14717,7 +14752,7 @@
       <c r="E26" s="22"/>
       <c r="F26" s="23">
         <f ca="1">F25+15</f>
-        <v>45042</v>
+        <v>45043</v>
       </c>
       <c r="G26" s="24">
         <v>6</v>
@@ -14961,7 +14996,7 @@
       <c r="E27" s="22"/>
       <c r="F27" s="23">
         <f ca="1">F21+22</f>
-        <v>45046</v>
+        <v>45047</v>
       </c>
       <c r="G27" s="24">
         <v>3</v>
@@ -15205,7 +15240,7 @@
       <c r="E28" s="22"/>
       <c r="F28" s="23">
         <f ca="1">F16</f>
-        <v>45015</v>
+        <v>45016</v>
       </c>
       <c r="G28" s="24">
         <v>19</v>
@@ -15684,7 +15719,7 @@
       <c r="E30" s="22"/>
       <c r="F30" s="23">
         <f ca="1">F27+3</f>
-        <v>45049</v>
+        <v>45050</v>
       </c>
       <c r="G30" s="24">
         <v>15</v>
@@ -15926,7 +15961,7 @@
       <c r="E31" s="22"/>
       <c r="F31" s="23">
         <f ca="1">F30+14</f>
-        <v>45063</v>
+        <v>45064</v>
       </c>
       <c r="G31" s="24">
         <v>5</v>
@@ -16170,7 +16205,7 @@
       <c r="E32" s="22"/>
       <c r="F32" s="23">
         <f ca="1">F31+42</f>
-        <v>45105</v>
+        <v>45106</v>
       </c>
       <c r="G32" s="24">
         <v>1</v>
@@ -17214,39 +17249,39 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I7:BL36">
-    <cfRule type="expression" dxfId="25" priority="1">
+    <cfRule type="expression" dxfId="17" priority="1">
       <formula>AND(TODAY()&gt;=I$7,TODAY()&lt;J$7)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I6:AM6">
-    <cfRule type="expression" dxfId="24" priority="4">
+    <cfRule type="expression" dxfId="16" priority="4">
       <formula>I$7&lt;=EOMONTH($I$7,0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J6:BL6">
-    <cfRule type="expression" dxfId="23" priority="3">
+    <cfRule type="expression" dxfId="15" priority="3">
       <formula>AND(J$7&lt;=EOMONTH($I$7,2),J$7&gt;EOMONTH($I$7,0),J$7&gt;EOMONTH($I$7,1))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I6:BL6">
-    <cfRule type="expression" dxfId="22" priority="2">
+    <cfRule type="expression" dxfId="14" priority="2">
       <formula>AND(I$7&lt;=EOMONTH($I$7,1),I$7&gt;EOMONTH($I$7,0))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I10:BL35">
-    <cfRule type="expression" dxfId="21" priority="7" stopIfTrue="1">
+    <cfRule type="expression" dxfId="13" priority="7" stopIfTrue="1">
       <formula>AND($C10="Risco Baixo",I$7&gt;=$F10,I$7&lt;=$F10+$G10-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="20" priority="8" stopIfTrue="1">
+    <cfRule type="expression" dxfId="12" priority="8" stopIfTrue="1">
       <formula>AND($C10="Risco Elevado",I$7&gt;=$F10,I$7&lt;=$F10+$G10-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="19" priority="9" stopIfTrue="1">
+    <cfRule type="expression" dxfId="11" priority="9" stopIfTrue="1">
       <formula>AND($C10="Dentro do prazo",I$7&gt;=$F10,I$7&lt;=$F10+$G10-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="18" priority="10" stopIfTrue="1">
+    <cfRule type="expression" dxfId="10" priority="10" stopIfTrue="1">
       <formula>AND($C10="Risco Médio",I$7&gt;=$F10,I$7&lt;=$F10+$G10-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="17" priority="11" stopIfTrue="1">
+    <cfRule type="expression" dxfId="9" priority="11" stopIfTrue="1">
       <formula>AND(LEN($C10)=0,I$7&gt;=$F10,I$7&lt;=$F10+$G10-1)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -17373,8 +17408,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0BB8625-911A-4DD3-B0BE-8E3C7AEA3578}">
   <dimension ref="A1:BP38"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" showRuler="0" topLeftCell="A3" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="B30" sqref="B30:B34"/>
+    <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScale="55" zoomScaleNormal="55" zoomScalePageLayoutView="70" workbookViewId="0">
+      <selection activeCell="I32" sqref="I32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -17538,7 +17573,7 @@
         <v>6</v>
       </c>
       <c r="C6" s="79">
-        <v>44982</v>
+        <v>44986</v>
       </c>
       <c r="D6" s="79"/>
       <c r="E6" s="74"/>
@@ -17547,7 +17582,7 @@
       <c r="H6" s="74"/>
       <c r="I6" s="89" t="str">
         <f ca="1">TEXT(I7,"mmmm")</f>
-        <v>fevereiro</v>
+        <v>março</v>
       </c>
       <c r="J6" s="89"/>
       <c r="K6" s="89"/>
@@ -17557,7 +17592,7 @@
       <c r="O6" s="89"/>
       <c r="P6" s="89" t="str">
         <f ca="1">IF(TEXT(P7,"mmmm")=I6,"",TEXT(P7,"mmmm"))</f>
-        <v>março</v>
+        <v/>
       </c>
       <c r="Q6" s="89"/>
       <c r="R6" s="89"/>
@@ -17632,7 +17667,7 @@
         <v>7</v>
       </c>
       <c r="C7" s="80">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D7" s="73"/>
       <c r="E7" s="74"/>
@@ -17641,227 +17676,227 @@
       <c r="H7" s="81"/>
       <c r="I7" s="96">
         <f ca="1">IFERROR(Projeto_Início+Incremento_de_Deslocamento,TODAY())</f>
-        <v>44983</v>
+        <v>44986</v>
       </c>
       <c r="J7" s="97">
         <f ca="1">I7+1</f>
-        <v>44984</v>
+        <v>44987</v>
       </c>
       <c r="K7" s="97">
         <f t="shared" ref="K7:AX7" ca="1" si="0">J7+1</f>
-        <v>44985</v>
+        <v>44988</v>
       </c>
       <c r="L7" s="97">
         <f t="shared" ca="1" si="0"/>
-        <v>44986</v>
+        <v>44989</v>
       </c>
       <c r="M7" s="97">
         <f t="shared" ca="1" si="0"/>
-        <v>44987</v>
+        <v>44990</v>
       </c>
       <c r="N7" s="97">
         <f t="shared" ca="1" si="0"/>
-        <v>44988</v>
+        <v>44991</v>
       </c>
       <c r="O7" s="98">
         <f t="shared" ca="1" si="0"/>
-        <v>44989</v>
+        <v>44992</v>
       </c>
       <c r="P7" s="97">
         <f ca="1">O7+1</f>
-        <v>44990</v>
+        <v>44993</v>
       </c>
       <c r="Q7" s="97">
         <f ca="1">P7+1</f>
-        <v>44991</v>
+        <v>44994</v>
       </c>
       <c r="R7" s="97">
         <f t="shared" ca="1" si="0"/>
-        <v>44992</v>
+        <v>44995</v>
       </c>
       <c r="S7" s="97">
         <f t="shared" ca="1" si="0"/>
-        <v>44993</v>
+        <v>44996</v>
       </c>
       <c r="T7" s="97">
         <f t="shared" ca="1" si="0"/>
-        <v>44994</v>
+        <v>44997</v>
       </c>
       <c r="U7" s="97">
         <f t="shared" ca="1" si="0"/>
-        <v>44995</v>
+        <v>44998</v>
       </c>
       <c r="V7" s="98">
         <f t="shared" ca="1" si="0"/>
-        <v>44996</v>
+        <v>44999</v>
       </c>
       <c r="W7" s="97">
         <f ca="1">V7+1</f>
-        <v>44997</v>
+        <v>45000</v>
       </c>
       <c r="X7" s="97">
         <f ca="1">W7+1</f>
-        <v>44998</v>
+        <v>45001</v>
       </c>
       <c r="Y7" s="97">
         <f t="shared" ca="1" si="0"/>
-        <v>44999</v>
+        <v>45002</v>
       </c>
       <c r="Z7" s="97">
         <f t="shared" ca="1" si="0"/>
-        <v>45000</v>
+        <v>45003</v>
       </c>
       <c r="AA7" s="97">
         <f t="shared" ca="1" si="0"/>
-        <v>45001</v>
+        <v>45004</v>
       </c>
       <c r="AB7" s="97">
         <f t="shared" ca="1" si="0"/>
-        <v>45002</v>
+        <v>45005</v>
       </c>
       <c r="AC7" s="98">
         <f t="shared" ca="1" si="0"/>
-        <v>45003</v>
+        <v>45006</v>
       </c>
       <c r="AD7" s="97">
         <f ca="1">AC7+1</f>
-        <v>45004</v>
+        <v>45007</v>
       </c>
       <c r="AE7" s="97">
         <f ca="1">AD7+1</f>
-        <v>45005</v>
+        <v>45008</v>
       </c>
       <c r="AF7" s="97">
         <f t="shared" ca="1" si="0"/>
-        <v>45006</v>
+        <v>45009</v>
       </c>
       <c r="AG7" s="97">
         <f t="shared" ca="1" si="0"/>
-        <v>45007</v>
+        <v>45010</v>
       </c>
       <c r="AH7" s="97">
         <f t="shared" ca="1" si="0"/>
-        <v>45008</v>
+        <v>45011</v>
       </c>
       <c r="AI7" s="97">
         <f t="shared" ca="1" si="0"/>
-        <v>45009</v>
+        <v>45012</v>
       </c>
       <c r="AJ7" s="98">
         <f t="shared" ca="1" si="0"/>
-        <v>45010</v>
+        <v>45013</v>
       </c>
       <c r="AK7" s="97">
         <f ca="1">AJ7+1</f>
-        <v>45011</v>
+        <v>45014</v>
       </c>
       <c r="AL7" s="97">
         <f ca="1">AK7+1</f>
-        <v>45012</v>
+        <v>45015</v>
       </c>
       <c r="AM7" s="97">
         <f t="shared" ca="1" si="0"/>
-        <v>45013</v>
+        <v>45016</v>
       </c>
       <c r="AN7" s="97">
         <f t="shared" ca="1" si="0"/>
-        <v>45014</v>
+        <v>45017</v>
       </c>
       <c r="AO7" s="97">
         <f t="shared" ca="1" si="0"/>
-        <v>45015</v>
+        <v>45018</v>
       </c>
       <c r="AP7" s="97">
         <f t="shared" ca="1" si="0"/>
-        <v>45016</v>
+        <v>45019</v>
       </c>
       <c r="AQ7" s="98">
         <f t="shared" ca="1" si="0"/>
-        <v>45017</v>
+        <v>45020</v>
       </c>
       <c r="AR7" s="97">
         <f ca="1">AQ7+1</f>
-        <v>45018</v>
+        <v>45021</v>
       </c>
       <c r="AS7" s="97">
         <f ca="1">AR7+1</f>
-        <v>45019</v>
+        <v>45022</v>
       </c>
       <c r="AT7" s="97">
         <f t="shared" ca="1" si="0"/>
-        <v>45020</v>
+        <v>45023</v>
       </c>
       <c r="AU7" s="97">
         <f t="shared" ca="1" si="0"/>
-        <v>45021</v>
+        <v>45024</v>
       </c>
       <c r="AV7" s="97">
         <f t="shared" ca="1" si="0"/>
-        <v>45022</v>
+        <v>45025</v>
       </c>
       <c r="AW7" s="97">
         <f t="shared" ca="1" si="0"/>
-        <v>45023</v>
+        <v>45026</v>
       </c>
       <c r="AX7" s="98">
         <f t="shared" ca="1" si="0"/>
-        <v>45024</v>
+        <v>45027</v>
       </c>
       <c r="AY7" s="97">
         <f ca="1">AX7+1</f>
-        <v>45025</v>
+        <v>45028</v>
       </c>
       <c r="AZ7" s="97">
         <f ca="1">AY7+1</f>
-        <v>45026</v>
+        <v>45029</v>
       </c>
       <c r="BA7" s="97">
         <f t="shared" ref="BA7:BE7" ca="1" si="1">AZ7+1</f>
-        <v>45027</v>
+        <v>45030</v>
       </c>
       <c r="BB7" s="97">
         <f t="shared" ca="1" si="1"/>
-        <v>45028</v>
+        <v>45031</v>
       </c>
       <c r="BC7" s="97">
         <f t="shared" ca="1" si="1"/>
-        <v>45029</v>
+        <v>45032</v>
       </c>
       <c r="BD7" s="97">
         <f t="shared" ca="1" si="1"/>
-        <v>45030</v>
+        <v>45033</v>
       </c>
       <c r="BE7" s="98">
         <f t="shared" ca="1" si="1"/>
-        <v>45031</v>
+        <v>45034</v>
       </c>
       <c r="BF7" s="97">
         <f ca="1">BE7+1</f>
-        <v>45032</v>
+        <v>45035</v>
       </c>
       <c r="BG7" s="97">
         <f ca="1">BF7+1</f>
-        <v>45033</v>
+        <v>45036</v>
       </c>
       <c r="BH7" s="97">
         <f t="shared" ref="BH7:BL7" ca="1" si="2">BG7+1</f>
-        <v>45034</v>
+        <v>45037</v>
       </c>
       <c r="BI7" s="97">
         <f t="shared" ca="1" si="2"/>
-        <v>45035</v>
+        <v>45038</v>
       </c>
       <c r="BJ7" s="97">
         <f t="shared" ca="1" si="2"/>
-        <v>45036</v>
+        <v>45039</v>
       </c>
       <c r="BK7" s="97">
         <f t="shared" ca="1" si="2"/>
-        <v>45037</v>
+        <v>45040</v>
       </c>
       <c r="BL7" s="98">
         <f t="shared" ca="1" si="2"/>
-        <v>45038</v>
+        <v>45041</v>
       </c>
     </row>
     <row r="8" spans="1:68" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
@@ -17955,23 +17990,23 @@
       <c r="H9" s="86"/>
       <c r="I9" s="104" t="str">
         <f t="shared" ref="I9:BL9" ca="1" si="3">LEFT(TEXT(I7,"ddd"),1)</f>
-        <v>d</v>
+        <v>q</v>
       </c>
       <c r="J9" s="104" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>s</v>
+        <v>q</v>
       </c>
       <c r="K9" s="104" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>t</v>
+        <v>s</v>
       </c>
       <c r="L9" s="104" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>q</v>
+        <v>s</v>
       </c>
       <c r="M9" s="104" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>q</v>
+        <v>d</v>
       </c>
       <c r="N9" s="104" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -17979,27 +18014,27 @@
       </c>
       <c r="O9" s="104" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>s</v>
+        <v>t</v>
       </c>
       <c r="P9" s="104" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>d</v>
+        <v>q</v>
       </c>
       <c r="Q9" s="104" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>s</v>
+        <v>q</v>
       </c>
       <c r="R9" s="104" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>t</v>
+        <v>s</v>
       </c>
       <c r="S9" s="104" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>q</v>
+        <v>s</v>
       </c>
       <c r="T9" s="104" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>q</v>
+        <v>d</v>
       </c>
       <c r="U9" s="104" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -18007,27 +18042,27 @@
       </c>
       <c r="V9" s="104" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>s</v>
+        <v>t</v>
       </c>
       <c r="W9" s="104" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>d</v>
+        <v>q</v>
       </c>
       <c r="X9" s="104" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>s</v>
+        <v>q</v>
       </c>
       <c r="Y9" s="104" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>t</v>
+        <v>s</v>
       </c>
       <c r="Z9" s="104" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>q</v>
+        <v>s</v>
       </c>
       <c r="AA9" s="104" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>q</v>
+        <v>d</v>
       </c>
       <c r="AB9" s="104" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -18035,27 +18070,27 @@
       </c>
       <c r="AC9" s="104" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>s</v>
+        <v>t</v>
       </c>
       <c r="AD9" s="104" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>d</v>
+        <v>q</v>
       </c>
       <c r="AE9" s="104" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>s</v>
+        <v>q</v>
       </c>
       <c r="AF9" s="104" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>t</v>
+        <v>s</v>
       </c>
       <c r="AG9" s="104" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>q</v>
+        <v>s</v>
       </c>
       <c r="AH9" s="104" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>q</v>
+        <v>d</v>
       </c>
       <c r="AI9" s="104" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -18063,27 +18098,27 @@
       </c>
       <c r="AJ9" s="104" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>s</v>
+        <v>t</v>
       </c>
       <c r="AK9" s="104" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>d</v>
+        <v>q</v>
       </c>
       <c r="AL9" s="104" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>s</v>
+        <v>q</v>
       </c>
       <c r="AM9" s="104" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>t</v>
+        <v>s</v>
       </c>
       <c r="AN9" s="104" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>q</v>
+        <v>s</v>
       </c>
       <c r="AO9" s="104" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>q</v>
+        <v>d</v>
       </c>
       <c r="AP9" s="104" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -18091,27 +18126,27 @@
       </c>
       <c r="AQ9" s="104" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>s</v>
+        <v>t</v>
       </c>
       <c r="AR9" s="104" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>d</v>
+        <v>q</v>
       </c>
       <c r="AS9" s="104" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>s</v>
+        <v>q</v>
       </c>
       <c r="AT9" s="104" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>t</v>
+        <v>s</v>
       </c>
       <c r="AU9" s="104" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>q</v>
+        <v>s</v>
       </c>
       <c r="AV9" s="104" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>q</v>
+        <v>d</v>
       </c>
       <c r="AW9" s="104" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -18119,27 +18154,27 @@
       </c>
       <c r="AX9" s="104" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>s</v>
+        <v>t</v>
       </c>
       <c r="AY9" s="104" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>d</v>
+        <v>q</v>
       </c>
       <c r="AZ9" s="104" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>s</v>
+        <v>q</v>
       </c>
       <c r="BA9" s="104" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>t</v>
+        <v>s</v>
       </c>
       <c r="BB9" s="104" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>q</v>
+        <v>s</v>
       </c>
       <c r="BC9" s="104" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>q</v>
+        <v>d</v>
       </c>
       <c r="BD9" s="104" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -18147,27 +18182,27 @@
       </c>
       <c r="BE9" s="104" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>s</v>
+        <v>t</v>
       </c>
       <c r="BF9" s="104" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>d</v>
+        <v>q</v>
       </c>
       <c r="BG9" s="104" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>s</v>
+        <v>q</v>
       </c>
       <c r="BH9" s="104" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>t</v>
+        <v>s</v>
       </c>
       <c r="BI9" s="104" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>q</v>
+        <v>s</v>
       </c>
       <c r="BJ9" s="104" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>q</v>
+        <v>d</v>
       </c>
       <c r="BK9" s="104" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -18175,7 +18210,7 @@
       </c>
       <c r="BL9" s="104" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>s</v>
+        <v>t</v>
       </c>
     </row>
     <row r="10" spans="1:68" ht="30" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -18256,7 +18291,7 @@
       <c r="G11" s="61"/>
       <c r="H11" s="58"/>
       <c r="I11" s="26" t="str">
-        <f t="shared" ref="I11:X26" ca="1" si="4">IF(AND($C11="Objetivo",I$7&gt;=$F11,I$7&lt;=$F11+$G11-1),2,IF(AND($C11="Marco",I$7&gt;=$F11,I$7&lt;=$F11+$G11-1),1,""))</f>
+        <f t="shared" ref="I11:X21" ca="1" si="4">IF(AND($C11="Objetivo",I$7&gt;=$F11,I$7&lt;=$F11+$G11-1),2,IF(AND($C11="Marco",I$7&gt;=$F11,I$7&lt;=$F11+$G11-1),1,""))</f>
         <v/>
       </c>
       <c r="J11" s="26" t="str">
@@ -18320,7 +18355,7 @@
         <v/>
       </c>
       <c r="Y11" s="26" t="str">
-        <f t="shared" ref="Y11:AN26" ca="1" si="5">IF(AND($C11="Objetivo",Y$7&gt;=$F11,Y$7&lt;=$F11+$G11-1),2,IF(AND($C11="Marco",Y$7&gt;=$F11,Y$7&lt;=$F11+$G11-1),1,""))</f>
+        <f t="shared" ref="Y11:AN21" ca="1" si="5">IF(AND($C11="Objetivo",Y$7&gt;=$F11,Y$7&lt;=$F11+$G11-1),2,IF(AND($C11="Marco",Y$7&gt;=$F11,Y$7&lt;=$F11+$G11-1),1,""))</f>
         <v/>
       </c>
       <c r="Z11" s="26" t="str">
@@ -18384,7 +18419,7 @@
         <v/>
       </c>
       <c r="AO11" s="26" t="str">
-        <f t="shared" ref="AO11:BD26" ca="1" si="6">IF(AND($C11="Objetivo",AO$7&gt;=$F11,AO$7&lt;=$F11+$G11-1),2,IF(AND($C11="Marco",AO$7&gt;=$F11,AO$7&lt;=$F11+$G11-1),1,""))</f>
+        <f t="shared" ref="AO11:BD21" ca="1" si="6">IF(AND($C11="Objetivo",AO$7&gt;=$F11,AO$7&lt;=$F11+$G11-1),2,IF(AND($C11="Marco",AO$7&gt;=$F11,AO$7&lt;=$F11+$G11-1),1,""))</f>
         <v/>
       </c>
       <c r="AP11" s="26" t="str">
@@ -18448,7 +18483,7 @@
         <v/>
       </c>
       <c r="BE11" s="26" t="str">
-        <f t="shared" ref="BE11:BL26" ca="1" si="7">IF(AND($C11="Objetivo",BE$7&gt;=$F11,BE$7&lt;=$F11+$G11-1),2,IF(AND($C11="Marco",BE$7&gt;=$F11,BE$7&lt;=$F11+$G11-1),1,""))</f>
+        <f t="shared" ref="BE11:BL21" ca="1" si="7">IF(AND($C11="Objetivo",BE$7&gt;=$F11,BE$7&lt;=$F11+$G11-1),2,IF(AND($C11="Marco",BE$7&gt;=$F11,BE$7&lt;=$F11+$G11-1),1,""))</f>
         <v/>
       </c>
       <c r="BF11" s="26" t="str">
@@ -18487,20 +18522,19 @@
         <v>44</v>
       </c>
       <c r="C12" s="58" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D12" s="58" t="s">
         <v>27</v>
       </c>
       <c r="E12" s="59">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="F12" s="60">
-        <f ca="1">TODAY()</f>
-        <v>45009</v>
+        <v>44990</v>
       </c>
       <c r="G12" s="61">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H12" s="58"/>
       <c r="I12" s="26" t="str">
@@ -18607,17 +18641,17 @@
         <f t="shared" ca="1" si="5"/>
         <v/>
       </c>
-      <c r="AI12" s="26">
-        <f t="shared" ca="1" si="5"/>
-        <v>2</v>
-      </c>
-      <c r="AJ12" s="26">
-        <f t="shared" ca="1" si="5"/>
-        <v>2</v>
-      </c>
-      <c r="AK12" s="26">
-        <f t="shared" ca="1" si="5"/>
-        <v>2</v>
+      <c r="AI12" s="26" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v/>
+      </c>
+      <c r="AJ12" s="26" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v/>
+      </c>
+      <c r="AK12" s="26" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v/>
       </c>
       <c r="AL12" s="26" t="str">
         <f t="shared" ca="1" si="5"/>
@@ -18734,20 +18768,21 @@
         <v>45</v>
       </c>
       <c r="C13" s="58" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="D13" s="58"/>
-      <c r="E13" s="59"/>
+      <c r="E13" s="59">
+        <v>1</v>
+      </c>
       <c r="F13" s="60">
-        <f ca="1">TODAY()+5</f>
-        <v>45014</v>
+        <v>44992</v>
       </c>
       <c r="G13" s="61">
         <v>1</v>
       </c>
       <c r="H13" s="58"/>
       <c r="I13" s="26" t="str">
-        <f t="shared" ref="I13:X28" ca="1" si="8">IF(AND($C13="Objetivo",I$7&gt;=$F13,I$7&lt;=$F13+$G13-1),2,IF(AND($C13="Marco",I$7&gt;=$F13,I$7&lt;=$F13+$G13-1),1,""))</f>
+        <f t="shared" ref="I13:I21" ca="1" si="8">IF(AND($C13="Objetivo",I$7&gt;=$F13,I$7&lt;=$F13+$G13-1),2,IF(AND($C13="Marco",I$7&gt;=$F13,I$7&lt;=$F13+$G13-1),1,""))</f>
         <v/>
       </c>
       <c r="J13" s="26" t="str">
@@ -18870,9 +18905,9 @@
         <f t="shared" ca="1" si="5"/>
         <v/>
       </c>
-      <c r="AN13" s="26">
-        <f t="shared" ca="1" si="5"/>
-        <v>1</v>
+      <c r="AN13" s="26" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v/>
       </c>
       <c r="AO13" s="26" t="str">
         <f t="shared" ca="1" si="6"/>
@@ -18977,18 +19012,17 @@
         <v>46</v>
       </c>
       <c r="C14" s="58" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D14" s="58"/>
       <c r="E14" s="59">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="F14" s="60">
-        <f ca="1">F12-3</f>
-        <v>45006</v>
+        <v>44993</v>
       </c>
       <c r="G14" s="61">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="H14" s="58"/>
       <c r="I14" s="26" t="str">
@@ -19225,10 +19259,11 @@
         <v>21</v>
       </c>
       <c r="D15" s="58"/>
-      <c r="E15" s="59"/>
+      <c r="E15" s="59">
+        <v>1</v>
+      </c>
       <c r="F15" s="60">
-        <f ca="1">F12+20</f>
-        <v>45029</v>
+        <v>44997</v>
       </c>
       <c r="G15" s="61">
         <v>1</v>
@@ -19278,9 +19313,9 @@
         <f t="shared" ca="1" si="4"/>
         <v/>
       </c>
-      <c r="T15" s="26" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v/>
+      <c r="T15" s="26">
+        <f t="shared" ca="1" si="4"/>
+        <v>1</v>
       </c>
       <c r="U15" s="26" t="str">
         <f t="shared" ca="1" si="4"/>
@@ -19418,9 +19453,9 @@
         <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
-      <c r="BC15" s="26">
-        <f t="shared" ca="1" si="6"/>
-        <v>1</v>
+      <c r="BC15" s="26" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v/>
       </c>
       <c r="BD15" s="26" t="str">
         <f t="shared" ca="1" si="6"/>
@@ -19465,15 +19500,15 @@
         <v>48</v>
       </c>
       <c r="C16" s="58" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D16" s="58"/>
       <c r="E16" s="59">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="F16" s="60">
-        <f ca="1">F12+6</f>
-        <v>45015</v>
+        <f>F12+6</f>
+        <v>44996</v>
       </c>
       <c r="G16" s="61">
         <v>6</v>
@@ -19946,18 +19981,17 @@
         <v>52</v>
       </c>
       <c r="C18" s="58" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D18" s="58"/>
       <c r="E18" s="59">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="F18" s="60">
-        <f ca="1">F12+6</f>
-        <v>45015</v>
+        <v>44998</v>
       </c>
       <c r="G18" s="61">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="H18" s="58"/>
       <c r="I18" s="26" t="str">
@@ -20188,21 +20222,20 @@
     <row r="19" spans="1:64" s="1" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="9"/>
       <c r="B19" s="62" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C19" s="58" t="s">
         <v>25</v>
       </c>
       <c r="D19" s="58"/>
       <c r="E19" s="59">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="F19" s="60">
-        <f ca="1">F18+2</f>
-        <v>45017</v>
+        <v>44998</v>
       </c>
       <c r="G19" s="61">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="H19" s="58"/>
       <c r="I19" s="26" t="str">
@@ -20433,21 +20466,20 @@
     <row r="20" spans="1:64" s="1" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="9"/>
       <c r="B20" s="62" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C20" s="58" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D20" s="58"/>
       <c r="E20" s="59">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="F20" s="60">
-        <f ca="1">F19+5</f>
-        <v>45022</v>
+        <v>44998</v>
       </c>
       <c r="G20" s="61">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="H20" s="58"/>
       <c r="I20" s="26" t="str">
@@ -20678,7 +20710,7 @@
     <row r="21" spans="1:64" s="1" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="9"/>
       <c r="B21" s="62" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="C21" s="58" t="s">
         <v>21</v>
@@ -20686,8 +20718,7 @@
       <c r="D21" s="58"/>
       <c r="E21" s="59"/>
       <c r="F21" s="60">
-        <f ca="1">F20+2</f>
-        <v>45024</v>
+        <v>45004</v>
       </c>
       <c r="G21" s="61">
         <v>1</v>
@@ -20765,9 +20796,9 @@
         <f t="shared" ca="1" si="5"/>
         <v/>
       </c>
-      <c r="AA21" s="26" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v/>
+      <c r="AA21" s="26">
+        <f t="shared" ca="1" si="5"/>
+        <v>1</v>
       </c>
       <c r="AB21" s="26" t="str">
         <f t="shared" ca="1" si="5"/>
@@ -20857,9 +20888,9 @@
         <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
-      <c r="AX21" s="26">
-        <f t="shared" ca="1" si="6"/>
-        <v>1</v>
+      <c r="AX21" s="26" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v/>
       </c>
       <c r="AY21" s="26" t="str">
         <f t="shared" ca="1" si="6"/>
@@ -20920,728 +20951,728 @@
     </row>
     <row r="22" spans="1:64" s="1" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="9"/>
-      <c r="B22" s="62" t="s">
-        <v>52</v>
+      <c r="B22" s="114" t="s">
+        <v>50</v>
       </c>
       <c r="C22" s="58"/>
       <c r="D22" s="58"/>
       <c r="E22" s="59"/>
-      <c r="F22" s="60">
-        <f ca="1">F21+1</f>
-        <v>45025</v>
-      </c>
-      <c r="G22" s="61">
-        <v>24</v>
-      </c>
+      <c r="F22" s="60"/>
+      <c r="G22" s="61"/>
       <c r="H22" s="58"/>
       <c r="I22" s="26" t="str">
-        <f t="shared" ca="1" si="8"/>
+        <f ca="1">IF(AND($C22="Objetivo",I$7&gt;=$F22,I$7&lt;=$F22+$G22-1),2,IF(AND($C22="Marco",I$7&gt;=$F22,I$7&lt;=$F22+$G22-1),1,""))</f>
         <v/>
       </c>
       <c r="J22" s="26" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f ca="1">IF(AND($C22="Objetivo",J$7&gt;=$F22,J$7&lt;=$F22+$G22-1),2,IF(AND($C22="Marco",J$7&gt;=$F22,J$7&lt;=$F22+$G22-1),1,""))</f>
         <v/>
       </c>
       <c r="K22" s="26" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f ca="1">IF(AND($C22="Objetivo",K$7&gt;=$F22,K$7&lt;=$F22+$G22-1),2,IF(AND($C22="Marco",K$7&gt;=$F22,K$7&lt;=$F22+$G22-1),1,""))</f>
         <v/>
       </c>
       <c r="L22" s="26" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f ca="1">IF(AND($C22="Objetivo",L$7&gt;=$F22,L$7&lt;=$F22+$G22-1),2,IF(AND($C22="Marco",L$7&gt;=$F22,L$7&lt;=$F22+$G22-1),1,""))</f>
         <v/>
       </c>
       <c r="M22" s="26" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f ca="1">IF(AND($C22="Objetivo",M$7&gt;=$F22,M$7&lt;=$F22+$G22-1),2,IF(AND($C22="Marco",M$7&gt;=$F22,M$7&lt;=$F22+$G22-1),1,""))</f>
         <v/>
       </c>
       <c r="N22" s="26" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f ca="1">IF(AND($C22="Objetivo",N$7&gt;=$F22,N$7&lt;=$F22+$G22-1),2,IF(AND($C22="Marco",N$7&gt;=$F22,N$7&lt;=$F22+$G22-1),1,""))</f>
         <v/>
       </c>
       <c r="O22" s="26" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f ca="1">IF(AND($C22="Objetivo",O$7&gt;=$F22,O$7&lt;=$F22+$G22-1),2,IF(AND($C22="Marco",O$7&gt;=$F22,O$7&lt;=$F22+$G22-1),1,""))</f>
         <v/>
       </c>
       <c r="P22" s="26" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f ca="1">IF(AND($C22="Objetivo",P$7&gt;=$F22,P$7&lt;=$F22+$G22-1),2,IF(AND($C22="Marco",P$7&gt;=$F22,P$7&lt;=$F22+$G22-1),1,""))</f>
         <v/>
       </c>
       <c r="Q22" s="26" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f ca="1">IF(AND($C22="Objetivo",Q$7&gt;=$F22,Q$7&lt;=$F22+$G22-1),2,IF(AND($C22="Marco",Q$7&gt;=$F22,Q$7&lt;=$F22+$G22-1),1,""))</f>
         <v/>
       </c>
       <c r="R22" s="26" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f ca="1">IF(AND($C22="Objetivo",R$7&gt;=$F22,R$7&lt;=$F22+$G22-1),2,IF(AND($C22="Marco",R$7&gt;=$F22,R$7&lt;=$F22+$G22-1),1,""))</f>
         <v/>
       </c>
       <c r="S22" s="26" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f ca="1">IF(AND($C22="Objetivo",S$7&gt;=$F22,S$7&lt;=$F22+$G22-1),2,IF(AND($C22="Marco",S$7&gt;=$F22,S$7&lt;=$F22+$G22-1),1,""))</f>
         <v/>
       </c>
       <c r="T22" s="26" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f ca="1">IF(AND($C22="Objetivo",T$7&gt;=$F22,T$7&lt;=$F22+$G22-1),2,IF(AND($C22="Marco",T$7&gt;=$F22,T$7&lt;=$F22+$G22-1),1,""))</f>
         <v/>
       </c>
       <c r="U22" s="26" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f ca="1">IF(AND($C22="Objetivo",U$7&gt;=$F22,U$7&lt;=$F22+$G22-1),2,IF(AND($C22="Marco",U$7&gt;=$F22,U$7&lt;=$F22+$G22-1),1,""))</f>
         <v/>
       </c>
       <c r="V22" s="26" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f ca="1">IF(AND($C22="Objetivo",V$7&gt;=$F22,V$7&lt;=$F22+$G22-1),2,IF(AND($C22="Marco",V$7&gt;=$F22,V$7&lt;=$F22+$G22-1),1,""))</f>
         <v/>
       </c>
       <c r="W22" s="26" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f ca="1">IF(AND($C22="Objetivo",W$7&gt;=$F22,W$7&lt;=$F22+$G22-1),2,IF(AND($C22="Marco",W$7&gt;=$F22,W$7&lt;=$F22+$G22-1),1,""))</f>
         <v/>
       </c>
       <c r="X22" s="26" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f ca="1">IF(AND($C22="Objetivo",X$7&gt;=$F22,X$7&lt;=$F22+$G22-1),2,IF(AND($C22="Marco",X$7&gt;=$F22,X$7&lt;=$F22+$G22-1),1,""))</f>
         <v/>
       </c>
       <c r="Y22" s="26" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f ca="1">IF(AND($C22="Objetivo",Y$7&gt;=$F22,Y$7&lt;=$F22+$G22-1),2,IF(AND($C22="Marco",Y$7&gt;=$F22,Y$7&lt;=$F22+$G22-1),1,""))</f>
         <v/>
       </c>
       <c r="Z22" s="26" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f ca="1">IF(AND($C22="Objetivo",Z$7&gt;=$F22,Z$7&lt;=$F22+$G22-1),2,IF(AND($C22="Marco",Z$7&gt;=$F22,Z$7&lt;=$F22+$G22-1),1,""))</f>
         <v/>
       </c>
       <c r="AA22" s="26" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f ca="1">IF(AND($C22="Objetivo",AA$7&gt;=$F22,AA$7&lt;=$F22+$G22-1),2,IF(AND($C22="Marco",AA$7&gt;=$F22,AA$7&lt;=$F22+$G22-1),1,""))</f>
         <v/>
       </c>
       <c r="AB22" s="26" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f ca="1">IF(AND($C22="Objetivo",AB$7&gt;=$F22,AB$7&lt;=$F22+$G22-1),2,IF(AND($C22="Marco",AB$7&gt;=$F22,AB$7&lt;=$F22+$G22-1),1,""))</f>
         <v/>
       </c>
       <c r="AC22" s="26" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f ca="1">IF(AND($C22="Objetivo",AC$7&gt;=$F22,AC$7&lt;=$F22+$G22-1),2,IF(AND($C22="Marco",AC$7&gt;=$F22,AC$7&lt;=$F22+$G22-1),1,""))</f>
         <v/>
       </c>
       <c r="AD22" s="26" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f ca="1">IF(AND($C22="Objetivo",AD$7&gt;=$F22,AD$7&lt;=$F22+$G22-1),2,IF(AND($C22="Marco",AD$7&gt;=$F22,AD$7&lt;=$F22+$G22-1),1,""))</f>
         <v/>
       </c>
       <c r="AE22" s="26" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f ca="1">IF(AND($C22="Objetivo",AE$7&gt;=$F22,AE$7&lt;=$F22+$G22-1),2,IF(AND($C22="Marco",AE$7&gt;=$F22,AE$7&lt;=$F22+$G22-1),1,""))</f>
         <v/>
       </c>
       <c r="AF22" s="26" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f ca="1">IF(AND($C22="Objetivo",AF$7&gt;=$F22,AF$7&lt;=$F22+$G22-1),2,IF(AND($C22="Marco",AF$7&gt;=$F22,AF$7&lt;=$F22+$G22-1),1,""))</f>
         <v/>
       </c>
       <c r="AG22" s="26" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f ca="1">IF(AND($C22="Objetivo",AG$7&gt;=$F22,AG$7&lt;=$F22+$G22-1),2,IF(AND($C22="Marco",AG$7&gt;=$F22,AG$7&lt;=$F22+$G22-1),1,""))</f>
         <v/>
       </c>
       <c r="AH22" s="26" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f ca="1">IF(AND($C22="Objetivo",AH$7&gt;=$F22,AH$7&lt;=$F22+$G22-1),2,IF(AND($C22="Marco",AH$7&gt;=$F22,AH$7&lt;=$F22+$G22-1),1,""))</f>
         <v/>
       </c>
       <c r="AI22" s="26" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f ca="1">IF(AND($C22="Objetivo",AI$7&gt;=$F22,AI$7&lt;=$F22+$G22-1),2,IF(AND($C22="Marco",AI$7&gt;=$F22,AI$7&lt;=$F22+$G22-1),1,""))</f>
         <v/>
       </c>
       <c r="AJ22" s="26" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f ca="1">IF(AND($C22="Objetivo",AJ$7&gt;=$F22,AJ$7&lt;=$F22+$G22-1),2,IF(AND($C22="Marco",AJ$7&gt;=$F22,AJ$7&lt;=$F22+$G22-1),1,""))</f>
         <v/>
       </c>
       <c r="AK22" s="26" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f ca="1">IF(AND($C22="Objetivo",AK$7&gt;=$F22,AK$7&lt;=$F22+$G22-1),2,IF(AND($C22="Marco",AK$7&gt;=$F22,AK$7&lt;=$F22+$G22-1),1,""))</f>
         <v/>
       </c>
       <c r="AL22" s="26" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f ca="1">IF(AND($C22="Objetivo",AL$7&gt;=$F22,AL$7&lt;=$F22+$G22-1),2,IF(AND($C22="Marco",AL$7&gt;=$F22,AL$7&lt;=$F22+$G22-1),1,""))</f>
         <v/>
       </c>
       <c r="AM22" s="26" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f ca="1">IF(AND($C22="Objetivo",AM$7&gt;=$F22,AM$7&lt;=$F22+$G22-1),2,IF(AND($C22="Marco",AM$7&gt;=$F22,AM$7&lt;=$F22+$G22-1),1,""))</f>
         <v/>
       </c>
       <c r="AN22" s="26" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f ca="1">IF(AND($C22="Objetivo",AN$7&gt;=$F22,AN$7&lt;=$F22+$G22-1),2,IF(AND($C22="Marco",AN$7&gt;=$F22,AN$7&lt;=$F22+$G22-1),1,""))</f>
         <v/>
       </c>
       <c r="AO22" s="26" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f ca="1">IF(AND($C22="Objetivo",AO$7&gt;=$F22,AO$7&lt;=$F22+$G22-1),2,IF(AND($C22="Marco",AO$7&gt;=$F22,AO$7&lt;=$F22+$G22-1),1,""))</f>
         <v/>
       </c>
       <c r="AP22" s="26" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f ca="1">IF(AND($C22="Objetivo",AP$7&gt;=$F22,AP$7&lt;=$F22+$G22-1),2,IF(AND($C22="Marco",AP$7&gt;=$F22,AP$7&lt;=$F22+$G22-1),1,""))</f>
         <v/>
       </c>
       <c r="AQ22" s="26" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f ca="1">IF(AND($C22="Objetivo",AQ$7&gt;=$F22,AQ$7&lt;=$F22+$G22-1),2,IF(AND($C22="Marco",AQ$7&gt;=$F22,AQ$7&lt;=$F22+$G22-1),1,""))</f>
         <v/>
       </c>
       <c r="AR22" s="26" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f ca="1">IF(AND($C22="Objetivo",AR$7&gt;=$F22,AR$7&lt;=$F22+$G22-1),2,IF(AND($C22="Marco",AR$7&gt;=$F22,AR$7&lt;=$F22+$G22-1),1,""))</f>
         <v/>
       </c>
       <c r="AS22" s="26" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f ca="1">IF(AND($C22="Objetivo",AS$7&gt;=$F22,AS$7&lt;=$F22+$G22-1),2,IF(AND($C22="Marco",AS$7&gt;=$F22,AS$7&lt;=$F22+$G22-1),1,""))</f>
         <v/>
       </c>
       <c r="AT22" s="26" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f ca="1">IF(AND($C22="Objetivo",AT$7&gt;=$F22,AT$7&lt;=$F22+$G22-1),2,IF(AND($C22="Marco",AT$7&gt;=$F22,AT$7&lt;=$F22+$G22-1),1,""))</f>
         <v/>
       </c>
       <c r="AU22" s="26" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f ca="1">IF(AND($C22="Objetivo",AU$7&gt;=$F22,AU$7&lt;=$F22+$G22-1),2,IF(AND($C22="Marco",AU$7&gt;=$F22,AU$7&lt;=$F22+$G22-1),1,""))</f>
         <v/>
       </c>
       <c r="AV22" s="26" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f ca="1">IF(AND($C22="Objetivo",AV$7&gt;=$F22,AV$7&lt;=$F22+$G22-1),2,IF(AND($C22="Marco",AV$7&gt;=$F22,AV$7&lt;=$F22+$G22-1),1,""))</f>
         <v/>
       </c>
       <c r="AW22" s="26" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f ca="1">IF(AND($C22="Objetivo",AW$7&gt;=$F22,AW$7&lt;=$F22+$G22-1),2,IF(AND($C22="Marco",AW$7&gt;=$F22,AW$7&lt;=$F22+$G22-1),1,""))</f>
         <v/>
       </c>
       <c r="AX22" s="26" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f ca="1">IF(AND($C22="Objetivo",AX$7&gt;=$F22,AX$7&lt;=$F22+$G22-1),2,IF(AND($C22="Marco",AX$7&gt;=$F22,AX$7&lt;=$F22+$G22-1),1,""))</f>
         <v/>
       </c>
       <c r="AY22" s="26" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f ca="1">IF(AND($C22="Objetivo",AY$7&gt;=$F22,AY$7&lt;=$F22+$G22-1),2,IF(AND($C22="Marco",AY$7&gt;=$F22,AY$7&lt;=$F22+$G22-1),1,""))</f>
         <v/>
       </c>
       <c r="AZ22" s="26" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f ca="1">IF(AND($C22="Objetivo",AZ$7&gt;=$F22,AZ$7&lt;=$F22+$G22-1),2,IF(AND($C22="Marco",AZ$7&gt;=$F22,AZ$7&lt;=$F22+$G22-1),1,""))</f>
         <v/>
       </c>
       <c r="BA22" s="26" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f ca="1">IF(AND($C22="Objetivo",BA$7&gt;=$F22,BA$7&lt;=$F22+$G22-1),2,IF(AND($C22="Marco",BA$7&gt;=$F22,BA$7&lt;=$F22+$G22-1),1,""))</f>
         <v/>
       </c>
       <c r="BB22" s="26" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f ca="1">IF(AND($C22="Objetivo",BB$7&gt;=$F22,BB$7&lt;=$F22+$G22-1),2,IF(AND($C22="Marco",BB$7&gt;=$F22,BB$7&lt;=$F22+$G22-1),1,""))</f>
         <v/>
       </c>
       <c r="BC22" s="26" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f ca="1">IF(AND($C22="Objetivo",BC$7&gt;=$F22,BC$7&lt;=$F22+$G22-1),2,IF(AND($C22="Marco",BC$7&gt;=$F22,BC$7&lt;=$F22+$G22-1),1,""))</f>
         <v/>
       </c>
       <c r="BD22" s="26" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f ca="1">IF(AND($C22="Objetivo",BD$7&gt;=$F22,BD$7&lt;=$F22+$G22-1),2,IF(AND($C22="Marco",BD$7&gt;=$F22,BD$7&lt;=$F22+$G22-1),1,""))</f>
         <v/>
       </c>
       <c r="BE22" s="26" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f ca="1">IF(AND($C22="Objetivo",BE$7&gt;=$F22,BE$7&lt;=$F22+$G22-1),2,IF(AND($C22="Marco",BE$7&gt;=$F22,BE$7&lt;=$F22+$G22-1),1,""))</f>
         <v/>
       </c>
       <c r="BF22" s="26" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f ca="1">IF(AND($C22="Objetivo",BF$7&gt;=$F22,BF$7&lt;=$F22+$G22-1),2,IF(AND($C22="Marco",BF$7&gt;=$F22,BF$7&lt;=$F22+$G22-1),1,""))</f>
         <v/>
       </c>
       <c r="BG22" s="26" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f ca="1">IF(AND($C22="Objetivo",BG$7&gt;=$F22,BG$7&lt;=$F22+$G22-1),2,IF(AND($C22="Marco",BG$7&gt;=$F22,BG$7&lt;=$F22+$G22-1),1,""))</f>
         <v/>
       </c>
       <c r="BH22" s="26" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f ca="1">IF(AND($C22="Objetivo",BH$7&gt;=$F22,BH$7&lt;=$F22+$G22-1),2,IF(AND($C22="Marco",BH$7&gt;=$F22,BH$7&lt;=$F22+$G22-1),1,""))</f>
         <v/>
       </c>
       <c r="BI22" s="26" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f ca="1">IF(AND($C22="Objetivo",BI$7&gt;=$F22,BI$7&lt;=$F22+$G22-1),2,IF(AND($C22="Marco",BI$7&gt;=$F22,BI$7&lt;=$F22+$G22-1),1,""))</f>
         <v/>
       </c>
       <c r="BJ22" s="26" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f ca="1">IF(AND($C22="Objetivo",BJ$7&gt;=$F22,BJ$7&lt;=$F22+$G22-1),2,IF(AND($C22="Marco",BJ$7&gt;=$F22,BJ$7&lt;=$F22+$G22-1),1,""))</f>
         <v/>
       </c>
       <c r="BK22" s="26" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f ca="1">IF(AND($C22="Objetivo",BK$7&gt;=$F22,BK$7&lt;=$F22+$G22-1),2,IF(AND($C22="Marco",BK$7&gt;=$F22,BK$7&lt;=$F22+$G22-1),1,""))</f>
         <v/>
       </c>
       <c r="BL22" s="26" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f ca="1">IF(AND($C22="Objetivo",BL$7&gt;=$F22,BL$7&lt;=$F22+$G22-1),2,IF(AND($C22="Marco",BL$7&gt;=$F22,BL$7&lt;=$F22+$G22-1),1,""))</f>
         <v/>
       </c>
     </row>
     <row r="23" spans="1:64" s="1" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="9"/>
-      <c r="B23" s="114" t="s">
-        <v>50</v>
-      </c>
-      <c r="C23" s="58"/>
+      <c r="B23" t="s">
+        <v>61</v>
+      </c>
+      <c r="C23" s="58" t="s">
+        <v>23</v>
+      </c>
       <c r="D23" s="58"/>
       <c r="E23" s="59"/>
-      <c r="F23" s="60"/>
-      <c r="G23" s="61"/>
+      <c r="F23" s="60">
+        <v>45017</v>
+      </c>
+      <c r="G23" s="61">
+        <v>15</v>
+      </c>
       <c r="H23" s="58"/>
       <c r="I23" s="26" t="str">
-        <f t="shared" ca="1" si="8"/>
+        <f ca="1">IF(AND($C23="Objetivo",I$7&gt;=$F23,I$7&lt;=$F23+$G23-1),2,IF(AND($C23="Marco",I$7&gt;=$F23,I$7&lt;=$F23+$G23-1),1,""))</f>
         <v/>
       </c>
       <c r="J23" s="26" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f ca="1">IF(AND($C23="Objetivo",J$7&gt;=$F23,J$7&lt;=$F23+$G23-1),2,IF(AND($C23="Marco",J$7&gt;=$F23,J$7&lt;=$F23+$G23-1),1,""))</f>
         <v/>
       </c>
       <c r="K23" s="26" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f ca="1">IF(AND($C23="Objetivo",K$7&gt;=$F23,K$7&lt;=$F23+$G23-1),2,IF(AND($C23="Marco",K$7&gt;=$F23,K$7&lt;=$F23+$G23-1),1,""))</f>
         <v/>
       </c>
       <c r="L23" s="26" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f ca="1">IF(AND($C23="Objetivo",L$7&gt;=$F23,L$7&lt;=$F23+$G23-1),2,IF(AND($C23="Marco",L$7&gt;=$F23,L$7&lt;=$F23+$G23-1),1,""))</f>
         <v/>
       </c>
       <c r="M23" s="26" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f ca="1">IF(AND($C23="Objetivo",M$7&gt;=$F23,M$7&lt;=$F23+$G23-1),2,IF(AND($C23="Marco",M$7&gt;=$F23,M$7&lt;=$F23+$G23-1),1,""))</f>
         <v/>
       </c>
       <c r="N23" s="26" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f ca="1">IF(AND($C23="Objetivo",N$7&gt;=$F23,N$7&lt;=$F23+$G23-1),2,IF(AND($C23="Marco",N$7&gt;=$F23,N$7&lt;=$F23+$G23-1),1,""))</f>
         <v/>
       </c>
       <c r="O23" s="26" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f ca="1">IF(AND($C23="Objetivo",O$7&gt;=$F23,O$7&lt;=$F23+$G23-1),2,IF(AND($C23="Marco",O$7&gt;=$F23,O$7&lt;=$F23+$G23-1),1,""))</f>
         <v/>
       </c>
       <c r="P23" s="26" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f ca="1">IF(AND($C23="Objetivo",P$7&gt;=$F23,P$7&lt;=$F23+$G23-1),2,IF(AND($C23="Marco",P$7&gt;=$F23,P$7&lt;=$F23+$G23-1),1,""))</f>
         <v/>
       </c>
       <c r="Q23" s="26" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f ca="1">IF(AND($C23="Objetivo",Q$7&gt;=$F23,Q$7&lt;=$F23+$G23-1),2,IF(AND($C23="Marco",Q$7&gt;=$F23,Q$7&lt;=$F23+$G23-1),1,""))</f>
         <v/>
       </c>
       <c r="R23" s="26" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f ca="1">IF(AND($C23="Objetivo",R$7&gt;=$F23,R$7&lt;=$F23+$G23-1),2,IF(AND($C23="Marco",R$7&gt;=$F23,R$7&lt;=$F23+$G23-1),1,""))</f>
         <v/>
       </c>
       <c r="S23" s="26" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f ca="1">IF(AND($C23="Objetivo",S$7&gt;=$F23,S$7&lt;=$F23+$G23-1),2,IF(AND($C23="Marco",S$7&gt;=$F23,S$7&lt;=$F23+$G23-1),1,""))</f>
         <v/>
       </c>
       <c r="T23" s="26" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f ca="1">IF(AND($C23="Objetivo",T$7&gt;=$F23,T$7&lt;=$F23+$G23-1),2,IF(AND($C23="Marco",T$7&gt;=$F23,T$7&lt;=$F23+$G23-1),1,""))</f>
         <v/>
       </c>
       <c r="U23" s="26" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f ca="1">IF(AND($C23="Objetivo",U$7&gt;=$F23,U$7&lt;=$F23+$G23-1),2,IF(AND($C23="Marco",U$7&gt;=$F23,U$7&lt;=$F23+$G23-1),1,""))</f>
         <v/>
       </c>
       <c r="V23" s="26" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f ca="1">IF(AND($C23="Objetivo",V$7&gt;=$F23,V$7&lt;=$F23+$G23-1),2,IF(AND($C23="Marco",V$7&gt;=$F23,V$7&lt;=$F23+$G23-1),1,""))</f>
         <v/>
       </c>
       <c r="W23" s="26" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f ca="1">IF(AND($C23="Objetivo",W$7&gt;=$F23,W$7&lt;=$F23+$G23-1),2,IF(AND($C23="Marco",W$7&gt;=$F23,W$7&lt;=$F23+$G23-1),1,""))</f>
         <v/>
       </c>
       <c r="X23" s="26" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f ca="1">IF(AND($C23="Objetivo",X$7&gt;=$F23,X$7&lt;=$F23+$G23-1),2,IF(AND($C23="Marco",X$7&gt;=$F23,X$7&lt;=$F23+$G23-1),1,""))</f>
         <v/>
       </c>
       <c r="Y23" s="26" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f ca="1">IF(AND($C23="Objetivo",Y$7&gt;=$F23,Y$7&lt;=$F23+$G23-1),2,IF(AND($C23="Marco",Y$7&gt;=$F23,Y$7&lt;=$F23+$G23-1),1,""))</f>
         <v/>
       </c>
       <c r="Z23" s="26" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f ca="1">IF(AND($C23="Objetivo",Z$7&gt;=$F23,Z$7&lt;=$F23+$G23-1),2,IF(AND($C23="Marco",Z$7&gt;=$F23,Z$7&lt;=$F23+$G23-1),1,""))</f>
         <v/>
       </c>
       <c r="AA23" s="26" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f ca="1">IF(AND($C23="Objetivo",AA$7&gt;=$F23,AA$7&lt;=$F23+$G23-1),2,IF(AND($C23="Marco",AA$7&gt;=$F23,AA$7&lt;=$F23+$G23-1),1,""))</f>
         <v/>
       </c>
       <c r="AB23" s="26" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f ca="1">IF(AND($C23="Objetivo",AB$7&gt;=$F23,AB$7&lt;=$F23+$G23-1),2,IF(AND($C23="Marco",AB$7&gt;=$F23,AB$7&lt;=$F23+$G23-1),1,""))</f>
         <v/>
       </c>
       <c r="AC23" s="26" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f ca="1">IF(AND($C23="Objetivo",AC$7&gt;=$F23,AC$7&lt;=$F23+$G23-1),2,IF(AND($C23="Marco",AC$7&gt;=$F23,AC$7&lt;=$F23+$G23-1),1,""))</f>
         <v/>
       </c>
       <c r="AD23" s="26" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f ca="1">IF(AND($C23="Objetivo",AD$7&gt;=$F23,AD$7&lt;=$F23+$G23-1),2,IF(AND($C23="Marco",AD$7&gt;=$F23,AD$7&lt;=$F23+$G23-1),1,""))</f>
         <v/>
       </c>
       <c r="AE23" s="26" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f ca="1">IF(AND($C23="Objetivo",AE$7&gt;=$F23,AE$7&lt;=$F23+$G23-1),2,IF(AND($C23="Marco",AE$7&gt;=$F23,AE$7&lt;=$F23+$G23-1),1,""))</f>
         <v/>
       </c>
       <c r="AF23" s="26" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f ca="1">IF(AND($C23="Objetivo",AF$7&gt;=$F23,AF$7&lt;=$F23+$G23-1),2,IF(AND($C23="Marco",AF$7&gt;=$F23,AF$7&lt;=$F23+$G23-1),1,""))</f>
         <v/>
       </c>
       <c r="AG23" s="26" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f ca="1">IF(AND($C23="Objetivo",AG$7&gt;=$F23,AG$7&lt;=$F23+$G23-1),2,IF(AND($C23="Marco",AG$7&gt;=$F23,AG$7&lt;=$F23+$G23-1),1,""))</f>
         <v/>
       </c>
       <c r="AH23" s="26" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f ca="1">IF(AND($C23="Objetivo",AH$7&gt;=$F23,AH$7&lt;=$F23+$G23-1),2,IF(AND($C23="Marco",AH$7&gt;=$F23,AH$7&lt;=$F23+$G23-1),1,""))</f>
         <v/>
       </c>
       <c r="AI23" s="26" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f ca="1">IF(AND($C23="Objetivo",AI$7&gt;=$F23,AI$7&lt;=$F23+$G23-1),2,IF(AND($C23="Marco",AI$7&gt;=$F23,AI$7&lt;=$F23+$G23-1),1,""))</f>
         <v/>
       </c>
       <c r="AJ23" s="26" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f ca="1">IF(AND($C23="Objetivo",AJ$7&gt;=$F23,AJ$7&lt;=$F23+$G23-1),2,IF(AND($C23="Marco",AJ$7&gt;=$F23,AJ$7&lt;=$F23+$G23-1),1,""))</f>
         <v/>
       </c>
       <c r="AK23" s="26" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f ca="1">IF(AND($C23="Objetivo",AK$7&gt;=$F23,AK$7&lt;=$F23+$G23-1),2,IF(AND($C23="Marco",AK$7&gt;=$F23,AK$7&lt;=$F23+$G23-1),1,""))</f>
         <v/>
       </c>
       <c r="AL23" s="26" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f ca="1">IF(AND($C23="Objetivo",AL$7&gt;=$F23,AL$7&lt;=$F23+$G23-1),2,IF(AND($C23="Marco",AL$7&gt;=$F23,AL$7&lt;=$F23+$G23-1),1,""))</f>
         <v/>
       </c>
       <c r="AM23" s="26" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f ca="1">IF(AND($C23="Objetivo",AM$7&gt;=$F23,AM$7&lt;=$F23+$G23-1),2,IF(AND($C23="Marco",AM$7&gt;=$F23,AM$7&lt;=$F23+$G23-1),1,""))</f>
         <v/>
       </c>
       <c r="AN23" s="26" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f ca="1">IF(AND($C23="Objetivo",AN$7&gt;=$F23,AN$7&lt;=$F23+$G23-1),2,IF(AND($C23="Marco",AN$7&gt;=$F23,AN$7&lt;=$F23+$G23-1),1,""))</f>
         <v/>
       </c>
       <c r="AO23" s="26" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f ca="1">IF(AND($C23="Objetivo",AO$7&gt;=$F23,AO$7&lt;=$F23+$G23-1),2,IF(AND($C23="Marco",AO$7&gt;=$F23,AO$7&lt;=$F23+$G23-1),1,""))</f>
         <v/>
       </c>
       <c r="AP23" s="26" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f ca="1">IF(AND($C23="Objetivo",AP$7&gt;=$F23,AP$7&lt;=$F23+$G23-1),2,IF(AND($C23="Marco",AP$7&gt;=$F23,AP$7&lt;=$F23+$G23-1),1,""))</f>
         <v/>
       </c>
       <c r="AQ23" s="26" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f ca="1">IF(AND($C23="Objetivo",AQ$7&gt;=$F23,AQ$7&lt;=$F23+$G23-1),2,IF(AND($C23="Marco",AQ$7&gt;=$F23,AQ$7&lt;=$F23+$G23-1),1,""))</f>
         <v/>
       </c>
       <c r="AR23" s="26" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f ca="1">IF(AND($C23="Objetivo",AR$7&gt;=$F23,AR$7&lt;=$F23+$G23-1),2,IF(AND($C23="Marco",AR$7&gt;=$F23,AR$7&lt;=$F23+$G23-1),1,""))</f>
         <v/>
       </c>
       <c r="AS23" s="26" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f ca="1">IF(AND($C23="Objetivo",AS$7&gt;=$F23,AS$7&lt;=$F23+$G23-1),2,IF(AND($C23="Marco",AS$7&gt;=$F23,AS$7&lt;=$F23+$G23-1),1,""))</f>
         <v/>
       </c>
       <c r="AT23" s="26" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f ca="1">IF(AND($C23="Objetivo",AT$7&gt;=$F23,AT$7&lt;=$F23+$G23-1),2,IF(AND($C23="Marco",AT$7&gt;=$F23,AT$7&lt;=$F23+$G23-1),1,""))</f>
         <v/>
       </c>
       <c r="AU23" s="26" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f ca="1">IF(AND($C23="Objetivo",AU$7&gt;=$F23,AU$7&lt;=$F23+$G23-1),2,IF(AND($C23="Marco",AU$7&gt;=$F23,AU$7&lt;=$F23+$G23-1),1,""))</f>
         <v/>
       </c>
       <c r="AV23" s="26" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f ca="1">IF(AND($C23="Objetivo",AV$7&gt;=$F23,AV$7&lt;=$F23+$G23-1),2,IF(AND($C23="Marco",AV$7&gt;=$F23,AV$7&lt;=$F23+$G23-1),1,""))</f>
         <v/>
       </c>
       <c r="AW23" s="26" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f ca="1">IF(AND($C23="Objetivo",AW$7&gt;=$F23,AW$7&lt;=$F23+$G23-1),2,IF(AND($C23="Marco",AW$7&gt;=$F23,AW$7&lt;=$F23+$G23-1),1,""))</f>
         <v/>
       </c>
       <c r="AX23" s="26" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f ca="1">IF(AND($C23="Objetivo",AX$7&gt;=$F23,AX$7&lt;=$F23+$G23-1),2,IF(AND($C23="Marco",AX$7&gt;=$F23,AX$7&lt;=$F23+$G23-1),1,""))</f>
         <v/>
       </c>
       <c r="AY23" s="26" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f ca="1">IF(AND($C23="Objetivo",AY$7&gt;=$F23,AY$7&lt;=$F23+$G23-1),2,IF(AND($C23="Marco",AY$7&gt;=$F23,AY$7&lt;=$F23+$G23-1),1,""))</f>
         <v/>
       </c>
       <c r="AZ23" s="26" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f ca="1">IF(AND($C23="Objetivo",AZ$7&gt;=$F23,AZ$7&lt;=$F23+$G23-1),2,IF(AND($C23="Marco",AZ$7&gt;=$F23,AZ$7&lt;=$F23+$G23-1),1,""))</f>
         <v/>
       </c>
       <c r="BA23" s="26" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f ca="1">IF(AND($C23="Objetivo",BA$7&gt;=$F23,BA$7&lt;=$F23+$G23-1),2,IF(AND($C23="Marco",BA$7&gt;=$F23,BA$7&lt;=$F23+$G23-1),1,""))</f>
         <v/>
       </c>
       <c r="BB23" s="26" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f ca="1">IF(AND($C23="Objetivo",BB$7&gt;=$F23,BB$7&lt;=$F23+$G23-1),2,IF(AND($C23="Marco",BB$7&gt;=$F23,BB$7&lt;=$F23+$G23-1),1,""))</f>
         <v/>
       </c>
       <c r="BC23" s="26" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f ca="1">IF(AND($C23="Objetivo",BC$7&gt;=$F23,BC$7&lt;=$F23+$G23-1),2,IF(AND($C23="Marco",BC$7&gt;=$F23,BC$7&lt;=$F23+$G23-1),1,""))</f>
         <v/>
       </c>
       <c r="BD23" s="26" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f ca="1">IF(AND($C23="Objetivo",BD$7&gt;=$F23,BD$7&lt;=$F23+$G23-1),2,IF(AND($C23="Marco",BD$7&gt;=$F23,BD$7&lt;=$F23+$G23-1),1,""))</f>
         <v/>
       </c>
       <c r="BE23" s="26" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f ca="1">IF(AND($C23="Objetivo",BE$7&gt;=$F23,BE$7&lt;=$F23+$G23-1),2,IF(AND($C23="Marco",BE$7&gt;=$F23,BE$7&lt;=$F23+$G23-1),1,""))</f>
         <v/>
       </c>
       <c r="BF23" s="26" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f ca="1">IF(AND($C23="Objetivo",BF$7&gt;=$F23,BF$7&lt;=$F23+$G23-1),2,IF(AND($C23="Marco",BF$7&gt;=$F23,BF$7&lt;=$F23+$G23-1),1,""))</f>
         <v/>
       </c>
       <c r="BG23" s="26" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f ca="1">IF(AND($C23="Objetivo",BG$7&gt;=$F23,BG$7&lt;=$F23+$G23-1),2,IF(AND($C23="Marco",BG$7&gt;=$F23,BG$7&lt;=$F23+$G23-1),1,""))</f>
         <v/>
       </c>
       <c r="BH23" s="26" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f ca="1">IF(AND($C23="Objetivo",BH$7&gt;=$F23,BH$7&lt;=$F23+$G23-1),2,IF(AND($C23="Marco",BH$7&gt;=$F23,BH$7&lt;=$F23+$G23-1),1,""))</f>
         <v/>
       </c>
       <c r="BI23" s="26" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f ca="1">IF(AND($C23="Objetivo",BI$7&gt;=$F23,BI$7&lt;=$F23+$G23-1),2,IF(AND($C23="Marco",BI$7&gt;=$F23,BI$7&lt;=$F23+$G23-1),1,""))</f>
         <v/>
       </c>
       <c r="BJ23" s="26" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f ca="1">IF(AND($C23="Objetivo",BJ$7&gt;=$F23,BJ$7&lt;=$F23+$G23-1),2,IF(AND($C23="Marco",BJ$7&gt;=$F23,BJ$7&lt;=$F23+$G23-1),1,""))</f>
         <v/>
       </c>
       <c r="BK23" s="26" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f ca="1">IF(AND($C23="Objetivo",BK$7&gt;=$F23,BK$7&lt;=$F23+$G23-1),2,IF(AND($C23="Marco",BK$7&gt;=$F23,BK$7&lt;=$F23+$G23-1),1,""))</f>
         <v/>
       </c>
       <c r="BL23" s="26" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f ca="1">IF(AND($C23="Objetivo",BL$7&gt;=$F23,BL$7&lt;=$F23+$G23-1),2,IF(AND($C23="Marco",BL$7&gt;=$F23,BL$7&lt;=$F23+$G23-1),1,""))</f>
         <v/>
       </c>
     </row>
     <row r="24" spans="1:64" s="1" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="9"/>
-      <c r="B24" s="62" t="s">
-        <v>52</v>
+      <c r="B24" t="s">
+        <v>62</v>
       </c>
       <c r="C24" s="58" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D24" s="58"/>
       <c r="E24" s="59"/>
       <c r="F24" s="60">
-        <f ca="1">F12+15</f>
-        <v>45024</v>
+        <v>45017</v>
       </c>
       <c r="G24" s="61">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="H24" s="58"/>
       <c r="I24" s="26" t="str">
-        <f t="shared" ca="1" si="8"/>
+        <f ca="1">IF(AND($C24="Objetivo",I$7&gt;=$F24,I$7&lt;=$F24+$G24-1),2,IF(AND($C24="Marco",I$7&gt;=$F24,I$7&lt;=$F24+$G24-1),1,""))</f>
         <v/>
       </c>
       <c r="J24" s="26" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f ca="1">IF(AND($C24="Objetivo",J$7&gt;=$F24,J$7&lt;=$F24+$G24-1),2,IF(AND($C24="Marco",J$7&gt;=$F24,J$7&lt;=$F24+$G24-1),1,""))</f>
         <v/>
       </c>
       <c r="K24" s="26" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f ca="1">IF(AND($C24="Objetivo",K$7&gt;=$F24,K$7&lt;=$F24+$G24-1),2,IF(AND($C24="Marco",K$7&gt;=$F24,K$7&lt;=$F24+$G24-1),1,""))</f>
         <v/>
       </c>
       <c r="L24" s="26" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f ca="1">IF(AND($C24="Objetivo",L$7&gt;=$F24,L$7&lt;=$F24+$G24-1),2,IF(AND($C24="Marco",L$7&gt;=$F24,L$7&lt;=$F24+$G24-1),1,""))</f>
         <v/>
       </c>
       <c r="M24" s="26" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f ca="1">IF(AND($C24="Objetivo",M$7&gt;=$F24,M$7&lt;=$F24+$G24-1),2,IF(AND($C24="Marco",M$7&gt;=$F24,M$7&lt;=$F24+$G24-1),1,""))</f>
         <v/>
       </c>
       <c r="N24" s="26" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f ca="1">IF(AND($C24="Objetivo",N$7&gt;=$F24,N$7&lt;=$F24+$G24-1),2,IF(AND($C24="Marco",N$7&gt;=$F24,N$7&lt;=$F24+$G24-1),1,""))</f>
         <v/>
       </c>
       <c r="O24" s="26" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f ca="1">IF(AND($C24="Objetivo",O$7&gt;=$F24,O$7&lt;=$F24+$G24-1),2,IF(AND($C24="Marco",O$7&gt;=$F24,O$7&lt;=$F24+$G24-1),1,""))</f>
         <v/>
       </c>
       <c r="P24" s="26" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f ca="1">IF(AND($C24="Objetivo",P$7&gt;=$F24,P$7&lt;=$F24+$G24-1),2,IF(AND($C24="Marco",P$7&gt;=$F24,P$7&lt;=$F24+$G24-1),1,""))</f>
         <v/>
       </c>
       <c r="Q24" s="26" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f ca="1">IF(AND($C24="Objetivo",Q$7&gt;=$F24,Q$7&lt;=$F24+$G24-1),2,IF(AND($C24="Marco",Q$7&gt;=$F24,Q$7&lt;=$F24+$G24-1),1,""))</f>
         <v/>
       </c>
       <c r="R24" s="26" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f ca="1">IF(AND($C24="Objetivo",R$7&gt;=$F24,R$7&lt;=$F24+$G24-1),2,IF(AND($C24="Marco",R$7&gt;=$F24,R$7&lt;=$F24+$G24-1),1,""))</f>
         <v/>
       </c>
       <c r="S24" s="26" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f ca="1">IF(AND($C24="Objetivo",S$7&gt;=$F24,S$7&lt;=$F24+$G24-1),2,IF(AND($C24="Marco",S$7&gt;=$F24,S$7&lt;=$F24+$G24-1),1,""))</f>
         <v/>
       </c>
       <c r="T24" s="26" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f ca="1">IF(AND($C24="Objetivo",T$7&gt;=$F24,T$7&lt;=$F24+$G24-1),2,IF(AND($C24="Marco",T$7&gt;=$F24,T$7&lt;=$F24+$G24-1),1,""))</f>
         <v/>
       </c>
       <c r="U24" s="26" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f ca="1">IF(AND($C24="Objetivo",U$7&gt;=$F24,U$7&lt;=$F24+$G24-1),2,IF(AND($C24="Marco",U$7&gt;=$F24,U$7&lt;=$F24+$G24-1),1,""))</f>
         <v/>
       </c>
       <c r="V24" s="26" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f ca="1">IF(AND($C24="Objetivo",V$7&gt;=$F24,V$7&lt;=$F24+$G24-1),2,IF(AND($C24="Marco",V$7&gt;=$F24,V$7&lt;=$F24+$G24-1),1,""))</f>
         <v/>
       </c>
       <c r="W24" s="26" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f ca="1">IF(AND($C24="Objetivo",W$7&gt;=$F24,W$7&lt;=$F24+$G24-1),2,IF(AND($C24="Marco",W$7&gt;=$F24,W$7&lt;=$F24+$G24-1),1,""))</f>
         <v/>
       </c>
       <c r="X24" s="26" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f ca="1">IF(AND($C24="Objetivo",X$7&gt;=$F24,X$7&lt;=$F24+$G24-1),2,IF(AND($C24="Marco",X$7&gt;=$F24,X$7&lt;=$F24+$G24-1),1,""))</f>
         <v/>
       </c>
       <c r="Y24" s="26" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f ca="1">IF(AND($C24="Objetivo",Y$7&gt;=$F24,Y$7&lt;=$F24+$G24-1),2,IF(AND($C24="Marco",Y$7&gt;=$F24,Y$7&lt;=$F24+$G24-1),1,""))</f>
         <v/>
       </c>
       <c r="Z24" s="26" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f ca="1">IF(AND($C24="Objetivo",Z$7&gt;=$F24,Z$7&lt;=$F24+$G24-1),2,IF(AND($C24="Marco",Z$7&gt;=$F24,Z$7&lt;=$F24+$G24-1),1,""))</f>
         <v/>
       </c>
       <c r="AA24" s="26" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f ca="1">IF(AND($C24="Objetivo",AA$7&gt;=$F24,AA$7&lt;=$F24+$G24-1),2,IF(AND($C24="Marco",AA$7&gt;=$F24,AA$7&lt;=$F24+$G24-1),1,""))</f>
         <v/>
       </c>
       <c r="AB24" s="26" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f ca="1">IF(AND($C24="Objetivo",AB$7&gt;=$F24,AB$7&lt;=$F24+$G24-1),2,IF(AND($C24="Marco",AB$7&gt;=$F24,AB$7&lt;=$F24+$G24-1),1,""))</f>
         <v/>
       </c>
       <c r="AC24" s="26" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f ca="1">IF(AND($C24="Objetivo",AC$7&gt;=$F24,AC$7&lt;=$F24+$G24-1),2,IF(AND($C24="Marco",AC$7&gt;=$F24,AC$7&lt;=$F24+$G24-1),1,""))</f>
         <v/>
       </c>
       <c r="AD24" s="26" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f ca="1">IF(AND($C24="Objetivo",AD$7&gt;=$F24,AD$7&lt;=$F24+$G24-1),2,IF(AND($C24="Marco",AD$7&gt;=$F24,AD$7&lt;=$F24+$G24-1),1,""))</f>
         <v/>
       </c>
       <c r="AE24" s="26" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f ca="1">IF(AND($C24="Objetivo",AE$7&gt;=$F24,AE$7&lt;=$F24+$G24-1),2,IF(AND($C24="Marco",AE$7&gt;=$F24,AE$7&lt;=$F24+$G24-1),1,""))</f>
         <v/>
       </c>
       <c r="AF24" s="26" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f ca="1">IF(AND($C24="Objetivo",AF$7&gt;=$F24,AF$7&lt;=$F24+$G24-1),2,IF(AND($C24="Marco",AF$7&gt;=$F24,AF$7&lt;=$F24+$G24-1),1,""))</f>
         <v/>
       </c>
       <c r="AG24" s="26" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f ca="1">IF(AND($C24="Objetivo",AG$7&gt;=$F24,AG$7&lt;=$F24+$G24-1),2,IF(AND($C24="Marco",AG$7&gt;=$F24,AG$7&lt;=$F24+$G24-1),1,""))</f>
         <v/>
       </c>
       <c r="AH24" s="26" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f ca="1">IF(AND($C24="Objetivo",AH$7&gt;=$F24,AH$7&lt;=$F24+$G24-1),2,IF(AND($C24="Marco",AH$7&gt;=$F24,AH$7&lt;=$F24+$G24-1),1,""))</f>
         <v/>
       </c>
       <c r="AI24" s="26" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f ca="1">IF(AND($C24="Objetivo",AI$7&gt;=$F24,AI$7&lt;=$F24+$G24-1),2,IF(AND($C24="Marco",AI$7&gt;=$F24,AI$7&lt;=$F24+$G24-1),1,""))</f>
         <v/>
       </c>
       <c r="AJ24" s="26" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f ca="1">IF(AND($C24="Objetivo",AJ$7&gt;=$F24,AJ$7&lt;=$F24+$G24-1),2,IF(AND($C24="Marco",AJ$7&gt;=$F24,AJ$7&lt;=$F24+$G24-1),1,""))</f>
         <v/>
       </c>
       <c r="AK24" s="26" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f ca="1">IF(AND($C24="Objetivo",AK$7&gt;=$F24,AK$7&lt;=$F24+$G24-1),2,IF(AND($C24="Marco",AK$7&gt;=$F24,AK$7&lt;=$F24+$G24-1),1,""))</f>
         <v/>
       </c>
       <c r="AL24" s="26" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f ca="1">IF(AND($C24="Objetivo",AL$7&gt;=$F24,AL$7&lt;=$F24+$G24-1),2,IF(AND($C24="Marco",AL$7&gt;=$F24,AL$7&lt;=$F24+$G24-1),1,""))</f>
         <v/>
       </c>
       <c r="AM24" s="26" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f ca="1">IF(AND($C24="Objetivo",AM$7&gt;=$F24,AM$7&lt;=$F24+$G24-1),2,IF(AND($C24="Marco",AM$7&gt;=$F24,AM$7&lt;=$F24+$G24-1),1,""))</f>
         <v/>
       </c>
       <c r="AN24" s="26" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f ca="1">IF(AND($C24="Objetivo",AN$7&gt;=$F24,AN$7&lt;=$F24+$G24-1),2,IF(AND($C24="Marco",AN$7&gt;=$F24,AN$7&lt;=$F24+$G24-1),1,""))</f>
         <v/>
       </c>
       <c r="AO24" s="26" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f ca="1">IF(AND($C24="Objetivo",AO$7&gt;=$F24,AO$7&lt;=$F24+$G24-1),2,IF(AND($C24="Marco",AO$7&gt;=$F24,AO$7&lt;=$F24+$G24-1),1,""))</f>
         <v/>
       </c>
       <c r="AP24" s="26" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f ca="1">IF(AND($C24="Objetivo",AP$7&gt;=$F24,AP$7&lt;=$F24+$G24-1),2,IF(AND($C24="Marco",AP$7&gt;=$F24,AP$7&lt;=$F24+$G24-1),1,""))</f>
         <v/>
       </c>
       <c r="AQ24" s="26" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f ca="1">IF(AND($C24="Objetivo",AQ$7&gt;=$F24,AQ$7&lt;=$F24+$G24-1),2,IF(AND($C24="Marco",AQ$7&gt;=$F24,AQ$7&lt;=$F24+$G24-1),1,""))</f>
         <v/>
       </c>
       <c r="AR24" s="26" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f ca="1">IF(AND($C24="Objetivo",AR$7&gt;=$F24,AR$7&lt;=$F24+$G24-1),2,IF(AND($C24="Marco",AR$7&gt;=$F24,AR$7&lt;=$F24+$G24-1),1,""))</f>
         <v/>
       </c>
       <c r="AS24" s="26" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f ca="1">IF(AND($C24="Objetivo",AS$7&gt;=$F24,AS$7&lt;=$F24+$G24-1),2,IF(AND($C24="Marco",AS$7&gt;=$F24,AS$7&lt;=$F24+$G24-1),1,""))</f>
         <v/>
       </c>
       <c r="AT24" s="26" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f ca="1">IF(AND($C24="Objetivo",AT$7&gt;=$F24,AT$7&lt;=$F24+$G24-1),2,IF(AND($C24="Marco",AT$7&gt;=$F24,AT$7&lt;=$F24+$G24-1),1,""))</f>
         <v/>
       </c>
       <c r="AU24" s="26" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f ca="1">IF(AND($C24="Objetivo",AU$7&gt;=$F24,AU$7&lt;=$F24+$G24-1),2,IF(AND($C24="Marco",AU$7&gt;=$F24,AU$7&lt;=$F24+$G24-1),1,""))</f>
         <v/>
       </c>
       <c r="AV24" s="26" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f ca="1">IF(AND($C24="Objetivo",AV$7&gt;=$F24,AV$7&lt;=$F24+$G24-1),2,IF(AND($C24="Marco",AV$7&gt;=$F24,AV$7&lt;=$F24+$G24-1),1,""))</f>
         <v/>
       </c>
       <c r="AW24" s="26" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f ca="1">IF(AND($C24="Objetivo",AW$7&gt;=$F24,AW$7&lt;=$F24+$G24-1),2,IF(AND($C24="Marco",AW$7&gt;=$F24,AW$7&lt;=$F24+$G24-1),1,""))</f>
         <v/>
       </c>
       <c r="AX24" s="26" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f ca="1">IF(AND($C24="Objetivo",AX$7&gt;=$F24,AX$7&lt;=$F24+$G24-1),2,IF(AND($C24="Marco",AX$7&gt;=$F24,AX$7&lt;=$F24+$G24-1),1,""))</f>
         <v/>
       </c>
       <c r="AY24" s="26" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f ca="1">IF(AND($C24="Objetivo",AY$7&gt;=$F24,AY$7&lt;=$F24+$G24-1),2,IF(AND($C24="Marco",AY$7&gt;=$F24,AY$7&lt;=$F24+$G24-1),1,""))</f>
         <v/>
       </c>
       <c r="AZ24" s="26" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f ca="1">IF(AND($C24="Objetivo",AZ$7&gt;=$F24,AZ$7&lt;=$F24+$G24-1),2,IF(AND($C24="Marco",AZ$7&gt;=$F24,AZ$7&lt;=$F24+$G24-1),1,""))</f>
         <v/>
       </c>
       <c r="BA24" s="26" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f ca="1">IF(AND($C24="Objetivo",BA$7&gt;=$F24,BA$7&lt;=$F24+$G24-1),2,IF(AND($C24="Marco",BA$7&gt;=$F24,BA$7&lt;=$F24+$G24-1),1,""))</f>
         <v/>
       </c>
       <c r="BB24" s="26" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f ca="1">IF(AND($C24="Objetivo",BB$7&gt;=$F24,BB$7&lt;=$F24+$G24-1),2,IF(AND($C24="Marco",BB$7&gt;=$F24,BB$7&lt;=$F24+$G24-1),1,""))</f>
         <v/>
       </c>
       <c r="BC24" s="26" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f ca="1">IF(AND($C24="Objetivo",BC$7&gt;=$F24,BC$7&lt;=$F24+$G24-1),2,IF(AND($C24="Marco",BC$7&gt;=$F24,BC$7&lt;=$F24+$G24-1),1,""))</f>
         <v/>
       </c>
       <c r="BD24" s="26" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f ca="1">IF(AND($C24="Objetivo",BD$7&gt;=$F24,BD$7&lt;=$F24+$G24-1),2,IF(AND($C24="Marco",BD$7&gt;=$F24,BD$7&lt;=$F24+$G24-1),1,""))</f>
         <v/>
       </c>
       <c r="BE24" s="26" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f ca="1">IF(AND($C24="Objetivo",BE$7&gt;=$F24,BE$7&lt;=$F24+$G24-1),2,IF(AND($C24="Marco",BE$7&gt;=$F24,BE$7&lt;=$F24+$G24-1),1,""))</f>
         <v/>
       </c>
       <c r="BF24" s="26" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f ca="1">IF(AND($C24="Objetivo",BF$7&gt;=$F24,BF$7&lt;=$F24+$G24-1),2,IF(AND($C24="Marco",BF$7&gt;=$F24,BF$7&lt;=$F24+$G24-1),1,""))</f>
         <v/>
       </c>
       <c r="BG24" s="26" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f ca="1">IF(AND($C24="Objetivo",BG$7&gt;=$F24,BG$7&lt;=$F24+$G24-1),2,IF(AND($C24="Marco",BG$7&gt;=$F24,BG$7&lt;=$F24+$G24-1),1,""))</f>
         <v/>
       </c>
       <c r="BH24" s="26" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f ca="1">IF(AND($C24="Objetivo",BH$7&gt;=$F24,BH$7&lt;=$F24+$G24-1),2,IF(AND($C24="Marco",BH$7&gt;=$F24,BH$7&lt;=$F24+$G24-1),1,""))</f>
         <v/>
       </c>
       <c r="BI24" s="26" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f ca="1">IF(AND($C24="Objetivo",BI$7&gt;=$F24,BI$7&lt;=$F24+$G24-1),2,IF(AND($C24="Marco",BI$7&gt;=$F24,BI$7&lt;=$F24+$G24-1),1,""))</f>
         <v/>
       </c>
       <c r="BJ24" s="26" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f ca="1">IF(AND($C24="Objetivo",BJ$7&gt;=$F24,BJ$7&lt;=$F24+$G24-1),2,IF(AND($C24="Marco",BJ$7&gt;=$F24,BJ$7&lt;=$F24+$G24-1),1,""))</f>
         <v/>
       </c>
       <c r="BK24" s="26" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f ca="1">IF(AND($C24="Objetivo",BK$7&gt;=$F24,BK$7&lt;=$F24+$G24-1),2,IF(AND($C24="Marco",BK$7&gt;=$F24,BK$7&lt;=$F24+$G24-1),1,""))</f>
         <v/>
       </c>
       <c r="BL24" s="26" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f ca="1">IF(AND($C24="Objetivo",BL$7&gt;=$F24,BL$7&lt;=$F24+$G24-1),2,IF(AND($C24="Marco",BL$7&gt;=$F24,BL$7&lt;=$F24+$G24-1),1,""))</f>
         <v/>
       </c>
     </row>
     <row r="25" spans="1:64" s="1" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="9"/>
-      <c r="B25" s="62" t="s">
-        <v>52</v>
+      <c r="B25" t="s">
+        <v>63</v>
       </c>
       <c r="C25" s="58" t="s">
         <v>23</v>
@@ -21649,2399 +21680,1817 @@
       <c r="D25" s="58"/>
       <c r="E25" s="59"/>
       <c r="F25" s="60">
-        <f ca="1">F24+3</f>
-        <v>45027</v>
+        <v>45017</v>
       </c>
       <c r="G25" s="61">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H25" s="58"/>
       <c r="I25" s="26" t="str">
-        <f t="shared" ca="1" si="8"/>
+        <f ca="1">IF(AND($C25="Objetivo",I$7&gt;=$F25,I$7&lt;=$F25+$G25-1),2,IF(AND($C25="Marco",I$7&gt;=$F25,I$7&lt;=$F25+$G25-1),1,""))</f>
         <v/>
       </c>
       <c r="J25" s="26" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f ca="1">IF(AND($C25="Objetivo",J$7&gt;=$F25,J$7&lt;=$F25+$G25-1),2,IF(AND($C25="Marco",J$7&gt;=$F25,J$7&lt;=$F25+$G25-1),1,""))</f>
         <v/>
       </c>
       <c r="K25" s="26" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f ca="1">IF(AND($C25="Objetivo",K$7&gt;=$F25,K$7&lt;=$F25+$G25-1),2,IF(AND($C25="Marco",K$7&gt;=$F25,K$7&lt;=$F25+$G25-1),1,""))</f>
         <v/>
       </c>
       <c r="L25" s="26" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f ca="1">IF(AND($C25="Objetivo",L$7&gt;=$F25,L$7&lt;=$F25+$G25-1),2,IF(AND($C25="Marco",L$7&gt;=$F25,L$7&lt;=$F25+$G25-1),1,""))</f>
         <v/>
       </c>
       <c r="M25" s="26" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f ca="1">IF(AND($C25="Objetivo",M$7&gt;=$F25,M$7&lt;=$F25+$G25-1),2,IF(AND($C25="Marco",M$7&gt;=$F25,M$7&lt;=$F25+$G25-1),1,""))</f>
         <v/>
       </c>
       <c r="N25" s="26" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f ca="1">IF(AND($C25="Objetivo",N$7&gt;=$F25,N$7&lt;=$F25+$G25-1),2,IF(AND($C25="Marco",N$7&gt;=$F25,N$7&lt;=$F25+$G25-1),1,""))</f>
         <v/>
       </c>
       <c r="O25" s="26" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f ca="1">IF(AND($C25="Objetivo",O$7&gt;=$F25,O$7&lt;=$F25+$G25-1),2,IF(AND($C25="Marco",O$7&gt;=$F25,O$7&lt;=$F25+$G25-1),1,""))</f>
         <v/>
       </c>
       <c r="P25" s="26" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f ca="1">IF(AND($C25="Objetivo",P$7&gt;=$F25,P$7&lt;=$F25+$G25-1),2,IF(AND($C25="Marco",P$7&gt;=$F25,P$7&lt;=$F25+$G25-1),1,""))</f>
         <v/>
       </c>
       <c r="Q25" s="26" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f ca="1">IF(AND($C25="Objetivo",Q$7&gt;=$F25,Q$7&lt;=$F25+$G25-1),2,IF(AND($C25="Marco",Q$7&gt;=$F25,Q$7&lt;=$F25+$G25-1),1,""))</f>
         <v/>
       </c>
       <c r="R25" s="26" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f ca="1">IF(AND($C25="Objetivo",R$7&gt;=$F25,R$7&lt;=$F25+$G25-1),2,IF(AND($C25="Marco",R$7&gt;=$F25,R$7&lt;=$F25+$G25-1),1,""))</f>
         <v/>
       </c>
       <c r="S25" s="26" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f ca="1">IF(AND($C25="Objetivo",S$7&gt;=$F25,S$7&lt;=$F25+$G25-1),2,IF(AND($C25="Marco",S$7&gt;=$F25,S$7&lt;=$F25+$G25-1),1,""))</f>
         <v/>
       </c>
       <c r="T25" s="26" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f ca="1">IF(AND($C25="Objetivo",T$7&gt;=$F25,T$7&lt;=$F25+$G25-1),2,IF(AND($C25="Marco",T$7&gt;=$F25,T$7&lt;=$F25+$G25-1),1,""))</f>
         <v/>
       </c>
       <c r="U25" s="26" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f ca="1">IF(AND($C25="Objetivo",U$7&gt;=$F25,U$7&lt;=$F25+$G25-1),2,IF(AND($C25="Marco",U$7&gt;=$F25,U$7&lt;=$F25+$G25-1),1,""))</f>
         <v/>
       </c>
       <c r="V25" s="26" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f ca="1">IF(AND($C25="Objetivo",V$7&gt;=$F25,V$7&lt;=$F25+$G25-1),2,IF(AND($C25="Marco",V$7&gt;=$F25,V$7&lt;=$F25+$G25-1),1,""))</f>
         <v/>
       </c>
       <c r="W25" s="26" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f ca="1">IF(AND($C25="Objetivo",W$7&gt;=$F25,W$7&lt;=$F25+$G25-1),2,IF(AND($C25="Marco",W$7&gt;=$F25,W$7&lt;=$F25+$G25-1),1,""))</f>
         <v/>
       </c>
       <c r="X25" s="26" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f ca="1">IF(AND($C25="Objetivo",X$7&gt;=$F25,X$7&lt;=$F25+$G25-1),2,IF(AND($C25="Marco",X$7&gt;=$F25,X$7&lt;=$F25+$G25-1),1,""))</f>
         <v/>
       </c>
       <c r="Y25" s="26" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f ca="1">IF(AND($C25="Objetivo",Y$7&gt;=$F25,Y$7&lt;=$F25+$G25-1),2,IF(AND($C25="Marco",Y$7&gt;=$F25,Y$7&lt;=$F25+$G25-1),1,""))</f>
         <v/>
       </c>
       <c r="Z25" s="26" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f ca="1">IF(AND($C25="Objetivo",Z$7&gt;=$F25,Z$7&lt;=$F25+$G25-1),2,IF(AND($C25="Marco",Z$7&gt;=$F25,Z$7&lt;=$F25+$G25-1),1,""))</f>
         <v/>
       </c>
       <c r="AA25" s="26" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f ca="1">IF(AND($C25="Objetivo",AA$7&gt;=$F25,AA$7&lt;=$F25+$G25-1),2,IF(AND($C25="Marco",AA$7&gt;=$F25,AA$7&lt;=$F25+$G25-1),1,""))</f>
         <v/>
       </c>
       <c r="AB25" s="26" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f ca="1">IF(AND($C25="Objetivo",AB$7&gt;=$F25,AB$7&lt;=$F25+$G25-1),2,IF(AND($C25="Marco",AB$7&gt;=$F25,AB$7&lt;=$F25+$G25-1),1,""))</f>
         <v/>
       </c>
       <c r="AC25" s="26" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f ca="1">IF(AND($C25="Objetivo",AC$7&gt;=$F25,AC$7&lt;=$F25+$G25-1),2,IF(AND($C25="Marco",AC$7&gt;=$F25,AC$7&lt;=$F25+$G25-1),1,""))</f>
         <v/>
       </c>
       <c r="AD25" s="26" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f ca="1">IF(AND($C25="Objetivo",AD$7&gt;=$F25,AD$7&lt;=$F25+$G25-1),2,IF(AND($C25="Marco",AD$7&gt;=$F25,AD$7&lt;=$F25+$G25-1),1,""))</f>
         <v/>
       </c>
       <c r="AE25" s="26" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f ca="1">IF(AND($C25="Objetivo",AE$7&gt;=$F25,AE$7&lt;=$F25+$G25-1),2,IF(AND($C25="Marco",AE$7&gt;=$F25,AE$7&lt;=$F25+$G25-1),1,""))</f>
         <v/>
       </c>
       <c r="AF25" s="26" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f ca="1">IF(AND($C25="Objetivo",AF$7&gt;=$F25,AF$7&lt;=$F25+$G25-1),2,IF(AND($C25="Marco",AF$7&gt;=$F25,AF$7&lt;=$F25+$G25-1),1,""))</f>
         <v/>
       </c>
       <c r="AG25" s="26" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f ca="1">IF(AND($C25="Objetivo",AG$7&gt;=$F25,AG$7&lt;=$F25+$G25-1),2,IF(AND($C25="Marco",AG$7&gt;=$F25,AG$7&lt;=$F25+$G25-1),1,""))</f>
         <v/>
       </c>
       <c r="AH25" s="26" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f ca="1">IF(AND($C25="Objetivo",AH$7&gt;=$F25,AH$7&lt;=$F25+$G25-1),2,IF(AND($C25="Marco",AH$7&gt;=$F25,AH$7&lt;=$F25+$G25-1),1,""))</f>
         <v/>
       </c>
       <c r="AI25" s="26" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f ca="1">IF(AND($C25="Objetivo",AI$7&gt;=$F25,AI$7&lt;=$F25+$G25-1),2,IF(AND($C25="Marco",AI$7&gt;=$F25,AI$7&lt;=$F25+$G25-1),1,""))</f>
         <v/>
       </c>
       <c r="AJ25" s="26" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f ca="1">IF(AND($C25="Objetivo",AJ$7&gt;=$F25,AJ$7&lt;=$F25+$G25-1),2,IF(AND($C25="Marco",AJ$7&gt;=$F25,AJ$7&lt;=$F25+$G25-1),1,""))</f>
         <v/>
       </c>
       <c r="AK25" s="26" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f ca="1">IF(AND($C25="Objetivo",AK$7&gt;=$F25,AK$7&lt;=$F25+$G25-1),2,IF(AND($C25="Marco",AK$7&gt;=$F25,AK$7&lt;=$F25+$G25-1),1,""))</f>
         <v/>
       </c>
       <c r="AL25" s="26" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f ca="1">IF(AND($C25="Objetivo",AL$7&gt;=$F25,AL$7&lt;=$F25+$G25-1),2,IF(AND($C25="Marco",AL$7&gt;=$F25,AL$7&lt;=$F25+$G25-1),1,""))</f>
         <v/>
       </c>
       <c r="AM25" s="26" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f ca="1">IF(AND($C25="Objetivo",AM$7&gt;=$F25,AM$7&lt;=$F25+$G25-1),2,IF(AND($C25="Marco",AM$7&gt;=$F25,AM$7&lt;=$F25+$G25-1),1,""))</f>
         <v/>
       </c>
       <c r="AN25" s="26" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f ca="1">IF(AND($C25="Objetivo",AN$7&gt;=$F25,AN$7&lt;=$F25+$G25-1),2,IF(AND($C25="Marco",AN$7&gt;=$F25,AN$7&lt;=$F25+$G25-1),1,""))</f>
         <v/>
       </c>
       <c r="AO25" s="26" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f ca="1">IF(AND($C25="Objetivo",AO$7&gt;=$F25,AO$7&lt;=$F25+$G25-1),2,IF(AND($C25="Marco",AO$7&gt;=$F25,AO$7&lt;=$F25+$G25-1),1,""))</f>
         <v/>
       </c>
       <c r="AP25" s="26" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f ca="1">IF(AND($C25="Objetivo",AP$7&gt;=$F25,AP$7&lt;=$F25+$G25-1),2,IF(AND($C25="Marco",AP$7&gt;=$F25,AP$7&lt;=$F25+$G25-1),1,""))</f>
         <v/>
       </c>
       <c r="AQ25" s="26" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f ca="1">IF(AND($C25="Objetivo",AQ$7&gt;=$F25,AQ$7&lt;=$F25+$G25-1),2,IF(AND($C25="Marco",AQ$7&gt;=$F25,AQ$7&lt;=$F25+$G25-1),1,""))</f>
         <v/>
       </c>
       <c r="AR25" s="26" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f ca="1">IF(AND($C25="Objetivo",AR$7&gt;=$F25,AR$7&lt;=$F25+$G25-1),2,IF(AND($C25="Marco",AR$7&gt;=$F25,AR$7&lt;=$F25+$G25-1),1,""))</f>
         <v/>
       </c>
       <c r="AS25" s="26" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f ca="1">IF(AND($C25="Objetivo",AS$7&gt;=$F25,AS$7&lt;=$F25+$G25-1),2,IF(AND($C25="Marco",AS$7&gt;=$F25,AS$7&lt;=$F25+$G25-1),1,""))</f>
         <v/>
       </c>
       <c r="AT25" s="26" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f ca="1">IF(AND($C25="Objetivo",AT$7&gt;=$F25,AT$7&lt;=$F25+$G25-1),2,IF(AND($C25="Marco",AT$7&gt;=$F25,AT$7&lt;=$F25+$G25-1),1,""))</f>
         <v/>
       </c>
       <c r="AU25" s="26" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f ca="1">IF(AND($C25="Objetivo",AU$7&gt;=$F25,AU$7&lt;=$F25+$G25-1),2,IF(AND($C25="Marco",AU$7&gt;=$F25,AU$7&lt;=$F25+$G25-1),1,""))</f>
         <v/>
       </c>
       <c r="AV25" s="26" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f ca="1">IF(AND($C25="Objetivo",AV$7&gt;=$F25,AV$7&lt;=$F25+$G25-1),2,IF(AND($C25="Marco",AV$7&gt;=$F25,AV$7&lt;=$F25+$G25-1),1,""))</f>
         <v/>
       </c>
       <c r="AW25" s="26" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f ca="1">IF(AND($C25="Objetivo",AW$7&gt;=$F25,AW$7&lt;=$F25+$G25-1),2,IF(AND($C25="Marco",AW$7&gt;=$F25,AW$7&lt;=$F25+$G25-1),1,""))</f>
         <v/>
       </c>
       <c r="AX25" s="26" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f ca="1">IF(AND($C25="Objetivo",AX$7&gt;=$F25,AX$7&lt;=$F25+$G25-1),2,IF(AND($C25="Marco",AX$7&gt;=$F25,AX$7&lt;=$F25+$G25-1),1,""))</f>
         <v/>
       </c>
       <c r="AY25" s="26" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f ca="1">IF(AND($C25="Objetivo",AY$7&gt;=$F25,AY$7&lt;=$F25+$G25-1),2,IF(AND($C25="Marco",AY$7&gt;=$F25,AY$7&lt;=$F25+$G25-1),1,""))</f>
         <v/>
       </c>
       <c r="AZ25" s="26" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f ca="1">IF(AND($C25="Objetivo",AZ$7&gt;=$F25,AZ$7&lt;=$F25+$G25-1),2,IF(AND($C25="Marco",AZ$7&gt;=$F25,AZ$7&lt;=$F25+$G25-1),1,""))</f>
         <v/>
       </c>
       <c r="BA25" s="26" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f ca="1">IF(AND($C25="Objetivo",BA$7&gt;=$F25,BA$7&lt;=$F25+$G25-1),2,IF(AND($C25="Marco",BA$7&gt;=$F25,BA$7&lt;=$F25+$G25-1),1,""))</f>
         <v/>
       </c>
       <c r="BB25" s="26" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f ca="1">IF(AND($C25="Objetivo",BB$7&gt;=$F25,BB$7&lt;=$F25+$G25-1),2,IF(AND($C25="Marco",BB$7&gt;=$F25,BB$7&lt;=$F25+$G25-1),1,""))</f>
         <v/>
       </c>
       <c r="BC25" s="26" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f ca="1">IF(AND($C25="Objetivo",BC$7&gt;=$F25,BC$7&lt;=$F25+$G25-1),2,IF(AND($C25="Marco",BC$7&gt;=$F25,BC$7&lt;=$F25+$G25-1),1,""))</f>
         <v/>
       </c>
       <c r="BD25" s="26" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f ca="1">IF(AND($C25="Objetivo",BD$7&gt;=$F25,BD$7&lt;=$F25+$G25-1),2,IF(AND($C25="Marco",BD$7&gt;=$F25,BD$7&lt;=$F25+$G25-1),1,""))</f>
         <v/>
       </c>
       <c r="BE25" s="26" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f ca="1">IF(AND($C25="Objetivo",BE$7&gt;=$F25,BE$7&lt;=$F25+$G25-1),2,IF(AND($C25="Marco",BE$7&gt;=$F25,BE$7&lt;=$F25+$G25-1),1,""))</f>
         <v/>
       </c>
       <c r="BF25" s="26" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f ca="1">IF(AND($C25="Objetivo",BF$7&gt;=$F25,BF$7&lt;=$F25+$G25-1),2,IF(AND($C25="Marco",BF$7&gt;=$F25,BF$7&lt;=$F25+$G25-1),1,""))</f>
         <v/>
       </c>
       <c r="BG25" s="26" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f ca="1">IF(AND($C25="Objetivo",BG$7&gt;=$F25,BG$7&lt;=$F25+$G25-1),2,IF(AND($C25="Marco",BG$7&gt;=$F25,BG$7&lt;=$F25+$G25-1),1,""))</f>
         <v/>
       </c>
       <c r="BH25" s="26" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f ca="1">IF(AND($C25="Objetivo",BH$7&gt;=$F25,BH$7&lt;=$F25+$G25-1),2,IF(AND($C25="Marco",BH$7&gt;=$F25,BH$7&lt;=$F25+$G25-1),1,""))</f>
         <v/>
       </c>
       <c r="BI25" s="26" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f ca="1">IF(AND($C25="Objetivo",BI$7&gt;=$F25,BI$7&lt;=$F25+$G25-1),2,IF(AND($C25="Marco",BI$7&gt;=$F25,BI$7&lt;=$F25+$G25-1),1,""))</f>
         <v/>
       </c>
       <c r="BJ25" s="26" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f ca="1">IF(AND($C25="Objetivo",BJ$7&gt;=$F25,BJ$7&lt;=$F25+$G25-1),2,IF(AND($C25="Marco",BJ$7&gt;=$F25,BJ$7&lt;=$F25+$G25-1),1,""))</f>
         <v/>
       </c>
       <c r="BK25" s="26" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f ca="1">IF(AND($C25="Objetivo",BK$7&gt;=$F25,BK$7&lt;=$F25+$G25-1),2,IF(AND($C25="Marco",BK$7&gt;=$F25,BK$7&lt;=$F25+$G25-1),1,""))</f>
         <v/>
       </c>
       <c r="BL25" s="26" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f ca="1">IF(AND($C25="Objetivo",BL$7&gt;=$F25,BL$7&lt;=$F25+$G25-1),2,IF(AND($C25="Marco",BL$7&gt;=$F25,BL$7&lt;=$F25+$G25-1),1,""))</f>
         <v/>
       </c>
     </row>
     <row r="26" spans="1:64" s="1" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="9"/>
-      <c r="B26" s="62" t="s">
-        <v>52</v>
-      </c>
-      <c r="C26" s="58" t="s">
-        <v>25</v>
-      </c>
+      <c r="B26" s="114" t="s">
+        <v>51</v>
+      </c>
+      <c r="C26" s="58"/>
       <c r="D26" s="58"/>
       <c r="E26" s="59"/>
-      <c r="F26" s="60">
-        <f ca="1">F25+15</f>
-        <v>45042</v>
-      </c>
-      <c r="G26" s="61">
-        <v>6</v>
-      </c>
+      <c r="F26" s="60"/>
+      <c r="G26" s="61"/>
       <c r="H26" s="58"/>
       <c r="I26" s="26" t="str">
-        <f t="shared" ca="1" si="8"/>
+        <f ca="1">IF(AND($C26="Objetivo",I$7&gt;=$F26,I$7&lt;=$F26+$G26-1),2,IF(AND($C26="Marco",I$7&gt;=$F26,I$7&lt;=$F26+$G26-1),1,""))</f>
         <v/>
       </c>
       <c r="J26" s="26" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f ca="1">IF(AND($C26="Objetivo",J$7&gt;=$F26,J$7&lt;=$F26+$G26-1),2,IF(AND($C26="Marco",J$7&gt;=$F26,J$7&lt;=$F26+$G26-1),1,""))</f>
         <v/>
       </c>
       <c r="K26" s="26" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f ca="1">IF(AND($C26="Objetivo",K$7&gt;=$F26,K$7&lt;=$F26+$G26-1),2,IF(AND($C26="Marco",K$7&gt;=$F26,K$7&lt;=$F26+$G26-1),1,""))</f>
         <v/>
       </c>
       <c r="L26" s="26" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f ca="1">IF(AND($C26="Objetivo",L$7&gt;=$F26,L$7&lt;=$F26+$G26-1),2,IF(AND($C26="Marco",L$7&gt;=$F26,L$7&lt;=$F26+$G26-1),1,""))</f>
         <v/>
       </c>
       <c r="M26" s="26" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f ca="1">IF(AND($C26="Objetivo",M$7&gt;=$F26,M$7&lt;=$F26+$G26-1),2,IF(AND($C26="Marco",M$7&gt;=$F26,M$7&lt;=$F26+$G26-1),1,""))</f>
         <v/>
       </c>
       <c r="N26" s="26" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f ca="1">IF(AND($C26="Objetivo",N$7&gt;=$F26,N$7&lt;=$F26+$G26-1),2,IF(AND($C26="Marco",N$7&gt;=$F26,N$7&lt;=$F26+$G26-1),1,""))</f>
         <v/>
       </c>
       <c r="O26" s="26" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f ca="1">IF(AND($C26="Objetivo",O$7&gt;=$F26,O$7&lt;=$F26+$G26-1),2,IF(AND($C26="Marco",O$7&gt;=$F26,O$7&lt;=$F26+$G26-1),1,""))</f>
         <v/>
       </c>
       <c r="P26" s="26" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f ca="1">IF(AND($C26="Objetivo",P$7&gt;=$F26,P$7&lt;=$F26+$G26-1),2,IF(AND($C26="Marco",P$7&gt;=$F26,P$7&lt;=$F26+$G26-1),1,""))</f>
         <v/>
       </c>
       <c r="Q26" s="26" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f ca="1">IF(AND($C26="Objetivo",Q$7&gt;=$F26,Q$7&lt;=$F26+$G26-1),2,IF(AND($C26="Marco",Q$7&gt;=$F26,Q$7&lt;=$F26+$G26-1),1,""))</f>
         <v/>
       </c>
       <c r="R26" s="26" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f ca="1">IF(AND($C26="Objetivo",R$7&gt;=$F26,R$7&lt;=$F26+$G26-1),2,IF(AND($C26="Marco",R$7&gt;=$F26,R$7&lt;=$F26+$G26-1),1,""))</f>
         <v/>
       </c>
       <c r="S26" s="26" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f ca="1">IF(AND($C26="Objetivo",S$7&gt;=$F26,S$7&lt;=$F26+$G26-1),2,IF(AND($C26="Marco",S$7&gt;=$F26,S$7&lt;=$F26+$G26-1),1,""))</f>
         <v/>
       </c>
       <c r="T26" s="26" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f ca="1">IF(AND($C26="Objetivo",T$7&gt;=$F26,T$7&lt;=$F26+$G26-1),2,IF(AND($C26="Marco",T$7&gt;=$F26,T$7&lt;=$F26+$G26-1),1,""))</f>
         <v/>
       </c>
       <c r="U26" s="26" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f ca="1">IF(AND($C26="Objetivo",U$7&gt;=$F26,U$7&lt;=$F26+$G26-1),2,IF(AND($C26="Marco",U$7&gt;=$F26,U$7&lt;=$F26+$G26-1),1,""))</f>
         <v/>
       </c>
       <c r="V26" s="26" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f ca="1">IF(AND($C26="Objetivo",V$7&gt;=$F26,V$7&lt;=$F26+$G26-1),2,IF(AND($C26="Marco",V$7&gt;=$F26,V$7&lt;=$F26+$G26-1),1,""))</f>
         <v/>
       </c>
       <c r="W26" s="26" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f ca="1">IF(AND($C26="Objetivo",W$7&gt;=$F26,W$7&lt;=$F26+$G26-1),2,IF(AND($C26="Marco",W$7&gt;=$F26,W$7&lt;=$F26+$G26-1),1,""))</f>
         <v/>
       </c>
       <c r="X26" s="26" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f ca="1">IF(AND($C26="Objetivo",X$7&gt;=$F26,X$7&lt;=$F26+$G26-1),2,IF(AND($C26="Marco",X$7&gt;=$F26,X$7&lt;=$F26+$G26-1),1,""))</f>
         <v/>
       </c>
       <c r="Y26" s="26" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f ca="1">IF(AND($C26="Objetivo",Y$7&gt;=$F26,Y$7&lt;=$F26+$G26-1),2,IF(AND($C26="Marco",Y$7&gt;=$F26,Y$7&lt;=$F26+$G26-1),1,""))</f>
         <v/>
       </c>
       <c r="Z26" s="26" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f ca="1">IF(AND($C26="Objetivo",Z$7&gt;=$F26,Z$7&lt;=$F26+$G26-1),2,IF(AND($C26="Marco",Z$7&gt;=$F26,Z$7&lt;=$F26+$G26-1),1,""))</f>
         <v/>
       </c>
       <c r="AA26" s="26" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f ca="1">IF(AND($C26="Objetivo",AA$7&gt;=$F26,AA$7&lt;=$F26+$G26-1),2,IF(AND($C26="Marco",AA$7&gt;=$F26,AA$7&lt;=$F26+$G26-1),1,""))</f>
         <v/>
       </c>
       <c r="AB26" s="26" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f ca="1">IF(AND($C26="Objetivo",AB$7&gt;=$F26,AB$7&lt;=$F26+$G26-1),2,IF(AND($C26="Marco",AB$7&gt;=$F26,AB$7&lt;=$F26+$G26-1),1,""))</f>
         <v/>
       </c>
       <c r="AC26" s="26" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f ca="1">IF(AND($C26="Objetivo",AC$7&gt;=$F26,AC$7&lt;=$F26+$G26-1),2,IF(AND($C26="Marco",AC$7&gt;=$F26,AC$7&lt;=$F26+$G26-1),1,""))</f>
         <v/>
       </c>
       <c r="AD26" s="26" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f ca="1">IF(AND($C26="Objetivo",AD$7&gt;=$F26,AD$7&lt;=$F26+$G26-1),2,IF(AND($C26="Marco",AD$7&gt;=$F26,AD$7&lt;=$F26+$G26-1),1,""))</f>
         <v/>
       </c>
       <c r="AE26" s="26" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f ca="1">IF(AND($C26="Objetivo",AE$7&gt;=$F26,AE$7&lt;=$F26+$G26-1),2,IF(AND($C26="Marco",AE$7&gt;=$F26,AE$7&lt;=$F26+$G26-1),1,""))</f>
         <v/>
       </c>
       <c r="AF26" s="26" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f ca="1">IF(AND($C26="Objetivo",AF$7&gt;=$F26,AF$7&lt;=$F26+$G26-1),2,IF(AND($C26="Marco",AF$7&gt;=$F26,AF$7&lt;=$F26+$G26-1),1,""))</f>
         <v/>
       </c>
       <c r="AG26" s="26" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f ca="1">IF(AND($C26="Objetivo",AG$7&gt;=$F26,AG$7&lt;=$F26+$G26-1),2,IF(AND($C26="Marco",AG$7&gt;=$F26,AG$7&lt;=$F26+$G26-1),1,""))</f>
         <v/>
       </c>
       <c r="AH26" s="26" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f ca="1">IF(AND($C26="Objetivo",AH$7&gt;=$F26,AH$7&lt;=$F26+$G26-1),2,IF(AND($C26="Marco",AH$7&gt;=$F26,AH$7&lt;=$F26+$G26-1),1,""))</f>
         <v/>
       </c>
       <c r="AI26" s="26" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f ca="1">IF(AND($C26="Objetivo",AI$7&gt;=$F26,AI$7&lt;=$F26+$G26-1),2,IF(AND($C26="Marco",AI$7&gt;=$F26,AI$7&lt;=$F26+$G26-1),1,""))</f>
         <v/>
       </c>
       <c r="AJ26" s="26" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f ca="1">IF(AND($C26="Objetivo",AJ$7&gt;=$F26,AJ$7&lt;=$F26+$G26-1),2,IF(AND($C26="Marco",AJ$7&gt;=$F26,AJ$7&lt;=$F26+$G26-1),1,""))</f>
         <v/>
       </c>
       <c r="AK26" s="26" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f ca="1">IF(AND($C26="Objetivo",AK$7&gt;=$F26,AK$7&lt;=$F26+$G26-1),2,IF(AND($C26="Marco",AK$7&gt;=$F26,AK$7&lt;=$F26+$G26-1),1,""))</f>
         <v/>
       </c>
       <c r="AL26" s="26" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f ca="1">IF(AND($C26="Objetivo",AL$7&gt;=$F26,AL$7&lt;=$F26+$G26-1),2,IF(AND($C26="Marco",AL$7&gt;=$F26,AL$7&lt;=$F26+$G26-1),1,""))</f>
         <v/>
       </c>
       <c r="AM26" s="26" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f ca="1">IF(AND($C26="Objetivo",AM$7&gt;=$F26,AM$7&lt;=$F26+$G26-1),2,IF(AND($C26="Marco",AM$7&gt;=$F26,AM$7&lt;=$F26+$G26-1),1,""))</f>
         <v/>
       </c>
       <c r="AN26" s="26" t="str">
-        <f t="shared" ref="AN26:BC35" ca="1" si="9">IF(AND($C26="Objetivo",AN$7&gt;=$F26,AN$7&lt;=$F26+$G26-1),2,IF(AND($C26="Marco",AN$7&gt;=$F26,AN$7&lt;=$F26+$G26-1),1,""))</f>
+        <f ca="1">IF(AND($C26="Objetivo",AN$7&gt;=$F26,AN$7&lt;=$F26+$G26-1),2,IF(AND($C26="Marco",AN$7&gt;=$F26,AN$7&lt;=$F26+$G26-1),1,""))</f>
         <v/>
       </c>
       <c r="AO26" s="26" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f ca="1">IF(AND($C26="Objetivo",AO$7&gt;=$F26,AO$7&lt;=$F26+$G26-1),2,IF(AND($C26="Marco",AO$7&gt;=$F26,AO$7&lt;=$F26+$G26-1),1,""))</f>
         <v/>
       </c>
       <c r="AP26" s="26" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f ca="1">IF(AND($C26="Objetivo",AP$7&gt;=$F26,AP$7&lt;=$F26+$G26-1),2,IF(AND($C26="Marco",AP$7&gt;=$F26,AP$7&lt;=$F26+$G26-1),1,""))</f>
         <v/>
       </c>
       <c r="AQ26" s="26" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f ca="1">IF(AND($C26="Objetivo",AQ$7&gt;=$F26,AQ$7&lt;=$F26+$G26-1),2,IF(AND($C26="Marco",AQ$7&gt;=$F26,AQ$7&lt;=$F26+$G26-1),1,""))</f>
         <v/>
       </c>
       <c r="AR26" s="26" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f ca="1">IF(AND($C26="Objetivo",AR$7&gt;=$F26,AR$7&lt;=$F26+$G26-1),2,IF(AND($C26="Marco",AR$7&gt;=$F26,AR$7&lt;=$F26+$G26-1),1,""))</f>
         <v/>
       </c>
       <c r="AS26" s="26" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f ca="1">IF(AND($C26="Objetivo",AS$7&gt;=$F26,AS$7&lt;=$F26+$G26-1),2,IF(AND($C26="Marco",AS$7&gt;=$F26,AS$7&lt;=$F26+$G26-1),1,""))</f>
         <v/>
       </c>
       <c r="AT26" s="26" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f ca="1">IF(AND($C26="Objetivo",AT$7&gt;=$F26,AT$7&lt;=$F26+$G26-1),2,IF(AND($C26="Marco",AT$7&gt;=$F26,AT$7&lt;=$F26+$G26-1),1,""))</f>
         <v/>
       </c>
       <c r="AU26" s="26" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f ca="1">IF(AND($C26="Objetivo",AU$7&gt;=$F26,AU$7&lt;=$F26+$G26-1),2,IF(AND($C26="Marco",AU$7&gt;=$F26,AU$7&lt;=$F26+$G26-1),1,""))</f>
         <v/>
       </c>
       <c r="AV26" s="26" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f ca="1">IF(AND($C26="Objetivo",AV$7&gt;=$F26,AV$7&lt;=$F26+$G26-1),2,IF(AND($C26="Marco",AV$7&gt;=$F26,AV$7&lt;=$F26+$G26-1),1,""))</f>
         <v/>
       </c>
       <c r="AW26" s="26" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f ca="1">IF(AND($C26="Objetivo",AW$7&gt;=$F26,AW$7&lt;=$F26+$G26-1),2,IF(AND($C26="Marco",AW$7&gt;=$F26,AW$7&lt;=$F26+$G26-1),1,""))</f>
         <v/>
       </c>
       <c r="AX26" s="26" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f ca="1">IF(AND($C26="Objetivo",AX$7&gt;=$F26,AX$7&lt;=$F26+$G26-1),2,IF(AND($C26="Marco",AX$7&gt;=$F26,AX$7&lt;=$F26+$G26-1),1,""))</f>
         <v/>
       </c>
       <c r="AY26" s="26" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f ca="1">IF(AND($C26="Objetivo",AY$7&gt;=$F26,AY$7&lt;=$F26+$G26-1),2,IF(AND($C26="Marco",AY$7&gt;=$F26,AY$7&lt;=$F26+$G26-1),1,""))</f>
         <v/>
       </c>
       <c r="AZ26" s="26" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f ca="1">IF(AND($C26="Objetivo",AZ$7&gt;=$F26,AZ$7&lt;=$F26+$G26-1),2,IF(AND($C26="Marco",AZ$7&gt;=$F26,AZ$7&lt;=$F26+$G26-1),1,""))</f>
         <v/>
       </c>
       <c r="BA26" s="26" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f ca="1">IF(AND($C26="Objetivo",BA$7&gt;=$F26,BA$7&lt;=$F26+$G26-1),2,IF(AND($C26="Marco",BA$7&gt;=$F26,BA$7&lt;=$F26+$G26-1),1,""))</f>
         <v/>
       </c>
       <c r="BB26" s="26" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f ca="1">IF(AND($C26="Objetivo",BB$7&gt;=$F26,BB$7&lt;=$F26+$G26-1),2,IF(AND($C26="Marco",BB$7&gt;=$F26,BB$7&lt;=$F26+$G26-1),1,""))</f>
         <v/>
       </c>
       <c r="BC26" s="26" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f ca="1">IF(AND($C26="Objetivo",BC$7&gt;=$F26,BC$7&lt;=$F26+$G26-1),2,IF(AND($C26="Marco",BC$7&gt;=$F26,BC$7&lt;=$F26+$G26-1),1,""))</f>
         <v/>
       </c>
       <c r="BD26" s="26" t="str">
-        <f t="shared" ref="BD26:BL35" ca="1" si="10">IF(AND($C26="Objetivo",BD$7&gt;=$F26,BD$7&lt;=$F26+$G26-1),2,IF(AND($C26="Marco",BD$7&gt;=$F26,BD$7&lt;=$F26+$G26-1),1,""))</f>
+        <f ca="1">IF(AND($C26="Objetivo",BD$7&gt;=$F26,BD$7&lt;=$F26+$G26-1),2,IF(AND($C26="Marco",BD$7&gt;=$F26,BD$7&lt;=$F26+$G26-1),1,""))</f>
         <v/>
       </c>
       <c r="BE26" s="26" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f ca="1">IF(AND($C26="Objetivo",BE$7&gt;=$F26,BE$7&lt;=$F26+$G26-1),2,IF(AND($C26="Marco",BE$7&gt;=$F26,BE$7&lt;=$F26+$G26-1),1,""))</f>
         <v/>
       </c>
       <c r="BF26" s="26" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f ca="1">IF(AND($C26="Objetivo",BF$7&gt;=$F26,BF$7&lt;=$F26+$G26-1),2,IF(AND($C26="Marco",BF$7&gt;=$F26,BF$7&lt;=$F26+$G26-1),1,""))</f>
         <v/>
       </c>
       <c r="BG26" s="26" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f ca="1">IF(AND($C26="Objetivo",BG$7&gt;=$F26,BG$7&lt;=$F26+$G26-1),2,IF(AND($C26="Marco",BG$7&gt;=$F26,BG$7&lt;=$F26+$G26-1),1,""))</f>
         <v/>
       </c>
       <c r="BH26" s="26" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f ca="1">IF(AND($C26="Objetivo",BH$7&gt;=$F26,BH$7&lt;=$F26+$G26-1),2,IF(AND($C26="Marco",BH$7&gt;=$F26,BH$7&lt;=$F26+$G26-1),1,""))</f>
         <v/>
       </c>
       <c r="BI26" s="26" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f ca="1">IF(AND($C26="Objetivo",BI$7&gt;=$F26,BI$7&lt;=$F26+$G26-1),2,IF(AND($C26="Marco",BI$7&gt;=$F26,BI$7&lt;=$F26+$G26-1),1,""))</f>
         <v/>
       </c>
       <c r="BJ26" s="26" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f ca="1">IF(AND($C26="Objetivo",BJ$7&gt;=$F26,BJ$7&lt;=$F26+$G26-1),2,IF(AND($C26="Marco",BJ$7&gt;=$F26,BJ$7&lt;=$F26+$G26-1),1,""))</f>
         <v/>
       </c>
       <c r="BK26" s="26" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f ca="1">IF(AND($C26="Objetivo",BK$7&gt;=$F26,BK$7&lt;=$F26+$G26-1),2,IF(AND($C26="Marco",BK$7&gt;=$F26,BK$7&lt;=$F26+$G26-1),1,""))</f>
         <v/>
       </c>
       <c r="BL26" s="26" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f ca="1">IF(AND($C26="Objetivo",BL$7&gt;=$F26,BL$7&lt;=$F26+$G26-1),2,IF(AND($C26="Marco",BL$7&gt;=$F26,BL$7&lt;=$F26+$G26-1),1,""))</f>
         <v/>
       </c>
     </row>
     <row r="27" spans="1:64" s="1" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="9"/>
       <c r="B27" s="62" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="C27" s="58" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D27" s="58"/>
       <c r="E27" s="59"/>
       <c r="F27" s="60">
-        <f ca="1">F21+22</f>
-        <v>45046</v>
+        <v>45031</v>
       </c>
       <c r="G27" s="61">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="H27" s="58"/>
       <c r="I27" s="26" t="str">
-        <f t="shared" ca="1" si="8"/>
+        <f ca="1">IF(AND($C27="Objetivo",I$7&gt;=$F27,I$7&lt;=$F27+$G27-1),2,IF(AND($C27="Marco",I$7&gt;=$F27,I$7&lt;=$F27+$G27-1),1,""))</f>
         <v/>
       </c>
       <c r="J27" s="26" t="str">
-        <f t="shared" ca="1" si="8"/>
+        <f ca="1">IF(AND($C27="Objetivo",J$7&gt;=$F27,J$7&lt;=$F27+$G27-1),2,IF(AND($C27="Marco",J$7&gt;=$F27,J$7&lt;=$F27+$G27-1),1,""))</f>
         <v/>
       </c>
       <c r="K27" s="26" t="str">
-        <f t="shared" ca="1" si="8"/>
+        <f ca="1">IF(AND($C27="Objetivo",K$7&gt;=$F27,K$7&lt;=$F27+$G27-1),2,IF(AND($C27="Marco",K$7&gt;=$F27,K$7&lt;=$F27+$G27-1),1,""))</f>
         <v/>
       </c>
       <c r="L27" s="26" t="str">
-        <f t="shared" ca="1" si="8"/>
+        <f ca="1">IF(AND($C27="Objetivo",L$7&gt;=$F27,L$7&lt;=$F27+$G27-1),2,IF(AND($C27="Marco",L$7&gt;=$F27,L$7&lt;=$F27+$G27-1),1,""))</f>
         <v/>
       </c>
       <c r="M27" s="26" t="str">
-        <f t="shared" ca="1" si="8"/>
+        <f ca="1">IF(AND($C27="Objetivo",M$7&gt;=$F27,M$7&lt;=$F27+$G27-1),2,IF(AND($C27="Marco",M$7&gt;=$F27,M$7&lt;=$F27+$G27-1),1,""))</f>
         <v/>
       </c>
       <c r="N27" s="26" t="str">
-        <f t="shared" ca="1" si="8"/>
+        <f ca="1">IF(AND($C27="Objetivo",N$7&gt;=$F27,N$7&lt;=$F27+$G27-1),2,IF(AND($C27="Marco",N$7&gt;=$F27,N$7&lt;=$F27+$G27-1),1,""))</f>
         <v/>
       </c>
       <c r="O27" s="26" t="str">
-        <f t="shared" ca="1" si="8"/>
+        <f ca="1">IF(AND($C27="Objetivo",O$7&gt;=$F27,O$7&lt;=$F27+$G27-1),2,IF(AND($C27="Marco",O$7&gt;=$F27,O$7&lt;=$F27+$G27-1),1,""))</f>
         <v/>
       </c>
       <c r="P27" s="26" t="str">
-        <f t="shared" ca="1" si="8"/>
+        <f ca="1">IF(AND($C27="Objetivo",P$7&gt;=$F27,P$7&lt;=$F27+$G27-1),2,IF(AND($C27="Marco",P$7&gt;=$F27,P$7&lt;=$F27+$G27-1),1,""))</f>
         <v/>
       </c>
       <c r="Q27" s="26" t="str">
-        <f t="shared" ca="1" si="8"/>
+        <f ca="1">IF(AND($C27="Objetivo",Q$7&gt;=$F27,Q$7&lt;=$F27+$G27-1),2,IF(AND($C27="Marco",Q$7&gt;=$F27,Q$7&lt;=$F27+$G27-1),1,""))</f>
         <v/>
       </c>
       <c r="R27" s="26" t="str">
-        <f t="shared" ca="1" si="8"/>
+        <f ca="1">IF(AND($C27="Objetivo",R$7&gt;=$F27,R$7&lt;=$F27+$G27-1),2,IF(AND($C27="Marco",R$7&gt;=$F27,R$7&lt;=$F27+$G27-1),1,""))</f>
         <v/>
       </c>
       <c r="S27" s="26" t="str">
-        <f t="shared" ca="1" si="8"/>
+        <f ca="1">IF(AND($C27="Objetivo",S$7&gt;=$F27,S$7&lt;=$F27+$G27-1),2,IF(AND($C27="Marco",S$7&gt;=$F27,S$7&lt;=$F27+$G27-1),1,""))</f>
         <v/>
       </c>
       <c r="T27" s="26" t="str">
-        <f t="shared" ca="1" si="8"/>
+        <f ca="1">IF(AND($C27="Objetivo",T$7&gt;=$F27,T$7&lt;=$F27+$G27-1),2,IF(AND($C27="Marco",T$7&gt;=$F27,T$7&lt;=$F27+$G27-1),1,""))</f>
         <v/>
       </c>
       <c r="U27" s="26" t="str">
-        <f t="shared" ca="1" si="8"/>
+        <f ca="1">IF(AND($C27="Objetivo",U$7&gt;=$F27,U$7&lt;=$F27+$G27-1),2,IF(AND($C27="Marco",U$7&gt;=$F27,U$7&lt;=$F27+$G27-1),1,""))</f>
         <v/>
       </c>
       <c r="V27" s="26" t="str">
-        <f t="shared" ca="1" si="8"/>
+        <f ca="1">IF(AND($C27="Objetivo",V$7&gt;=$F27,V$7&lt;=$F27+$G27-1),2,IF(AND($C27="Marco",V$7&gt;=$F27,V$7&lt;=$F27+$G27-1),1,""))</f>
         <v/>
       </c>
       <c r="W27" s="26" t="str">
-        <f t="shared" ca="1" si="8"/>
+        <f ca="1">IF(AND($C27="Objetivo",W$7&gt;=$F27,W$7&lt;=$F27+$G27-1),2,IF(AND($C27="Marco",W$7&gt;=$F27,W$7&lt;=$F27+$G27-1),1,""))</f>
         <v/>
       </c>
       <c r="X27" s="26" t="str">
-        <f t="shared" ca="1" si="8"/>
+        <f ca="1">IF(AND($C27="Objetivo",X$7&gt;=$F27,X$7&lt;=$F27+$G27-1),2,IF(AND($C27="Marco",X$7&gt;=$F27,X$7&lt;=$F27+$G27-1),1,""))</f>
         <v/>
       </c>
       <c r="Y27" s="26" t="str">
-        <f t="shared" ref="Y27:AM35" ca="1" si="11">IF(AND($C27="Objetivo",Y$7&gt;=$F27,Y$7&lt;=$F27+$G27-1),2,IF(AND($C27="Marco",Y$7&gt;=$F27,Y$7&lt;=$F27+$G27-1),1,""))</f>
+        <f ca="1">IF(AND($C27="Objetivo",Y$7&gt;=$F27,Y$7&lt;=$F27+$G27-1),2,IF(AND($C27="Marco",Y$7&gt;=$F27,Y$7&lt;=$F27+$G27-1),1,""))</f>
         <v/>
       </c>
       <c r="Z27" s="26" t="str">
-        <f t="shared" ca="1" si="11"/>
+        <f ca="1">IF(AND($C27="Objetivo",Z$7&gt;=$F27,Z$7&lt;=$F27+$G27-1),2,IF(AND($C27="Marco",Z$7&gt;=$F27,Z$7&lt;=$F27+$G27-1),1,""))</f>
         <v/>
       </c>
       <c r="AA27" s="26" t="str">
-        <f t="shared" ca="1" si="11"/>
+        <f ca="1">IF(AND($C27="Objetivo",AA$7&gt;=$F27,AA$7&lt;=$F27+$G27-1),2,IF(AND($C27="Marco",AA$7&gt;=$F27,AA$7&lt;=$F27+$G27-1),1,""))</f>
         <v/>
       </c>
       <c r="AB27" s="26" t="str">
-        <f t="shared" ca="1" si="11"/>
+        <f ca="1">IF(AND($C27="Objetivo",AB$7&gt;=$F27,AB$7&lt;=$F27+$G27-1),2,IF(AND($C27="Marco",AB$7&gt;=$F27,AB$7&lt;=$F27+$G27-1),1,""))</f>
         <v/>
       </c>
       <c r="AC27" s="26" t="str">
-        <f t="shared" ca="1" si="11"/>
+        <f ca="1">IF(AND($C27="Objetivo",AC$7&gt;=$F27,AC$7&lt;=$F27+$G27-1),2,IF(AND($C27="Marco",AC$7&gt;=$F27,AC$7&lt;=$F27+$G27-1),1,""))</f>
         <v/>
       </c>
       <c r="AD27" s="26" t="str">
-        <f t="shared" ca="1" si="11"/>
+        <f ca="1">IF(AND($C27="Objetivo",AD$7&gt;=$F27,AD$7&lt;=$F27+$G27-1),2,IF(AND($C27="Marco",AD$7&gt;=$F27,AD$7&lt;=$F27+$G27-1),1,""))</f>
         <v/>
       </c>
       <c r="AE27" s="26" t="str">
-        <f t="shared" ca="1" si="11"/>
+        <f ca="1">IF(AND($C27="Objetivo",AE$7&gt;=$F27,AE$7&lt;=$F27+$G27-1),2,IF(AND($C27="Marco",AE$7&gt;=$F27,AE$7&lt;=$F27+$G27-1),1,""))</f>
         <v/>
       </c>
       <c r="AF27" s="26" t="str">
-        <f t="shared" ca="1" si="11"/>
+        <f ca="1">IF(AND($C27="Objetivo",AF$7&gt;=$F27,AF$7&lt;=$F27+$G27-1),2,IF(AND($C27="Marco",AF$7&gt;=$F27,AF$7&lt;=$F27+$G27-1),1,""))</f>
         <v/>
       </c>
       <c r="AG27" s="26" t="str">
-        <f t="shared" ca="1" si="11"/>
+        <f ca="1">IF(AND($C27="Objetivo",AG$7&gt;=$F27,AG$7&lt;=$F27+$G27-1),2,IF(AND($C27="Marco",AG$7&gt;=$F27,AG$7&lt;=$F27+$G27-1),1,""))</f>
         <v/>
       </c>
       <c r="AH27" s="26" t="str">
-        <f t="shared" ca="1" si="11"/>
+        <f ca="1">IF(AND($C27="Objetivo",AH$7&gt;=$F27,AH$7&lt;=$F27+$G27-1),2,IF(AND($C27="Marco",AH$7&gt;=$F27,AH$7&lt;=$F27+$G27-1),1,""))</f>
         <v/>
       </c>
       <c r="AI27" s="26" t="str">
-        <f t="shared" ca="1" si="11"/>
+        <f ca="1">IF(AND($C27="Objetivo",AI$7&gt;=$F27,AI$7&lt;=$F27+$G27-1),2,IF(AND($C27="Marco",AI$7&gt;=$F27,AI$7&lt;=$F27+$G27-1),1,""))</f>
         <v/>
       </c>
       <c r="AJ27" s="26" t="str">
-        <f t="shared" ca="1" si="11"/>
+        <f ca="1">IF(AND($C27="Objetivo",AJ$7&gt;=$F27,AJ$7&lt;=$F27+$G27-1),2,IF(AND($C27="Marco",AJ$7&gt;=$F27,AJ$7&lt;=$F27+$G27-1),1,""))</f>
         <v/>
       </c>
       <c r="AK27" s="26" t="str">
-        <f t="shared" ca="1" si="11"/>
+        <f ca="1">IF(AND($C27="Objetivo",AK$7&gt;=$F27,AK$7&lt;=$F27+$G27-1),2,IF(AND($C27="Marco",AK$7&gt;=$F27,AK$7&lt;=$F27+$G27-1),1,""))</f>
         <v/>
       </c>
       <c r="AL27" s="26" t="str">
-        <f t="shared" ca="1" si="11"/>
+        <f ca="1">IF(AND($C27="Objetivo",AL$7&gt;=$F27,AL$7&lt;=$F27+$G27-1),2,IF(AND($C27="Marco",AL$7&gt;=$F27,AL$7&lt;=$F27+$G27-1),1,""))</f>
         <v/>
       </c>
       <c r="AM27" s="26" t="str">
-        <f t="shared" ca="1" si="11"/>
+        <f ca="1">IF(AND($C27="Objetivo",AM$7&gt;=$F27,AM$7&lt;=$F27+$G27-1),2,IF(AND($C27="Marco",AM$7&gt;=$F27,AM$7&lt;=$F27+$G27-1),1,""))</f>
         <v/>
       </c>
       <c r="AN27" s="26" t="str">
-        <f t="shared" ca="1" si="9"/>
+        <f ca="1">IF(AND($C27="Objetivo",AN$7&gt;=$F27,AN$7&lt;=$F27+$G27-1),2,IF(AND($C27="Marco",AN$7&gt;=$F27,AN$7&lt;=$F27+$G27-1),1,""))</f>
         <v/>
       </c>
       <c r="AO27" s="26" t="str">
-        <f t="shared" ca="1" si="9"/>
+        <f ca="1">IF(AND($C27="Objetivo",AO$7&gt;=$F27,AO$7&lt;=$F27+$G27-1),2,IF(AND($C27="Marco",AO$7&gt;=$F27,AO$7&lt;=$F27+$G27-1),1,""))</f>
         <v/>
       </c>
       <c r="AP27" s="26" t="str">
-        <f t="shared" ca="1" si="9"/>
+        <f ca="1">IF(AND($C27="Objetivo",AP$7&gt;=$F27,AP$7&lt;=$F27+$G27-1),2,IF(AND($C27="Marco",AP$7&gt;=$F27,AP$7&lt;=$F27+$G27-1),1,""))</f>
         <v/>
       </c>
       <c r="AQ27" s="26" t="str">
-        <f t="shared" ca="1" si="9"/>
+        <f ca="1">IF(AND($C27="Objetivo",AQ$7&gt;=$F27,AQ$7&lt;=$F27+$G27-1),2,IF(AND($C27="Marco",AQ$7&gt;=$F27,AQ$7&lt;=$F27+$G27-1),1,""))</f>
         <v/>
       </c>
       <c r="AR27" s="26" t="str">
-        <f t="shared" ca="1" si="9"/>
+        <f ca="1">IF(AND($C27="Objetivo",AR$7&gt;=$F27,AR$7&lt;=$F27+$G27-1),2,IF(AND($C27="Marco",AR$7&gt;=$F27,AR$7&lt;=$F27+$G27-1),1,""))</f>
         <v/>
       </c>
       <c r="AS27" s="26" t="str">
-        <f t="shared" ca="1" si="9"/>
+        <f ca="1">IF(AND($C27="Objetivo",AS$7&gt;=$F27,AS$7&lt;=$F27+$G27-1),2,IF(AND($C27="Marco",AS$7&gt;=$F27,AS$7&lt;=$F27+$G27-1),1,""))</f>
         <v/>
       </c>
       <c r="AT27" s="26" t="str">
-        <f t="shared" ca="1" si="9"/>
+        <f ca="1">IF(AND($C27="Objetivo",AT$7&gt;=$F27,AT$7&lt;=$F27+$G27-1),2,IF(AND($C27="Marco",AT$7&gt;=$F27,AT$7&lt;=$F27+$G27-1),1,""))</f>
         <v/>
       </c>
       <c r="AU27" s="26" t="str">
-        <f t="shared" ca="1" si="9"/>
+        <f ca="1">IF(AND($C27="Objetivo",AU$7&gt;=$F27,AU$7&lt;=$F27+$G27-1),2,IF(AND($C27="Marco",AU$7&gt;=$F27,AU$7&lt;=$F27+$G27-1),1,""))</f>
         <v/>
       </c>
       <c r="AV27" s="26" t="str">
-        <f t="shared" ca="1" si="9"/>
+        <f ca="1">IF(AND($C27="Objetivo",AV$7&gt;=$F27,AV$7&lt;=$F27+$G27-1),2,IF(AND($C27="Marco",AV$7&gt;=$F27,AV$7&lt;=$F27+$G27-1),1,""))</f>
         <v/>
       </c>
       <c r="AW27" s="26" t="str">
-        <f t="shared" ca="1" si="9"/>
+        <f ca="1">IF(AND($C27="Objetivo",AW$7&gt;=$F27,AW$7&lt;=$F27+$G27-1),2,IF(AND($C27="Marco",AW$7&gt;=$F27,AW$7&lt;=$F27+$G27-1),1,""))</f>
         <v/>
       </c>
       <c r="AX27" s="26" t="str">
-        <f t="shared" ca="1" si="9"/>
+        <f ca="1">IF(AND($C27="Objetivo",AX$7&gt;=$F27,AX$7&lt;=$F27+$G27-1),2,IF(AND($C27="Marco",AX$7&gt;=$F27,AX$7&lt;=$F27+$G27-1),1,""))</f>
         <v/>
       </c>
       <c r="AY27" s="26" t="str">
-        <f t="shared" ca="1" si="9"/>
+        <f ca="1">IF(AND($C27="Objetivo",AY$7&gt;=$F27,AY$7&lt;=$F27+$G27-1),2,IF(AND($C27="Marco",AY$7&gt;=$F27,AY$7&lt;=$F27+$G27-1),1,""))</f>
         <v/>
       </c>
       <c r="AZ27" s="26" t="str">
-        <f t="shared" ca="1" si="9"/>
+        <f ca="1">IF(AND($C27="Objetivo",AZ$7&gt;=$F27,AZ$7&lt;=$F27+$G27-1),2,IF(AND($C27="Marco",AZ$7&gt;=$F27,AZ$7&lt;=$F27+$G27-1),1,""))</f>
         <v/>
       </c>
       <c r="BA27" s="26" t="str">
-        <f t="shared" ca="1" si="9"/>
+        <f ca="1">IF(AND($C27="Objetivo",BA$7&gt;=$F27,BA$7&lt;=$F27+$G27-1),2,IF(AND($C27="Marco",BA$7&gt;=$F27,BA$7&lt;=$F27+$G27-1),1,""))</f>
         <v/>
       </c>
       <c r="BB27" s="26" t="str">
-        <f t="shared" ca="1" si="9"/>
+        <f ca="1">IF(AND($C27="Objetivo",BB$7&gt;=$F27,BB$7&lt;=$F27+$G27-1),2,IF(AND($C27="Marco",BB$7&gt;=$F27,BB$7&lt;=$F27+$G27-1),1,""))</f>
         <v/>
       </c>
       <c r="BC27" s="26" t="str">
-        <f t="shared" ca="1" si="9"/>
+        <f ca="1">IF(AND($C27="Objetivo",BC$7&gt;=$F27,BC$7&lt;=$F27+$G27-1),2,IF(AND($C27="Marco",BC$7&gt;=$F27,BC$7&lt;=$F27+$G27-1),1,""))</f>
         <v/>
       </c>
       <c r="BD27" s="26" t="str">
-        <f t="shared" ca="1" si="10"/>
+        <f ca="1">IF(AND($C27="Objetivo",BD$7&gt;=$F27,BD$7&lt;=$F27+$G27-1),2,IF(AND($C27="Marco",BD$7&gt;=$F27,BD$7&lt;=$F27+$G27-1),1,""))</f>
         <v/>
       </c>
       <c r="BE27" s="26" t="str">
-        <f t="shared" ca="1" si="10"/>
+        <f ca="1">IF(AND($C27="Objetivo",BE$7&gt;=$F27,BE$7&lt;=$F27+$G27-1),2,IF(AND($C27="Marco",BE$7&gt;=$F27,BE$7&lt;=$F27+$G27-1),1,""))</f>
         <v/>
       </c>
       <c r="BF27" s="26" t="str">
-        <f t="shared" ca="1" si="10"/>
+        <f ca="1">IF(AND($C27="Objetivo",BF$7&gt;=$F27,BF$7&lt;=$F27+$G27-1),2,IF(AND($C27="Marco",BF$7&gt;=$F27,BF$7&lt;=$F27+$G27-1),1,""))</f>
         <v/>
       </c>
       <c r="BG27" s="26" t="str">
-        <f t="shared" ca="1" si="10"/>
+        <f ca="1">IF(AND($C27="Objetivo",BG$7&gt;=$F27,BG$7&lt;=$F27+$G27-1),2,IF(AND($C27="Marco",BG$7&gt;=$F27,BG$7&lt;=$F27+$G27-1),1,""))</f>
         <v/>
       </c>
       <c r="BH27" s="26" t="str">
-        <f t="shared" ca="1" si="10"/>
+        <f ca="1">IF(AND($C27="Objetivo",BH$7&gt;=$F27,BH$7&lt;=$F27+$G27-1),2,IF(AND($C27="Marco",BH$7&gt;=$F27,BH$7&lt;=$F27+$G27-1),1,""))</f>
         <v/>
       </c>
       <c r="BI27" s="26" t="str">
-        <f t="shared" ca="1" si="10"/>
+        <f ca="1">IF(AND($C27="Objetivo",BI$7&gt;=$F27,BI$7&lt;=$F27+$G27-1),2,IF(AND($C27="Marco",BI$7&gt;=$F27,BI$7&lt;=$F27+$G27-1),1,""))</f>
         <v/>
       </c>
       <c r="BJ27" s="26" t="str">
-        <f t="shared" ca="1" si="10"/>
+        <f ca="1">IF(AND($C27="Objetivo",BJ$7&gt;=$F27,BJ$7&lt;=$F27+$G27-1),2,IF(AND($C27="Marco",BJ$7&gt;=$F27,BJ$7&lt;=$F27+$G27-1),1,""))</f>
         <v/>
       </c>
       <c r="BK27" s="26" t="str">
-        <f t="shared" ca="1" si="10"/>
+        <f ca="1">IF(AND($C27="Objetivo",BK$7&gt;=$F27,BK$7&lt;=$F27+$G27-1),2,IF(AND($C27="Marco",BK$7&gt;=$F27,BK$7&lt;=$F27+$G27-1),1,""))</f>
         <v/>
       </c>
       <c r="BL27" s="26" t="str">
-        <f t="shared" ca="1" si="10"/>
+        <f ca="1">IF(AND($C27="Objetivo",BL$7&gt;=$F27,BL$7&lt;=$F27+$G27-1),2,IF(AND($C27="Marco",BL$7&gt;=$F27,BL$7&lt;=$F27+$G27-1),1,""))</f>
         <v/>
       </c>
     </row>
     <row r="28" spans="1:64" s="1" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="9"/>
       <c r="B28" s="62" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="C28" s="58" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D28" s="58"/>
       <c r="E28" s="59"/>
       <c r="F28" s="60">
-        <f ca="1">F16</f>
-        <v>45015</v>
+        <v>45031</v>
       </c>
       <c r="G28" s="61">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="H28" s="58"/>
       <c r="I28" s="26" t="str">
-        <f t="shared" ca="1" si="8"/>
+        <f ca="1">IF(AND($C28="Objetivo",I$7&gt;=$F28,I$7&lt;=$F28+$G28-1),2,IF(AND($C28="Marco",I$7&gt;=$F28,I$7&lt;=$F28+$G28-1),1,""))</f>
         <v/>
       </c>
       <c r="J28" s="26" t="str">
-        <f t="shared" ca="1" si="8"/>
+        <f ca="1">IF(AND($C28="Objetivo",J$7&gt;=$F28,J$7&lt;=$F28+$G28-1),2,IF(AND($C28="Marco",J$7&gt;=$F28,J$7&lt;=$F28+$G28-1),1,""))</f>
         <v/>
       </c>
       <c r="K28" s="26" t="str">
-        <f t="shared" ca="1" si="8"/>
+        <f ca="1">IF(AND($C28="Objetivo",K$7&gt;=$F28,K$7&lt;=$F28+$G28-1),2,IF(AND($C28="Marco",K$7&gt;=$F28,K$7&lt;=$F28+$G28-1),1,""))</f>
         <v/>
       </c>
       <c r="L28" s="26" t="str">
-        <f t="shared" ca="1" si="8"/>
+        <f ca="1">IF(AND($C28="Objetivo",L$7&gt;=$F28,L$7&lt;=$F28+$G28-1),2,IF(AND($C28="Marco",L$7&gt;=$F28,L$7&lt;=$F28+$G28-1),1,""))</f>
         <v/>
       </c>
       <c r="M28" s="26" t="str">
-        <f t="shared" ca="1" si="8"/>
+        <f ca="1">IF(AND($C28="Objetivo",M$7&gt;=$F28,M$7&lt;=$F28+$G28-1),2,IF(AND($C28="Marco",M$7&gt;=$F28,M$7&lt;=$F28+$G28-1),1,""))</f>
         <v/>
       </c>
       <c r="N28" s="26" t="str">
-        <f t="shared" ca="1" si="8"/>
+        <f ca="1">IF(AND($C28="Objetivo",N$7&gt;=$F28,N$7&lt;=$F28+$G28-1),2,IF(AND($C28="Marco",N$7&gt;=$F28,N$7&lt;=$F28+$G28-1),1,""))</f>
         <v/>
       </c>
       <c r="O28" s="26" t="str">
-        <f t="shared" ca="1" si="8"/>
+        <f ca="1">IF(AND($C28="Objetivo",O$7&gt;=$F28,O$7&lt;=$F28+$G28-1),2,IF(AND($C28="Marco",O$7&gt;=$F28,O$7&lt;=$F28+$G28-1),1,""))</f>
         <v/>
       </c>
       <c r="P28" s="26" t="str">
-        <f t="shared" ca="1" si="8"/>
+        <f ca="1">IF(AND($C28="Objetivo",P$7&gt;=$F28,P$7&lt;=$F28+$G28-1),2,IF(AND($C28="Marco",P$7&gt;=$F28,P$7&lt;=$F28+$G28-1),1,""))</f>
         <v/>
       </c>
       <c r="Q28" s="26" t="str">
-        <f t="shared" ca="1" si="8"/>
+        <f ca="1">IF(AND($C28="Objetivo",Q$7&gt;=$F28,Q$7&lt;=$F28+$G28-1),2,IF(AND($C28="Marco",Q$7&gt;=$F28,Q$7&lt;=$F28+$G28-1),1,""))</f>
         <v/>
       </c>
       <c r="R28" s="26" t="str">
-        <f t="shared" ca="1" si="8"/>
+        <f ca="1">IF(AND($C28="Objetivo",R$7&gt;=$F28,R$7&lt;=$F28+$G28-1),2,IF(AND($C28="Marco",R$7&gt;=$F28,R$7&lt;=$F28+$G28-1),1,""))</f>
         <v/>
       </c>
       <c r="S28" s="26" t="str">
-        <f t="shared" ca="1" si="8"/>
+        <f ca="1">IF(AND($C28="Objetivo",S$7&gt;=$F28,S$7&lt;=$F28+$G28-1),2,IF(AND($C28="Marco",S$7&gt;=$F28,S$7&lt;=$F28+$G28-1),1,""))</f>
         <v/>
       </c>
       <c r="T28" s="26" t="str">
-        <f t="shared" ca="1" si="8"/>
+        <f ca="1">IF(AND($C28="Objetivo",T$7&gt;=$F28,T$7&lt;=$F28+$G28-1),2,IF(AND($C28="Marco",T$7&gt;=$F28,T$7&lt;=$F28+$G28-1),1,""))</f>
         <v/>
       </c>
       <c r="U28" s="26" t="str">
-        <f t="shared" ca="1" si="8"/>
+        <f ca="1">IF(AND($C28="Objetivo",U$7&gt;=$F28,U$7&lt;=$F28+$G28-1),2,IF(AND($C28="Marco",U$7&gt;=$F28,U$7&lt;=$F28+$G28-1),1,""))</f>
         <v/>
       </c>
       <c r="V28" s="26" t="str">
-        <f t="shared" ca="1" si="8"/>
+        <f ca="1">IF(AND($C28="Objetivo",V$7&gt;=$F28,V$7&lt;=$F28+$G28-1),2,IF(AND($C28="Marco",V$7&gt;=$F28,V$7&lt;=$F28+$G28-1),1,""))</f>
         <v/>
       </c>
       <c r="W28" s="26" t="str">
-        <f t="shared" ca="1" si="8"/>
+        <f ca="1">IF(AND($C28="Objetivo",W$7&gt;=$F28,W$7&lt;=$F28+$G28-1),2,IF(AND($C28="Marco",W$7&gt;=$F28,W$7&lt;=$F28+$G28-1),1,""))</f>
         <v/>
       </c>
       <c r="X28" s="26" t="str">
-        <f t="shared" ca="1" si="8"/>
+        <f ca="1">IF(AND($C28="Objetivo",X$7&gt;=$F28,X$7&lt;=$F28+$G28-1),2,IF(AND($C28="Marco",X$7&gt;=$F28,X$7&lt;=$F28+$G28-1),1,""))</f>
         <v/>
       </c>
       <c r="Y28" s="26" t="str">
-        <f t="shared" ca="1" si="11"/>
+        <f ca="1">IF(AND($C28="Objetivo",Y$7&gt;=$F28,Y$7&lt;=$F28+$G28-1),2,IF(AND($C28="Marco",Y$7&gt;=$F28,Y$7&lt;=$F28+$G28-1),1,""))</f>
         <v/>
       </c>
       <c r="Z28" s="26" t="str">
-        <f t="shared" ca="1" si="11"/>
+        <f ca="1">IF(AND($C28="Objetivo",Z$7&gt;=$F28,Z$7&lt;=$F28+$G28-1),2,IF(AND($C28="Marco",Z$7&gt;=$F28,Z$7&lt;=$F28+$G28-1),1,""))</f>
         <v/>
       </c>
       <c r="AA28" s="26" t="str">
-        <f t="shared" ca="1" si="11"/>
+        <f ca="1">IF(AND($C28="Objetivo",AA$7&gt;=$F28,AA$7&lt;=$F28+$G28-1),2,IF(AND($C28="Marco",AA$7&gt;=$F28,AA$7&lt;=$F28+$G28-1),1,""))</f>
         <v/>
       </c>
       <c r="AB28" s="26" t="str">
-        <f t="shared" ca="1" si="11"/>
+        <f ca="1">IF(AND($C28="Objetivo",AB$7&gt;=$F28,AB$7&lt;=$F28+$G28-1),2,IF(AND($C28="Marco",AB$7&gt;=$F28,AB$7&lt;=$F28+$G28-1),1,""))</f>
         <v/>
       </c>
       <c r="AC28" s="26" t="str">
-        <f t="shared" ca="1" si="11"/>
+        <f ca="1">IF(AND($C28="Objetivo",AC$7&gt;=$F28,AC$7&lt;=$F28+$G28-1),2,IF(AND($C28="Marco",AC$7&gt;=$F28,AC$7&lt;=$F28+$G28-1),1,""))</f>
         <v/>
       </c>
       <c r="AD28" s="26" t="str">
-        <f t="shared" ca="1" si="11"/>
+        <f ca="1">IF(AND($C28="Objetivo",AD$7&gt;=$F28,AD$7&lt;=$F28+$G28-1),2,IF(AND($C28="Marco",AD$7&gt;=$F28,AD$7&lt;=$F28+$G28-1),1,""))</f>
         <v/>
       </c>
       <c r="AE28" s="26" t="str">
-        <f t="shared" ca="1" si="11"/>
+        <f ca="1">IF(AND($C28="Objetivo",AE$7&gt;=$F28,AE$7&lt;=$F28+$G28-1),2,IF(AND($C28="Marco",AE$7&gt;=$F28,AE$7&lt;=$F28+$G28-1),1,""))</f>
         <v/>
       </c>
       <c r="AF28" s="26" t="str">
-        <f t="shared" ca="1" si="11"/>
+        <f ca="1">IF(AND($C28="Objetivo",AF$7&gt;=$F28,AF$7&lt;=$F28+$G28-1),2,IF(AND($C28="Marco",AF$7&gt;=$F28,AF$7&lt;=$F28+$G28-1),1,""))</f>
         <v/>
       </c>
       <c r="AG28" s="26" t="str">
-        <f t="shared" ca="1" si="11"/>
+        <f ca="1">IF(AND($C28="Objetivo",AG$7&gt;=$F28,AG$7&lt;=$F28+$G28-1),2,IF(AND($C28="Marco",AG$7&gt;=$F28,AG$7&lt;=$F28+$G28-1),1,""))</f>
         <v/>
       </c>
       <c r="AH28" s="26" t="str">
-        <f t="shared" ca="1" si="11"/>
+        <f ca="1">IF(AND($C28="Objetivo",AH$7&gt;=$F28,AH$7&lt;=$F28+$G28-1),2,IF(AND($C28="Marco",AH$7&gt;=$F28,AH$7&lt;=$F28+$G28-1),1,""))</f>
         <v/>
       </c>
       <c r="AI28" s="26" t="str">
-        <f t="shared" ca="1" si="11"/>
+        <f ca="1">IF(AND($C28="Objetivo",AI$7&gt;=$F28,AI$7&lt;=$F28+$G28-1),2,IF(AND($C28="Marco",AI$7&gt;=$F28,AI$7&lt;=$F28+$G28-1),1,""))</f>
         <v/>
       </c>
       <c r="AJ28" s="26" t="str">
-        <f t="shared" ca="1" si="11"/>
+        <f ca="1">IF(AND($C28="Objetivo",AJ$7&gt;=$F28,AJ$7&lt;=$F28+$G28-1),2,IF(AND($C28="Marco",AJ$7&gt;=$F28,AJ$7&lt;=$F28+$G28-1),1,""))</f>
         <v/>
       </c>
       <c r="AK28" s="26" t="str">
-        <f t="shared" ca="1" si="11"/>
+        <f ca="1">IF(AND($C28="Objetivo",AK$7&gt;=$F28,AK$7&lt;=$F28+$G28-1),2,IF(AND($C28="Marco",AK$7&gt;=$F28,AK$7&lt;=$F28+$G28-1),1,""))</f>
         <v/>
       </c>
       <c r="AL28" s="26" t="str">
-        <f t="shared" ca="1" si="11"/>
+        <f ca="1">IF(AND($C28="Objetivo",AL$7&gt;=$F28,AL$7&lt;=$F28+$G28-1),2,IF(AND($C28="Marco",AL$7&gt;=$F28,AL$7&lt;=$F28+$G28-1),1,""))</f>
         <v/>
       </c>
       <c r="AM28" s="26" t="str">
-        <f t="shared" ca="1" si="11"/>
+        <f ca="1">IF(AND($C28="Objetivo",AM$7&gt;=$F28,AM$7&lt;=$F28+$G28-1),2,IF(AND($C28="Marco",AM$7&gt;=$F28,AM$7&lt;=$F28+$G28-1),1,""))</f>
         <v/>
       </c>
       <c r="AN28" s="26" t="str">
-        <f t="shared" ca="1" si="9"/>
+        <f ca="1">IF(AND($C28="Objetivo",AN$7&gt;=$F28,AN$7&lt;=$F28+$G28-1),2,IF(AND($C28="Marco",AN$7&gt;=$F28,AN$7&lt;=$F28+$G28-1),1,""))</f>
         <v/>
       </c>
       <c r="AO28" s="26" t="str">
-        <f t="shared" ca="1" si="9"/>
+        <f ca="1">IF(AND($C28="Objetivo",AO$7&gt;=$F28,AO$7&lt;=$F28+$G28-1),2,IF(AND($C28="Marco",AO$7&gt;=$F28,AO$7&lt;=$F28+$G28-1),1,""))</f>
         <v/>
       </c>
       <c r="AP28" s="26" t="str">
-        <f t="shared" ca="1" si="9"/>
+        <f ca="1">IF(AND($C28="Objetivo",AP$7&gt;=$F28,AP$7&lt;=$F28+$G28-1),2,IF(AND($C28="Marco",AP$7&gt;=$F28,AP$7&lt;=$F28+$G28-1),1,""))</f>
         <v/>
       </c>
       <c r="AQ28" s="26" t="str">
-        <f t="shared" ca="1" si="9"/>
+        <f ca="1">IF(AND($C28="Objetivo",AQ$7&gt;=$F28,AQ$7&lt;=$F28+$G28-1),2,IF(AND($C28="Marco",AQ$7&gt;=$F28,AQ$7&lt;=$F28+$G28-1),1,""))</f>
         <v/>
       </c>
       <c r="AR28" s="26" t="str">
-        <f t="shared" ca="1" si="9"/>
+        <f ca="1">IF(AND($C28="Objetivo",AR$7&gt;=$F28,AR$7&lt;=$F28+$G28-1),2,IF(AND($C28="Marco",AR$7&gt;=$F28,AR$7&lt;=$F28+$G28-1),1,""))</f>
         <v/>
       </c>
       <c r="AS28" s="26" t="str">
-        <f t="shared" ca="1" si="9"/>
+        <f ca="1">IF(AND($C28="Objetivo",AS$7&gt;=$F28,AS$7&lt;=$F28+$G28-1),2,IF(AND($C28="Marco",AS$7&gt;=$F28,AS$7&lt;=$F28+$G28-1),1,""))</f>
         <v/>
       </c>
       <c r="AT28" s="26" t="str">
-        <f t="shared" ca="1" si="9"/>
+        <f ca="1">IF(AND($C28="Objetivo",AT$7&gt;=$F28,AT$7&lt;=$F28+$G28-1),2,IF(AND($C28="Marco",AT$7&gt;=$F28,AT$7&lt;=$F28+$G28-1),1,""))</f>
         <v/>
       </c>
       <c r="AU28" s="26" t="str">
-        <f t="shared" ca="1" si="9"/>
+        <f ca="1">IF(AND($C28="Objetivo",AU$7&gt;=$F28,AU$7&lt;=$F28+$G28-1),2,IF(AND($C28="Marco",AU$7&gt;=$F28,AU$7&lt;=$F28+$G28-1),1,""))</f>
         <v/>
       </c>
       <c r="AV28" s="26" t="str">
-        <f t="shared" ca="1" si="9"/>
+        <f ca="1">IF(AND($C28="Objetivo",AV$7&gt;=$F28,AV$7&lt;=$F28+$G28-1),2,IF(AND($C28="Marco",AV$7&gt;=$F28,AV$7&lt;=$F28+$G28-1),1,""))</f>
         <v/>
       </c>
       <c r="AW28" s="26" t="str">
-        <f t="shared" ca="1" si="9"/>
+        <f ca="1">IF(AND($C28="Objetivo",AW$7&gt;=$F28,AW$7&lt;=$F28+$G28-1),2,IF(AND($C28="Marco",AW$7&gt;=$F28,AW$7&lt;=$F28+$G28-1),1,""))</f>
         <v/>
       </c>
       <c r="AX28" s="26" t="str">
-        <f t="shared" ca="1" si="9"/>
+        <f ca="1">IF(AND($C28="Objetivo",AX$7&gt;=$F28,AX$7&lt;=$F28+$G28-1),2,IF(AND($C28="Marco",AX$7&gt;=$F28,AX$7&lt;=$F28+$G28-1),1,""))</f>
         <v/>
       </c>
       <c r="AY28" s="26" t="str">
-        <f t="shared" ca="1" si="9"/>
+        <f ca="1">IF(AND($C28="Objetivo",AY$7&gt;=$F28,AY$7&lt;=$F28+$G28-1),2,IF(AND($C28="Marco",AY$7&gt;=$F28,AY$7&lt;=$F28+$G28-1),1,""))</f>
         <v/>
       </c>
       <c r="AZ28" s="26" t="str">
-        <f t="shared" ca="1" si="9"/>
+        <f ca="1">IF(AND($C28="Objetivo",AZ$7&gt;=$F28,AZ$7&lt;=$F28+$G28-1),2,IF(AND($C28="Marco",AZ$7&gt;=$F28,AZ$7&lt;=$F28+$G28-1),1,""))</f>
         <v/>
       </c>
       <c r="BA28" s="26" t="str">
-        <f t="shared" ca="1" si="9"/>
+        <f ca="1">IF(AND($C28="Objetivo",BA$7&gt;=$F28,BA$7&lt;=$F28+$G28-1),2,IF(AND($C28="Marco",BA$7&gt;=$F28,BA$7&lt;=$F28+$G28-1),1,""))</f>
         <v/>
       </c>
       <c r="BB28" s="26" t="str">
-        <f t="shared" ca="1" si="9"/>
+        <f ca="1">IF(AND($C28="Objetivo",BB$7&gt;=$F28,BB$7&lt;=$F28+$G28-1),2,IF(AND($C28="Marco",BB$7&gt;=$F28,BB$7&lt;=$F28+$G28-1),1,""))</f>
         <v/>
       </c>
       <c r="BC28" s="26" t="str">
-        <f t="shared" ca="1" si="9"/>
+        <f ca="1">IF(AND($C28="Objetivo",BC$7&gt;=$F28,BC$7&lt;=$F28+$G28-1),2,IF(AND($C28="Marco",BC$7&gt;=$F28,BC$7&lt;=$F28+$G28-1),1,""))</f>
         <v/>
       </c>
       <c r="BD28" s="26" t="str">
-        <f t="shared" ca="1" si="10"/>
+        <f ca="1">IF(AND($C28="Objetivo",BD$7&gt;=$F28,BD$7&lt;=$F28+$G28-1),2,IF(AND($C28="Marco",BD$7&gt;=$F28,BD$7&lt;=$F28+$G28-1),1,""))</f>
         <v/>
       </c>
       <c r="BE28" s="26" t="str">
-        <f t="shared" ca="1" si="10"/>
+        <f ca="1">IF(AND($C28="Objetivo",BE$7&gt;=$F28,BE$7&lt;=$F28+$G28-1),2,IF(AND($C28="Marco",BE$7&gt;=$F28,BE$7&lt;=$F28+$G28-1),1,""))</f>
         <v/>
       </c>
       <c r="BF28" s="26" t="str">
-        <f t="shared" ca="1" si="10"/>
+        <f ca="1">IF(AND($C28="Objetivo",BF$7&gt;=$F28,BF$7&lt;=$F28+$G28-1),2,IF(AND($C28="Marco",BF$7&gt;=$F28,BF$7&lt;=$F28+$G28-1),1,""))</f>
         <v/>
       </c>
       <c r="BG28" s="26" t="str">
-        <f t="shared" ca="1" si="10"/>
+        <f ca="1">IF(AND($C28="Objetivo",BG$7&gt;=$F28,BG$7&lt;=$F28+$G28-1),2,IF(AND($C28="Marco",BG$7&gt;=$F28,BG$7&lt;=$F28+$G28-1),1,""))</f>
         <v/>
       </c>
       <c r="BH28" s="26" t="str">
-        <f t="shared" ca="1" si="10"/>
+        <f ca="1">IF(AND($C28="Objetivo",BH$7&gt;=$F28,BH$7&lt;=$F28+$G28-1),2,IF(AND($C28="Marco",BH$7&gt;=$F28,BH$7&lt;=$F28+$G28-1),1,""))</f>
         <v/>
       </c>
       <c r="BI28" s="26" t="str">
-        <f t="shared" ca="1" si="10"/>
+        <f ca="1">IF(AND($C28="Objetivo",BI$7&gt;=$F28,BI$7&lt;=$F28+$G28-1),2,IF(AND($C28="Marco",BI$7&gt;=$F28,BI$7&lt;=$F28+$G28-1),1,""))</f>
         <v/>
       </c>
       <c r="BJ28" s="26" t="str">
-        <f t="shared" ca="1" si="10"/>
+        <f ca="1">IF(AND($C28="Objetivo",BJ$7&gt;=$F28,BJ$7&lt;=$F28+$G28-1),2,IF(AND($C28="Marco",BJ$7&gt;=$F28,BJ$7&lt;=$F28+$G28-1),1,""))</f>
         <v/>
       </c>
       <c r="BK28" s="26" t="str">
-        <f t="shared" ca="1" si="10"/>
+        <f ca="1">IF(AND($C28="Objetivo",BK$7&gt;=$F28,BK$7&lt;=$F28+$G28-1),2,IF(AND($C28="Marco",BK$7&gt;=$F28,BK$7&lt;=$F28+$G28-1),1,""))</f>
         <v/>
       </c>
       <c r="BL28" s="26" t="str">
-        <f t="shared" ca="1" si="10"/>
+        <f ca="1">IF(AND($C28="Objetivo",BL$7&gt;=$F28,BL$7&lt;=$F28+$G28-1),2,IF(AND($C28="Marco",BL$7&gt;=$F28,BL$7&lt;=$F28+$G28-1),1,""))</f>
         <v/>
       </c>
     </row>
     <row r="29" spans="1:64" s="1" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="9"/>
-      <c r="B29" s="114" t="s">
-        <v>51</v>
-      </c>
-      <c r="C29" s="58"/>
+      <c r="B29" s="62" t="s">
+        <v>60</v>
+      </c>
+      <c r="C29" s="58" t="s">
+        <v>23</v>
+      </c>
       <c r="D29" s="58"/>
       <c r="E29" s="59"/>
-      <c r="F29" s="60"/>
-      <c r="G29" s="61"/>
+      <c r="F29" s="60">
+        <v>45031</v>
+      </c>
+      <c r="G29" s="61">
+        <v>15</v>
+      </c>
       <c r="H29" s="58"/>
       <c r="I29" s="26" t="str">
-        <f t="shared" ref="I29:X35" ca="1" si="12">IF(AND($C29="Objetivo",I$7&gt;=$F29,I$7&lt;=$F29+$G29-1),2,IF(AND($C29="Marco",I$7&gt;=$F29,I$7&lt;=$F29+$G29-1),1,""))</f>
+        <f ca="1">IF(AND($C29="Objetivo",I$7&gt;=$F29,I$7&lt;=$F29+$G29-1),2,IF(AND($C29="Marco",I$7&gt;=$F29,I$7&lt;=$F29+$G29-1),1,""))</f>
         <v/>
       </c>
       <c r="J29" s="26" t="str">
-        <f t="shared" ca="1" si="12"/>
+        <f ca="1">IF(AND($C29="Objetivo",J$7&gt;=$F29,J$7&lt;=$F29+$G29-1),2,IF(AND($C29="Marco",J$7&gt;=$F29,J$7&lt;=$F29+$G29-1),1,""))</f>
         <v/>
       </c>
       <c r="K29" s="26" t="str">
-        <f t="shared" ca="1" si="12"/>
+        <f ca="1">IF(AND($C29="Objetivo",K$7&gt;=$F29,K$7&lt;=$F29+$G29-1),2,IF(AND($C29="Marco",K$7&gt;=$F29,K$7&lt;=$F29+$G29-1),1,""))</f>
         <v/>
       </c>
       <c r="L29" s="26" t="str">
-        <f t="shared" ca="1" si="12"/>
+        <f ca="1">IF(AND($C29="Objetivo",L$7&gt;=$F29,L$7&lt;=$F29+$G29-1),2,IF(AND($C29="Marco",L$7&gt;=$F29,L$7&lt;=$F29+$G29-1),1,""))</f>
         <v/>
       </c>
       <c r="M29" s="26" t="str">
-        <f t="shared" ca="1" si="12"/>
+        <f ca="1">IF(AND($C29="Objetivo",M$7&gt;=$F29,M$7&lt;=$F29+$G29-1),2,IF(AND($C29="Marco",M$7&gt;=$F29,M$7&lt;=$F29+$G29-1),1,""))</f>
         <v/>
       </c>
       <c r="N29" s="26" t="str">
-        <f t="shared" ca="1" si="12"/>
+        <f ca="1">IF(AND($C29="Objetivo",N$7&gt;=$F29,N$7&lt;=$F29+$G29-1),2,IF(AND($C29="Marco",N$7&gt;=$F29,N$7&lt;=$F29+$G29-1),1,""))</f>
         <v/>
       </c>
       <c r="O29" s="26" t="str">
-        <f t="shared" ca="1" si="12"/>
+        <f ca="1">IF(AND($C29="Objetivo",O$7&gt;=$F29,O$7&lt;=$F29+$G29-1),2,IF(AND($C29="Marco",O$7&gt;=$F29,O$7&lt;=$F29+$G29-1),1,""))</f>
         <v/>
       </c>
       <c r="P29" s="26" t="str">
-        <f t="shared" ca="1" si="12"/>
+        <f ca="1">IF(AND($C29="Objetivo",P$7&gt;=$F29,P$7&lt;=$F29+$G29-1),2,IF(AND($C29="Marco",P$7&gt;=$F29,P$7&lt;=$F29+$G29-1),1,""))</f>
         <v/>
       </c>
       <c r="Q29" s="26" t="str">
-        <f t="shared" ca="1" si="12"/>
+        <f ca="1">IF(AND($C29="Objetivo",Q$7&gt;=$F29,Q$7&lt;=$F29+$G29-1),2,IF(AND($C29="Marco",Q$7&gt;=$F29,Q$7&lt;=$F29+$G29-1),1,""))</f>
         <v/>
       </c>
       <c r="R29" s="26" t="str">
-        <f t="shared" ca="1" si="12"/>
+        <f ca="1">IF(AND($C29="Objetivo",R$7&gt;=$F29,R$7&lt;=$F29+$G29-1),2,IF(AND($C29="Marco",R$7&gt;=$F29,R$7&lt;=$F29+$G29-1),1,""))</f>
         <v/>
       </c>
       <c r="S29" s="26" t="str">
-        <f t="shared" ca="1" si="12"/>
+        <f ca="1">IF(AND($C29="Objetivo",S$7&gt;=$F29,S$7&lt;=$F29+$G29-1),2,IF(AND($C29="Marco",S$7&gt;=$F29,S$7&lt;=$F29+$G29-1),1,""))</f>
         <v/>
       </c>
       <c r="T29" s="26" t="str">
-        <f t="shared" ca="1" si="12"/>
+        <f ca="1">IF(AND($C29="Objetivo",T$7&gt;=$F29,T$7&lt;=$F29+$G29-1),2,IF(AND($C29="Marco",T$7&gt;=$F29,T$7&lt;=$F29+$G29-1),1,""))</f>
         <v/>
       </c>
       <c r="U29" s="26" t="str">
-        <f t="shared" ca="1" si="12"/>
+        <f ca="1">IF(AND($C29="Objetivo",U$7&gt;=$F29,U$7&lt;=$F29+$G29-1),2,IF(AND($C29="Marco",U$7&gt;=$F29,U$7&lt;=$F29+$G29-1),1,""))</f>
         <v/>
       </c>
       <c r="V29" s="26" t="str">
-        <f t="shared" ca="1" si="12"/>
+        <f ca="1">IF(AND($C29="Objetivo",V$7&gt;=$F29,V$7&lt;=$F29+$G29-1),2,IF(AND($C29="Marco",V$7&gt;=$F29,V$7&lt;=$F29+$G29-1),1,""))</f>
         <v/>
       </c>
       <c r="W29" s="26" t="str">
-        <f t="shared" ca="1" si="12"/>
+        <f ca="1">IF(AND($C29="Objetivo",W$7&gt;=$F29,W$7&lt;=$F29+$G29-1),2,IF(AND($C29="Marco",W$7&gt;=$F29,W$7&lt;=$F29+$G29-1),1,""))</f>
         <v/>
       </c>
       <c r="X29" s="26" t="str">
-        <f t="shared" ca="1" si="12"/>
+        <f ca="1">IF(AND($C29="Objetivo",X$7&gt;=$F29,X$7&lt;=$F29+$G29-1),2,IF(AND($C29="Marco",X$7&gt;=$F29,X$7&lt;=$F29+$G29-1),1,""))</f>
         <v/>
       </c>
       <c r="Y29" s="26" t="str">
-        <f t="shared" ca="1" si="11"/>
+        <f ca="1">IF(AND($C29="Objetivo",Y$7&gt;=$F29,Y$7&lt;=$F29+$G29-1),2,IF(AND($C29="Marco",Y$7&gt;=$F29,Y$7&lt;=$F29+$G29-1),1,""))</f>
         <v/>
       </c>
       <c r="Z29" s="26" t="str">
-        <f t="shared" ca="1" si="11"/>
+        <f ca="1">IF(AND($C29="Objetivo",Z$7&gt;=$F29,Z$7&lt;=$F29+$G29-1),2,IF(AND($C29="Marco",Z$7&gt;=$F29,Z$7&lt;=$F29+$G29-1),1,""))</f>
         <v/>
       </c>
       <c r="AA29" s="26" t="str">
-        <f t="shared" ca="1" si="11"/>
+        <f ca="1">IF(AND($C29="Objetivo",AA$7&gt;=$F29,AA$7&lt;=$F29+$G29-1),2,IF(AND($C29="Marco",AA$7&gt;=$F29,AA$7&lt;=$F29+$G29-1),1,""))</f>
         <v/>
       </c>
       <c r="AB29" s="26" t="str">
-        <f t="shared" ca="1" si="11"/>
+        <f ca="1">IF(AND($C29="Objetivo",AB$7&gt;=$F29,AB$7&lt;=$F29+$G29-1),2,IF(AND($C29="Marco",AB$7&gt;=$F29,AB$7&lt;=$F29+$G29-1),1,""))</f>
         <v/>
       </c>
       <c r="AC29" s="26" t="str">
-        <f t="shared" ca="1" si="11"/>
+        <f ca="1">IF(AND($C29="Objetivo",AC$7&gt;=$F29,AC$7&lt;=$F29+$G29-1),2,IF(AND($C29="Marco",AC$7&gt;=$F29,AC$7&lt;=$F29+$G29-1),1,""))</f>
         <v/>
       </c>
       <c r="AD29" s="26" t="str">
-        <f t="shared" ca="1" si="11"/>
+        <f ca="1">IF(AND($C29="Objetivo",AD$7&gt;=$F29,AD$7&lt;=$F29+$G29-1),2,IF(AND($C29="Marco",AD$7&gt;=$F29,AD$7&lt;=$F29+$G29-1),1,""))</f>
         <v/>
       </c>
       <c r="AE29" s="26" t="str">
-        <f t="shared" ca="1" si="11"/>
+        <f ca="1">IF(AND($C29="Objetivo",AE$7&gt;=$F29,AE$7&lt;=$F29+$G29-1),2,IF(AND($C29="Marco",AE$7&gt;=$F29,AE$7&lt;=$F29+$G29-1),1,""))</f>
         <v/>
       </c>
       <c r="AF29" s="26" t="str">
-        <f t="shared" ca="1" si="11"/>
+        <f ca="1">IF(AND($C29="Objetivo",AF$7&gt;=$F29,AF$7&lt;=$F29+$G29-1),2,IF(AND($C29="Marco",AF$7&gt;=$F29,AF$7&lt;=$F29+$G29-1),1,""))</f>
         <v/>
       </c>
       <c r="AG29" s="26" t="str">
-        <f t="shared" ca="1" si="11"/>
+        <f ca="1">IF(AND($C29="Objetivo",AG$7&gt;=$F29,AG$7&lt;=$F29+$G29-1),2,IF(AND($C29="Marco",AG$7&gt;=$F29,AG$7&lt;=$F29+$G29-1),1,""))</f>
         <v/>
       </c>
       <c r="AH29" s="26" t="str">
-        <f t="shared" ca="1" si="11"/>
+        <f ca="1">IF(AND($C29="Objetivo",AH$7&gt;=$F29,AH$7&lt;=$F29+$G29-1),2,IF(AND($C29="Marco",AH$7&gt;=$F29,AH$7&lt;=$F29+$G29-1),1,""))</f>
         <v/>
       </c>
       <c r="AI29" s="26" t="str">
-        <f t="shared" ca="1" si="11"/>
+        <f ca="1">IF(AND($C29="Objetivo",AI$7&gt;=$F29,AI$7&lt;=$F29+$G29-1),2,IF(AND($C29="Marco",AI$7&gt;=$F29,AI$7&lt;=$F29+$G29-1),1,""))</f>
         <v/>
       </c>
       <c r="AJ29" s="26" t="str">
-        <f t="shared" ca="1" si="11"/>
+        <f ca="1">IF(AND($C29="Objetivo",AJ$7&gt;=$F29,AJ$7&lt;=$F29+$G29-1),2,IF(AND($C29="Marco",AJ$7&gt;=$F29,AJ$7&lt;=$F29+$G29-1),1,""))</f>
         <v/>
       </c>
       <c r="AK29" s="26" t="str">
-        <f t="shared" ca="1" si="11"/>
+        <f ca="1">IF(AND($C29="Objetivo",AK$7&gt;=$F29,AK$7&lt;=$F29+$G29-1),2,IF(AND($C29="Marco",AK$7&gt;=$F29,AK$7&lt;=$F29+$G29-1),1,""))</f>
         <v/>
       </c>
       <c r="AL29" s="26" t="str">
-        <f t="shared" ca="1" si="11"/>
+        <f ca="1">IF(AND($C29="Objetivo",AL$7&gt;=$F29,AL$7&lt;=$F29+$G29-1),2,IF(AND($C29="Marco",AL$7&gt;=$F29,AL$7&lt;=$F29+$G29-1),1,""))</f>
         <v/>
       </c>
       <c r="AM29" s="26" t="str">
-        <f t="shared" ca="1" si="11"/>
+        <f ca="1">IF(AND($C29="Objetivo",AM$7&gt;=$F29,AM$7&lt;=$F29+$G29-1),2,IF(AND($C29="Marco",AM$7&gt;=$F29,AM$7&lt;=$F29+$G29-1),1,""))</f>
         <v/>
       </c>
       <c r="AN29" s="26" t="str">
-        <f t="shared" ca="1" si="9"/>
+        <f ca="1">IF(AND($C29="Objetivo",AN$7&gt;=$F29,AN$7&lt;=$F29+$G29-1),2,IF(AND($C29="Marco",AN$7&gt;=$F29,AN$7&lt;=$F29+$G29-1),1,""))</f>
         <v/>
       </c>
       <c r="AO29" s="26" t="str">
-        <f t="shared" ca="1" si="9"/>
+        <f ca="1">IF(AND($C29="Objetivo",AO$7&gt;=$F29,AO$7&lt;=$F29+$G29-1),2,IF(AND($C29="Marco",AO$7&gt;=$F29,AO$7&lt;=$F29+$G29-1),1,""))</f>
         <v/>
       </c>
       <c r="AP29" s="26" t="str">
-        <f t="shared" ca="1" si="9"/>
+        <f ca="1">IF(AND($C29="Objetivo",AP$7&gt;=$F29,AP$7&lt;=$F29+$G29-1),2,IF(AND($C29="Marco",AP$7&gt;=$F29,AP$7&lt;=$F29+$G29-1),1,""))</f>
         <v/>
       </c>
       <c r="AQ29" s="26" t="str">
-        <f t="shared" ca="1" si="9"/>
+        <f ca="1">IF(AND($C29="Objetivo",AQ$7&gt;=$F29,AQ$7&lt;=$F29+$G29-1),2,IF(AND($C29="Marco",AQ$7&gt;=$F29,AQ$7&lt;=$F29+$G29-1),1,""))</f>
         <v/>
       </c>
       <c r="AR29" s="26" t="str">
-        <f t="shared" ca="1" si="9"/>
+        <f ca="1">IF(AND($C29="Objetivo",AR$7&gt;=$F29,AR$7&lt;=$F29+$G29-1),2,IF(AND($C29="Marco",AR$7&gt;=$F29,AR$7&lt;=$F29+$G29-1),1,""))</f>
         <v/>
       </c>
       <c r="AS29" s="26" t="str">
-        <f t="shared" ca="1" si="9"/>
+        <f ca="1">IF(AND($C29="Objetivo",AS$7&gt;=$F29,AS$7&lt;=$F29+$G29-1),2,IF(AND($C29="Marco",AS$7&gt;=$F29,AS$7&lt;=$F29+$G29-1),1,""))</f>
         <v/>
       </c>
       <c r="AT29" s="26" t="str">
-        <f t="shared" ca="1" si="9"/>
+        <f ca="1">IF(AND($C29="Objetivo",AT$7&gt;=$F29,AT$7&lt;=$F29+$G29-1),2,IF(AND($C29="Marco",AT$7&gt;=$F29,AT$7&lt;=$F29+$G29-1),1,""))</f>
         <v/>
       </c>
       <c r="AU29" s="26" t="str">
-        <f t="shared" ca="1" si="9"/>
+        <f ca="1">IF(AND($C29="Objetivo",AU$7&gt;=$F29,AU$7&lt;=$F29+$G29-1),2,IF(AND($C29="Marco",AU$7&gt;=$F29,AU$7&lt;=$F29+$G29-1),1,""))</f>
         <v/>
       </c>
       <c r="AV29" s="26" t="str">
-        <f t="shared" ca="1" si="9"/>
+        <f ca="1">IF(AND($C29="Objetivo",AV$7&gt;=$F29,AV$7&lt;=$F29+$G29-1),2,IF(AND($C29="Marco",AV$7&gt;=$F29,AV$7&lt;=$F29+$G29-1),1,""))</f>
         <v/>
       </c>
       <c r="AW29" s="26" t="str">
-        <f t="shared" ca="1" si="9"/>
+        <f ca="1">IF(AND($C29="Objetivo",AW$7&gt;=$F29,AW$7&lt;=$F29+$G29-1),2,IF(AND($C29="Marco",AW$7&gt;=$F29,AW$7&lt;=$F29+$G29-1),1,""))</f>
         <v/>
       </c>
       <c r="AX29" s="26" t="str">
-        <f t="shared" ca="1" si="9"/>
+        <f ca="1">IF(AND($C29="Objetivo",AX$7&gt;=$F29,AX$7&lt;=$F29+$G29-1),2,IF(AND($C29="Marco",AX$7&gt;=$F29,AX$7&lt;=$F29+$G29-1),1,""))</f>
         <v/>
       </c>
       <c r="AY29" s="26" t="str">
-        <f t="shared" ca="1" si="9"/>
+        <f ca="1">IF(AND($C29="Objetivo",AY$7&gt;=$F29,AY$7&lt;=$F29+$G29-1),2,IF(AND($C29="Marco",AY$7&gt;=$F29,AY$7&lt;=$F29+$G29-1),1,""))</f>
         <v/>
       </c>
       <c r="AZ29" s="26" t="str">
-        <f t="shared" ca="1" si="9"/>
+        <f ca="1">IF(AND($C29="Objetivo",AZ$7&gt;=$F29,AZ$7&lt;=$F29+$G29-1),2,IF(AND($C29="Marco",AZ$7&gt;=$F29,AZ$7&lt;=$F29+$G29-1),1,""))</f>
         <v/>
       </c>
       <c r="BA29" s="26" t="str">
-        <f t="shared" ca="1" si="9"/>
+        <f ca="1">IF(AND($C29="Objetivo",BA$7&gt;=$F29,BA$7&lt;=$F29+$G29-1),2,IF(AND($C29="Marco",BA$7&gt;=$F29,BA$7&lt;=$F29+$G29-1),1,""))</f>
         <v/>
       </c>
       <c r="BB29" s="26" t="str">
-        <f t="shared" ca="1" si="9"/>
+        <f ca="1">IF(AND($C29="Objetivo",BB$7&gt;=$F29,BB$7&lt;=$F29+$G29-1),2,IF(AND($C29="Marco",BB$7&gt;=$F29,BB$7&lt;=$F29+$G29-1),1,""))</f>
         <v/>
       </c>
       <c r="BC29" s="26" t="str">
-        <f t="shared" ca="1" si="9"/>
+        <f ca="1">IF(AND($C29="Objetivo",BC$7&gt;=$F29,BC$7&lt;=$F29+$G29-1),2,IF(AND($C29="Marco",BC$7&gt;=$F29,BC$7&lt;=$F29+$G29-1),1,""))</f>
         <v/>
       </c>
       <c r="BD29" s="26" t="str">
-        <f t="shared" ca="1" si="10"/>
+        <f ca="1">IF(AND($C29="Objetivo",BD$7&gt;=$F29,BD$7&lt;=$F29+$G29-1),2,IF(AND($C29="Marco",BD$7&gt;=$F29,BD$7&lt;=$F29+$G29-1),1,""))</f>
         <v/>
       </c>
       <c r="BE29" s="26" t="str">
-        <f t="shared" ca="1" si="10"/>
+        <f ca="1">IF(AND($C29="Objetivo",BE$7&gt;=$F29,BE$7&lt;=$F29+$G29-1),2,IF(AND($C29="Marco",BE$7&gt;=$F29,BE$7&lt;=$F29+$G29-1),1,""))</f>
         <v/>
       </c>
       <c r="BF29" s="26" t="str">
-        <f t="shared" ca="1" si="10"/>
+        <f ca="1">IF(AND($C29="Objetivo",BF$7&gt;=$F29,BF$7&lt;=$F29+$G29-1),2,IF(AND($C29="Marco",BF$7&gt;=$F29,BF$7&lt;=$F29+$G29-1),1,""))</f>
         <v/>
       </c>
       <c r="BG29" s="26" t="str">
-        <f t="shared" ca="1" si="10"/>
+        <f ca="1">IF(AND($C29="Objetivo",BG$7&gt;=$F29,BG$7&lt;=$F29+$G29-1),2,IF(AND($C29="Marco",BG$7&gt;=$F29,BG$7&lt;=$F29+$G29-1),1,""))</f>
         <v/>
       </c>
       <c r="BH29" s="26" t="str">
-        <f t="shared" ca="1" si="10"/>
+        <f ca="1">IF(AND($C29="Objetivo",BH$7&gt;=$F29,BH$7&lt;=$F29+$G29-1),2,IF(AND($C29="Marco",BH$7&gt;=$F29,BH$7&lt;=$F29+$G29-1),1,""))</f>
         <v/>
       </c>
       <c r="BI29" s="26" t="str">
-        <f t="shared" ca="1" si="10"/>
+        <f ca="1">IF(AND($C29="Objetivo",BI$7&gt;=$F29,BI$7&lt;=$F29+$G29-1),2,IF(AND($C29="Marco",BI$7&gt;=$F29,BI$7&lt;=$F29+$G29-1),1,""))</f>
         <v/>
       </c>
       <c r="BJ29" s="26" t="str">
-        <f t="shared" ca="1" si="10"/>
+        <f ca="1">IF(AND($C29="Objetivo",BJ$7&gt;=$F29,BJ$7&lt;=$F29+$G29-1),2,IF(AND($C29="Marco",BJ$7&gt;=$F29,BJ$7&lt;=$F29+$G29-1),1,""))</f>
         <v/>
       </c>
       <c r="BK29" s="26" t="str">
-        <f t="shared" ca="1" si="10"/>
+        <f ca="1">IF(AND($C29="Objetivo",BK$7&gt;=$F29,BK$7&lt;=$F29+$G29-1),2,IF(AND($C29="Marco",BK$7&gt;=$F29,BK$7&lt;=$F29+$G29-1),1,""))</f>
         <v/>
       </c>
       <c r="BL29" s="26" t="str">
-        <f t="shared" ca="1" si="10"/>
+        <f ca="1">IF(AND($C29="Objetivo",BL$7&gt;=$F29,BL$7&lt;=$F29+$G29-1),2,IF(AND($C29="Marco",BL$7&gt;=$F29,BL$7&lt;=$F29+$G29-1),1,""))</f>
         <v/>
       </c>
     </row>
     <row r="30" spans="1:64" s="1" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="9"/>
-      <c r="B30" s="62" t="s">
-        <v>52</v>
-      </c>
-      <c r="C30" s="58"/>
+      <c r="B30" t="s">
+        <v>57</v>
+      </c>
+      <c r="C30" s="58" t="s">
+        <v>23</v>
+      </c>
       <c r="D30" s="58"/>
       <c r="E30" s="59"/>
       <c r="F30" s="60">
-        <f ca="1">F27+3</f>
-        <v>45049</v>
+        <v>45031</v>
       </c>
       <c r="G30" s="61">
         <v>15</v>
       </c>
       <c r="H30" s="58"/>
       <c r="I30" s="26" t="str">
-        <f t="shared" ca="1" si="12"/>
+        <f ca="1">IF(AND($C30="Objetivo",I$7&gt;=$F30,I$7&lt;=$F30+$G30-1),2,IF(AND($C30="Marco",I$7&gt;=$F30,I$7&lt;=$F30+$G30-1),1,""))</f>
         <v/>
       </c>
       <c r="J30" s="26" t="str">
-        <f t="shared" ca="1" si="12"/>
+        <f ca="1">IF(AND($C30="Objetivo",J$7&gt;=$F30,J$7&lt;=$F30+$G30-1),2,IF(AND($C30="Marco",J$7&gt;=$F30,J$7&lt;=$F30+$G30-1),1,""))</f>
         <v/>
       </c>
       <c r="K30" s="26" t="str">
-        <f t="shared" ca="1" si="12"/>
+        <f ca="1">IF(AND($C30="Objetivo",K$7&gt;=$F30,K$7&lt;=$F30+$G30-1),2,IF(AND($C30="Marco",K$7&gt;=$F30,K$7&lt;=$F30+$G30-1),1,""))</f>
         <v/>
       </c>
       <c r="L30" s="26" t="str">
-        <f t="shared" ca="1" si="12"/>
+        <f ca="1">IF(AND($C30="Objetivo",L$7&gt;=$F30,L$7&lt;=$F30+$G30-1),2,IF(AND($C30="Marco",L$7&gt;=$F30,L$7&lt;=$F30+$G30-1),1,""))</f>
         <v/>
       </c>
       <c r="M30" s="26" t="str">
-        <f t="shared" ca="1" si="12"/>
+        <f ca="1">IF(AND($C30="Objetivo",M$7&gt;=$F30,M$7&lt;=$F30+$G30-1),2,IF(AND($C30="Marco",M$7&gt;=$F30,M$7&lt;=$F30+$G30-1),1,""))</f>
         <v/>
       </c>
       <c r="N30" s="26" t="str">
-        <f t="shared" ca="1" si="12"/>
+        <f ca="1">IF(AND($C30="Objetivo",N$7&gt;=$F30,N$7&lt;=$F30+$G30-1),2,IF(AND($C30="Marco",N$7&gt;=$F30,N$7&lt;=$F30+$G30-1),1,""))</f>
         <v/>
       </c>
       <c r="O30" s="26" t="str">
-        <f t="shared" ca="1" si="12"/>
+        <f ca="1">IF(AND($C30="Objetivo",O$7&gt;=$F30,O$7&lt;=$F30+$G30-1),2,IF(AND($C30="Marco",O$7&gt;=$F30,O$7&lt;=$F30+$G30-1),1,""))</f>
         <v/>
       </c>
       <c r="P30" s="26" t="str">
-        <f t="shared" ca="1" si="12"/>
+        <f ca="1">IF(AND($C30="Objetivo",P$7&gt;=$F30,P$7&lt;=$F30+$G30-1),2,IF(AND($C30="Marco",P$7&gt;=$F30,P$7&lt;=$F30+$G30-1),1,""))</f>
         <v/>
       </c>
       <c r="Q30" s="26" t="str">
-        <f t="shared" ca="1" si="12"/>
+        <f ca="1">IF(AND($C30="Objetivo",Q$7&gt;=$F30,Q$7&lt;=$F30+$G30-1),2,IF(AND($C30="Marco",Q$7&gt;=$F30,Q$7&lt;=$F30+$G30-1),1,""))</f>
         <v/>
       </c>
       <c r="R30" s="26" t="str">
-        <f t="shared" ca="1" si="12"/>
+        <f ca="1">IF(AND($C30="Objetivo",R$7&gt;=$F30,R$7&lt;=$F30+$G30-1),2,IF(AND($C30="Marco",R$7&gt;=$F30,R$7&lt;=$F30+$G30-1),1,""))</f>
         <v/>
       </c>
       <c r="S30" s="26" t="str">
-        <f t="shared" ca="1" si="12"/>
+        <f ca="1">IF(AND($C30="Objetivo",S$7&gt;=$F30,S$7&lt;=$F30+$G30-1),2,IF(AND($C30="Marco",S$7&gt;=$F30,S$7&lt;=$F30+$G30-1),1,""))</f>
         <v/>
       </c>
       <c r="T30" s="26" t="str">
-        <f t="shared" ca="1" si="12"/>
+        <f ca="1">IF(AND($C30="Objetivo",T$7&gt;=$F30,T$7&lt;=$F30+$G30-1),2,IF(AND($C30="Marco",T$7&gt;=$F30,T$7&lt;=$F30+$G30-1),1,""))</f>
         <v/>
       </c>
       <c r="U30" s="26" t="str">
-        <f t="shared" ca="1" si="12"/>
+        <f ca="1">IF(AND($C30="Objetivo",U$7&gt;=$F30,U$7&lt;=$F30+$G30-1),2,IF(AND($C30="Marco",U$7&gt;=$F30,U$7&lt;=$F30+$G30-1),1,""))</f>
         <v/>
       </c>
       <c r="V30" s="26" t="str">
-        <f t="shared" ca="1" si="12"/>
+        <f ca="1">IF(AND($C30="Objetivo",V$7&gt;=$F30,V$7&lt;=$F30+$G30-1),2,IF(AND($C30="Marco",V$7&gt;=$F30,V$7&lt;=$F30+$G30-1),1,""))</f>
         <v/>
       </c>
       <c r="W30" s="26" t="str">
-        <f t="shared" ca="1" si="12"/>
+        <f ca="1">IF(AND($C30="Objetivo",W$7&gt;=$F30,W$7&lt;=$F30+$G30-1),2,IF(AND($C30="Marco",W$7&gt;=$F30,W$7&lt;=$F30+$G30-1),1,""))</f>
         <v/>
       </c>
       <c r="X30" s="26" t="str">
-        <f t="shared" ca="1" si="12"/>
+        <f ca="1">IF(AND($C30="Objetivo",X$7&gt;=$F30,X$7&lt;=$F30+$G30-1),2,IF(AND($C30="Marco",X$7&gt;=$F30,X$7&lt;=$F30+$G30-1),1,""))</f>
         <v/>
       </c>
       <c r="Y30" s="26" t="str">
-        <f t="shared" ca="1" si="11"/>
+        <f ca="1">IF(AND($C30="Objetivo",Y$7&gt;=$F30,Y$7&lt;=$F30+$G30-1),2,IF(AND($C30="Marco",Y$7&gt;=$F30,Y$7&lt;=$F30+$G30-1),1,""))</f>
         <v/>
       </c>
       <c r="Z30" s="26" t="str">
-        <f t="shared" ca="1" si="11"/>
+        <f ca="1">IF(AND($C30="Objetivo",Z$7&gt;=$F30,Z$7&lt;=$F30+$G30-1),2,IF(AND($C30="Marco",Z$7&gt;=$F30,Z$7&lt;=$F30+$G30-1),1,""))</f>
         <v/>
       </c>
       <c r="AA30" s="26" t="str">
-        <f t="shared" ca="1" si="11"/>
+        <f ca="1">IF(AND($C30="Objetivo",AA$7&gt;=$F30,AA$7&lt;=$F30+$G30-1),2,IF(AND($C30="Marco",AA$7&gt;=$F30,AA$7&lt;=$F30+$G30-1),1,""))</f>
         <v/>
       </c>
       <c r="AB30" s="26" t="str">
-        <f t="shared" ca="1" si="11"/>
+        <f ca="1">IF(AND($C30="Objetivo",AB$7&gt;=$F30,AB$7&lt;=$F30+$G30-1),2,IF(AND($C30="Marco",AB$7&gt;=$F30,AB$7&lt;=$F30+$G30-1),1,""))</f>
         <v/>
       </c>
       <c r="AC30" s="26" t="str">
-        <f t="shared" ca="1" si="11"/>
+        <f ca="1">IF(AND($C30="Objetivo",AC$7&gt;=$F30,AC$7&lt;=$F30+$G30-1),2,IF(AND($C30="Marco",AC$7&gt;=$F30,AC$7&lt;=$F30+$G30-1),1,""))</f>
         <v/>
       </c>
       <c r="AD30" s="26" t="str">
-        <f t="shared" ca="1" si="11"/>
+        <f ca="1">IF(AND($C30="Objetivo",AD$7&gt;=$F30,AD$7&lt;=$F30+$G30-1),2,IF(AND($C30="Marco",AD$7&gt;=$F30,AD$7&lt;=$F30+$G30-1),1,""))</f>
         <v/>
       </c>
       <c r="AE30" s="26" t="str">
-        <f t="shared" ca="1" si="11"/>
+        <f ca="1">IF(AND($C30="Objetivo",AE$7&gt;=$F30,AE$7&lt;=$F30+$G30-1),2,IF(AND($C30="Marco",AE$7&gt;=$F30,AE$7&lt;=$F30+$G30-1),1,""))</f>
         <v/>
       </c>
       <c r="AF30" s="26" t="str">
-        <f t="shared" ca="1" si="11"/>
+        <f ca="1">IF(AND($C30="Objetivo",AF$7&gt;=$F30,AF$7&lt;=$F30+$G30-1),2,IF(AND($C30="Marco",AF$7&gt;=$F30,AF$7&lt;=$F30+$G30-1),1,""))</f>
         <v/>
       </c>
       <c r="AG30" s="26" t="str">
-        <f t="shared" ca="1" si="11"/>
+        <f ca="1">IF(AND($C30="Objetivo",AG$7&gt;=$F30,AG$7&lt;=$F30+$G30-1),2,IF(AND($C30="Marco",AG$7&gt;=$F30,AG$7&lt;=$F30+$G30-1),1,""))</f>
         <v/>
       </c>
       <c r="AH30" s="26" t="str">
-        <f t="shared" ca="1" si="11"/>
+        <f ca="1">IF(AND($C30="Objetivo",AH$7&gt;=$F30,AH$7&lt;=$F30+$G30-1),2,IF(AND($C30="Marco",AH$7&gt;=$F30,AH$7&lt;=$F30+$G30-1),1,""))</f>
         <v/>
       </c>
       <c r="AI30" s="26" t="str">
-        <f t="shared" ca="1" si="11"/>
+        <f ca="1">IF(AND($C30="Objetivo",AI$7&gt;=$F30,AI$7&lt;=$F30+$G30-1),2,IF(AND($C30="Marco",AI$7&gt;=$F30,AI$7&lt;=$F30+$G30-1),1,""))</f>
         <v/>
       </c>
       <c r="AJ30" s="26" t="str">
-        <f t="shared" ca="1" si="11"/>
+        <f ca="1">IF(AND($C30="Objetivo",AJ$7&gt;=$F30,AJ$7&lt;=$F30+$G30-1),2,IF(AND($C30="Marco",AJ$7&gt;=$F30,AJ$7&lt;=$F30+$G30-1),1,""))</f>
         <v/>
       </c>
       <c r="AK30" s="26" t="str">
-        <f t="shared" ca="1" si="11"/>
+        <f ca="1">IF(AND($C30="Objetivo",AK$7&gt;=$F30,AK$7&lt;=$F30+$G30-1),2,IF(AND($C30="Marco",AK$7&gt;=$F30,AK$7&lt;=$F30+$G30-1),1,""))</f>
         <v/>
       </c>
       <c r="AL30" s="26" t="str">
-        <f t="shared" ca="1" si="11"/>
+        <f ca="1">IF(AND($C30="Objetivo",AL$7&gt;=$F30,AL$7&lt;=$F30+$G30-1),2,IF(AND($C30="Marco",AL$7&gt;=$F30,AL$7&lt;=$F30+$G30-1),1,""))</f>
         <v/>
       </c>
       <c r="AM30" s="26" t="str">
-        <f t="shared" ca="1" si="11"/>
+        <f ca="1">IF(AND($C30="Objetivo",AM$7&gt;=$F30,AM$7&lt;=$F30+$G30-1),2,IF(AND($C30="Marco",AM$7&gt;=$F30,AM$7&lt;=$F30+$G30-1),1,""))</f>
         <v/>
       </c>
       <c r="AN30" s="26" t="str">
-        <f t="shared" ca="1" si="9"/>
+        <f ca="1">IF(AND($C30="Objetivo",AN$7&gt;=$F30,AN$7&lt;=$F30+$G30-1),2,IF(AND($C30="Marco",AN$7&gt;=$F30,AN$7&lt;=$F30+$G30-1),1,""))</f>
         <v/>
       </c>
       <c r="AO30" s="26" t="str">
-        <f t="shared" ca="1" si="9"/>
+        <f ca="1">IF(AND($C30="Objetivo",AO$7&gt;=$F30,AO$7&lt;=$F30+$G30-1),2,IF(AND($C30="Marco",AO$7&gt;=$F30,AO$7&lt;=$F30+$G30-1),1,""))</f>
         <v/>
       </c>
       <c r="AP30" s="26" t="str">
-        <f t="shared" ca="1" si="9"/>
+        <f ca="1">IF(AND($C30="Objetivo",AP$7&gt;=$F30,AP$7&lt;=$F30+$G30-1),2,IF(AND($C30="Marco",AP$7&gt;=$F30,AP$7&lt;=$F30+$G30-1),1,""))</f>
         <v/>
       </c>
       <c r="AQ30" s="26" t="str">
-        <f t="shared" ca="1" si="9"/>
+        <f ca="1">IF(AND($C30="Objetivo",AQ$7&gt;=$F30,AQ$7&lt;=$F30+$G30-1),2,IF(AND($C30="Marco",AQ$7&gt;=$F30,AQ$7&lt;=$F30+$G30-1),1,""))</f>
         <v/>
       </c>
       <c r="AR30" s="26" t="str">
-        <f t="shared" ca="1" si="9"/>
+        <f ca="1">IF(AND($C30="Objetivo",AR$7&gt;=$F30,AR$7&lt;=$F30+$G30-1),2,IF(AND($C30="Marco",AR$7&gt;=$F30,AR$7&lt;=$F30+$G30-1),1,""))</f>
         <v/>
       </c>
       <c r="AS30" s="26" t="str">
-        <f t="shared" ca="1" si="9"/>
+        <f ca="1">IF(AND($C30="Objetivo",AS$7&gt;=$F30,AS$7&lt;=$F30+$G30-1),2,IF(AND($C30="Marco",AS$7&gt;=$F30,AS$7&lt;=$F30+$G30-1),1,""))</f>
         <v/>
       </c>
       <c r="AT30" s="26" t="str">
-        <f t="shared" ca="1" si="9"/>
+        <f ca="1">IF(AND($C30="Objetivo",AT$7&gt;=$F30,AT$7&lt;=$F30+$G30-1),2,IF(AND($C30="Marco",AT$7&gt;=$F30,AT$7&lt;=$F30+$G30-1),1,""))</f>
         <v/>
       </c>
       <c r="AU30" s="26" t="str">
-        <f t="shared" ca="1" si="9"/>
+        <f ca="1">IF(AND($C30="Objetivo",AU$7&gt;=$F30,AU$7&lt;=$F30+$G30-1),2,IF(AND($C30="Marco",AU$7&gt;=$F30,AU$7&lt;=$F30+$G30-1),1,""))</f>
         <v/>
       </c>
       <c r="AV30" s="26" t="str">
-        <f t="shared" ca="1" si="9"/>
+        <f ca="1">IF(AND($C30="Objetivo",AV$7&gt;=$F30,AV$7&lt;=$F30+$G30-1),2,IF(AND($C30="Marco",AV$7&gt;=$F30,AV$7&lt;=$F30+$G30-1),1,""))</f>
         <v/>
       </c>
       <c r="AW30" s="26" t="str">
-        <f t="shared" ca="1" si="9"/>
+        <f ca="1">IF(AND($C30="Objetivo",AW$7&gt;=$F30,AW$7&lt;=$F30+$G30-1),2,IF(AND($C30="Marco",AW$7&gt;=$F30,AW$7&lt;=$F30+$G30-1),1,""))</f>
         <v/>
       </c>
       <c r="AX30" s="26" t="str">
-        <f t="shared" ca="1" si="9"/>
+        <f ca="1">IF(AND($C30="Objetivo",AX$7&gt;=$F30,AX$7&lt;=$F30+$G30-1),2,IF(AND($C30="Marco",AX$7&gt;=$F30,AX$7&lt;=$F30+$G30-1),1,""))</f>
         <v/>
       </c>
       <c r="AY30" s="26" t="str">
-        <f t="shared" ca="1" si="9"/>
+        <f ca="1">IF(AND($C30="Objetivo",AY$7&gt;=$F30,AY$7&lt;=$F30+$G30-1),2,IF(AND($C30="Marco",AY$7&gt;=$F30,AY$7&lt;=$F30+$G30-1),1,""))</f>
         <v/>
       </c>
       <c r="AZ30" s="26" t="str">
-        <f t="shared" ca="1" si="9"/>
+        <f ca="1">IF(AND($C30="Objetivo",AZ$7&gt;=$F30,AZ$7&lt;=$F30+$G30-1),2,IF(AND($C30="Marco",AZ$7&gt;=$F30,AZ$7&lt;=$F30+$G30-1),1,""))</f>
         <v/>
       </c>
       <c r="BA30" s="26" t="str">
-        <f t="shared" ca="1" si="9"/>
+        <f ca="1">IF(AND($C30="Objetivo",BA$7&gt;=$F30,BA$7&lt;=$F30+$G30-1),2,IF(AND($C30="Marco",BA$7&gt;=$F30,BA$7&lt;=$F30+$G30-1),1,""))</f>
         <v/>
       </c>
       <c r="BB30" s="26" t="str">
-        <f t="shared" ca="1" si="9"/>
+        <f ca="1">IF(AND($C30="Objetivo",BB$7&gt;=$F30,BB$7&lt;=$F30+$G30-1),2,IF(AND($C30="Marco",BB$7&gt;=$F30,BB$7&lt;=$F30+$G30-1),1,""))</f>
         <v/>
       </c>
       <c r="BC30" s="26" t="str">
-        <f t="shared" ca="1" si="9"/>
+        <f ca="1">IF(AND($C30="Objetivo",BC$7&gt;=$F30,BC$7&lt;=$F30+$G30-1),2,IF(AND($C30="Marco",BC$7&gt;=$F30,BC$7&lt;=$F30+$G30-1),1,""))</f>
         <v/>
       </c>
       <c r="BD30" s="26" t="str">
-        <f t="shared" ca="1" si="10"/>
+        <f ca="1">IF(AND($C30="Objetivo",BD$7&gt;=$F30,BD$7&lt;=$F30+$G30-1),2,IF(AND($C30="Marco",BD$7&gt;=$F30,BD$7&lt;=$F30+$G30-1),1,""))</f>
         <v/>
       </c>
       <c r="BE30" s="26" t="str">
-        <f t="shared" ca="1" si="10"/>
+        <f ca="1">IF(AND($C30="Objetivo",BE$7&gt;=$F30,BE$7&lt;=$F30+$G30-1),2,IF(AND($C30="Marco",BE$7&gt;=$F30,BE$7&lt;=$F30+$G30-1),1,""))</f>
         <v/>
       </c>
       <c r="BF30" s="26" t="str">
-        <f t="shared" ca="1" si="10"/>
+        <f ca="1">IF(AND($C30="Objetivo",BF$7&gt;=$F30,BF$7&lt;=$F30+$G30-1),2,IF(AND($C30="Marco",BF$7&gt;=$F30,BF$7&lt;=$F30+$G30-1),1,""))</f>
         <v/>
       </c>
       <c r="BG30" s="26" t="str">
-        <f t="shared" ca="1" si="10"/>
+        <f ca="1">IF(AND($C30="Objetivo",BG$7&gt;=$F30,BG$7&lt;=$F30+$G30-1),2,IF(AND($C30="Marco",BG$7&gt;=$F30,BG$7&lt;=$F30+$G30-1),1,""))</f>
         <v/>
       </c>
       <c r="BH30" s="26" t="str">
-        <f t="shared" ca="1" si="10"/>
+        <f ca="1">IF(AND($C30="Objetivo",BH$7&gt;=$F30,BH$7&lt;=$F30+$G30-1),2,IF(AND($C30="Marco",BH$7&gt;=$F30,BH$7&lt;=$F30+$G30-1),1,""))</f>
         <v/>
       </c>
       <c r="BI30" s="26" t="str">
-        <f t="shared" ca="1" si="10"/>
+        <f ca="1">IF(AND($C30="Objetivo",BI$7&gt;=$F30,BI$7&lt;=$F30+$G30-1),2,IF(AND($C30="Marco",BI$7&gt;=$F30,BI$7&lt;=$F30+$G30-1),1,""))</f>
         <v/>
       </c>
       <c r="BJ30" s="26" t="str">
-        <f t="shared" ca="1" si="10"/>
+        <f ca="1">IF(AND($C30="Objetivo",BJ$7&gt;=$F30,BJ$7&lt;=$F30+$G30-1),2,IF(AND($C30="Marco",BJ$7&gt;=$F30,BJ$7&lt;=$F30+$G30-1),1,""))</f>
         <v/>
       </c>
       <c r="BK30" s="26" t="str">
-        <f t="shared" ca="1" si="10"/>
+        <f ca="1">IF(AND($C30="Objetivo",BK$7&gt;=$F30,BK$7&lt;=$F30+$G30-1),2,IF(AND($C30="Marco",BK$7&gt;=$F30,BK$7&lt;=$F30+$G30-1),1,""))</f>
         <v/>
       </c>
       <c r="BL30" s="26" t="str">
-        <f t="shared" ca="1" si="10"/>
+        <f ca="1">IF(AND($C30="Objetivo",BL$7&gt;=$F30,BL$7&lt;=$F30+$G30-1),2,IF(AND($C30="Marco",BL$7&gt;=$F30,BL$7&lt;=$F30+$G30-1),1,""))</f>
         <v/>
       </c>
     </row>
     <row r="31" spans="1:64" s="1" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="9"/>
-      <c r="B31" s="62" t="s">
-        <v>52</v>
-      </c>
-      <c r="C31" s="58"/>
+      <c r="B31" t="s">
+        <v>58</v>
+      </c>
+      <c r="C31" s="58" t="s">
+        <v>23</v>
+      </c>
       <c r="D31" s="58"/>
       <c r="E31" s="59"/>
       <c r="F31" s="60">
-        <f ca="1">F30+14</f>
-        <v>45063</v>
+        <v>45031</v>
       </c>
       <c r="G31" s="61">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="H31" s="58"/>
       <c r="I31" s="26" t="str">
-        <f t="shared" ca="1" si="12"/>
+        <f ca="1">IF(AND($C31="Objetivo",I$7&gt;=$F31,I$7&lt;=$F31+$G31-1),2,IF(AND($C31="Marco",I$7&gt;=$F31,I$7&lt;=$F31+$G31-1),1,""))</f>
         <v/>
       </c>
       <c r="J31" s="26" t="str">
-        <f t="shared" ca="1" si="12"/>
+        <f ca="1">IF(AND($C31="Objetivo",J$7&gt;=$F31,J$7&lt;=$F31+$G31-1),2,IF(AND($C31="Marco",J$7&gt;=$F31,J$7&lt;=$F31+$G31-1),1,""))</f>
         <v/>
       </c>
       <c r="K31" s="26" t="str">
-        <f t="shared" ca="1" si="12"/>
+        <f ca="1">IF(AND($C31="Objetivo",K$7&gt;=$F31,K$7&lt;=$F31+$G31-1),2,IF(AND($C31="Marco",K$7&gt;=$F31,K$7&lt;=$F31+$G31-1),1,""))</f>
         <v/>
       </c>
       <c r="L31" s="26" t="str">
-        <f t="shared" ca="1" si="12"/>
+        <f ca="1">IF(AND($C31="Objetivo",L$7&gt;=$F31,L$7&lt;=$F31+$G31-1),2,IF(AND($C31="Marco",L$7&gt;=$F31,L$7&lt;=$F31+$G31-1),1,""))</f>
         <v/>
       </c>
       <c r="M31" s="26" t="str">
-        <f t="shared" ca="1" si="12"/>
+        <f ca="1">IF(AND($C31="Objetivo",M$7&gt;=$F31,M$7&lt;=$F31+$G31-1),2,IF(AND($C31="Marco",M$7&gt;=$F31,M$7&lt;=$F31+$G31-1),1,""))</f>
         <v/>
       </c>
       <c r="N31" s="26" t="str">
-        <f t="shared" ca="1" si="12"/>
+        <f ca="1">IF(AND($C31="Objetivo",N$7&gt;=$F31,N$7&lt;=$F31+$G31-1),2,IF(AND($C31="Marco",N$7&gt;=$F31,N$7&lt;=$F31+$G31-1),1,""))</f>
         <v/>
       </c>
       <c r="O31" s="26" t="str">
-        <f t="shared" ca="1" si="12"/>
+        <f ca="1">IF(AND($C31="Objetivo",O$7&gt;=$F31,O$7&lt;=$F31+$G31-1),2,IF(AND($C31="Marco",O$7&gt;=$F31,O$7&lt;=$F31+$G31-1),1,""))</f>
         <v/>
       </c>
       <c r="P31" s="26" t="str">
-        <f t="shared" ca="1" si="12"/>
+        <f ca="1">IF(AND($C31="Objetivo",P$7&gt;=$F31,P$7&lt;=$F31+$G31-1),2,IF(AND($C31="Marco",P$7&gt;=$F31,P$7&lt;=$F31+$G31-1),1,""))</f>
         <v/>
       </c>
       <c r="Q31" s="26" t="str">
-        <f t="shared" ca="1" si="12"/>
+        <f ca="1">IF(AND($C31="Objetivo",Q$7&gt;=$F31,Q$7&lt;=$F31+$G31-1),2,IF(AND($C31="Marco",Q$7&gt;=$F31,Q$7&lt;=$F31+$G31-1),1,""))</f>
         <v/>
       </c>
       <c r="R31" s="26" t="str">
-        <f t="shared" ca="1" si="12"/>
+        <f ca="1">IF(AND($C31="Objetivo",R$7&gt;=$F31,R$7&lt;=$F31+$G31-1),2,IF(AND($C31="Marco",R$7&gt;=$F31,R$7&lt;=$F31+$G31-1),1,""))</f>
         <v/>
       </c>
       <c r="S31" s="26" t="str">
-        <f t="shared" ca="1" si="12"/>
+        <f ca="1">IF(AND($C31="Objetivo",S$7&gt;=$F31,S$7&lt;=$F31+$G31-1),2,IF(AND($C31="Marco",S$7&gt;=$F31,S$7&lt;=$F31+$G31-1),1,""))</f>
         <v/>
       </c>
       <c r="T31" s="26" t="str">
-        <f t="shared" ca="1" si="12"/>
+        <f ca="1">IF(AND($C31="Objetivo",T$7&gt;=$F31,T$7&lt;=$F31+$G31-1),2,IF(AND($C31="Marco",T$7&gt;=$F31,T$7&lt;=$F31+$G31-1),1,""))</f>
         <v/>
       </c>
       <c r="U31" s="26" t="str">
-        <f t="shared" ca="1" si="12"/>
+        <f ca="1">IF(AND($C31="Objetivo",U$7&gt;=$F31,U$7&lt;=$F31+$G31-1),2,IF(AND($C31="Marco",U$7&gt;=$F31,U$7&lt;=$F31+$G31-1),1,""))</f>
         <v/>
       </c>
       <c r="V31" s="26" t="str">
-        <f t="shared" ca="1" si="12"/>
+        <f ca="1">IF(AND($C31="Objetivo",V$7&gt;=$F31,V$7&lt;=$F31+$G31-1),2,IF(AND($C31="Marco",V$7&gt;=$F31,V$7&lt;=$F31+$G31-1),1,""))</f>
         <v/>
       </c>
       <c r="W31" s="26" t="str">
-        <f t="shared" ca="1" si="12"/>
+        <f ca="1">IF(AND($C31="Objetivo",W$7&gt;=$F31,W$7&lt;=$F31+$G31-1),2,IF(AND($C31="Marco",W$7&gt;=$F31,W$7&lt;=$F31+$G31-1),1,""))</f>
         <v/>
       </c>
       <c r="X31" s="26" t="str">
-        <f t="shared" ca="1" si="12"/>
+        <f ca="1">IF(AND($C31="Objetivo",X$7&gt;=$F31,X$7&lt;=$F31+$G31-1),2,IF(AND($C31="Marco",X$7&gt;=$F31,X$7&lt;=$F31+$G31-1),1,""))</f>
         <v/>
       </c>
       <c r="Y31" s="26" t="str">
-        <f t="shared" ca="1" si="11"/>
+        <f ca="1">IF(AND($C31="Objetivo",Y$7&gt;=$F31,Y$7&lt;=$F31+$G31-1),2,IF(AND($C31="Marco",Y$7&gt;=$F31,Y$7&lt;=$F31+$G31-1),1,""))</f>
         <v/>
       </c>
       <c r="Z31" s="26" t="str">
-        <f t="shared" ca="1" si="11"/>
+        <f ca="1">IF(AND($C31="Objetivo",Z$7&gt;=$F31,Z$7&lt;=$F31+$G31-1),2,IF(AND($C31="Marco",Z$7&gt;=$F31,Z$7&lt;=$F31+$G31-1),1,""))</f>
         <v/>
       </c>
       <c r="AA31" s="26" t="str">
-        <f t="shared" ca="1" si="11"/>
+        <f ca="1">IF(AND($C31="Objetivo",AA$7&gt;=$F31,AA$7&lt;=$F31+$G31-1),2,IF(AND($C31="Marco",AA$7&gt;=$F31,AA$7&lt;=$F31+$G31-1),1,""))</f>
         <v/>
       </c>
       <c r="AB31" s="26" t="str">
-        <f t="shared" ca="1" si="11"/>
+        <f ca="1">IF(AND($C31="Objetivo",AB$7&gt;=$F31,AB$7&lt;=$F31+$G31-1),2,IF(AND($C31="Marco",AB$7&gt;=$F31,AB$7&lt;=$F31+$G31-1),1,""))</f>
         <v/>
       </c>
       <c r="AC31" s="26" t="str">
-        <f t="shared" ca="1" si="11"/>
+        <f ca="1">IF(AND($C31="Objetivo",AC$7&gt;=$F31,AC$7&lt;=$F31+$G31-1),2,IF(AND($C31="Marco",AC$7&gt;=$F31,AC$7&lt;=$F31+$G31-1),1,""))</f>
         <v/>
       </c>
       <c r="AD31" s="26" t="str">
-        <f t="shared" ca="1" si="11"/>
+        <f ca="1">IF(AND($C31="Objetivo",AD$7&gt;=$F31,AD$7&lt;=$F31+$G31-1),2,IF(AND($C31="Marco",AD$7&gt;=$F31,AD$7&lt;=$F31+$G31-1),1,""))</f>
         <v/>
       </c>
       <c r="AE31" s="26" t="str">
-        <f t="shared" ca="1" si="11"/>
+        <f ca="1">IF(AND($C31="Objetivo",AE$7&gt;=$F31,AE$7&lt;=$F31+$G31-1),2,IF(AND($C31="Marco",AE$7&gt;=$F31,AE$7&lt;=$F31+$G31-1),1,""))</f>
         <v/>
       </c>
       <c r="AF31" s="26" t="str">
-        <f t="shared" ca="1" si="11"/>
+        <f ca="1">IF(AND($C31="Objetivo",AF$7&gt;=$F31,AF$7&lt;=$F31+$G31-1),2,IF(AND($C31="Marco",AF$7&gt;=$F31,AF$7&lt;=$F31+$G31-1),1,""))</f>
         <v/>
       </c>
       <c r="AG31" s="26" t="str">
-        <f t="shared" ca="1" si="11"/>
+        <f ca="1">IF(AND($C31="Objetivo",AG$7&gt;=$F31,AG$7&lt;=$F31+$G31-1),2,IF(AND($C31="Marco",AG$7&gt;=$F31,AG$7&lt;=$F31+$G31-1),1,""))</f>
         <v/>
       </c>
       <c r="AH31" s="26" t="str">
-        <f t="shared" ca="1" si="11"/>
+        <f ca="1">IF(AND($C31="Objetivo",AH$7&gt;=$F31,AH$7&lt;=$F31+$G31-1),2,IF(AND($C31="Marco",AH$7&gt;=$F31,AH$7&lt;=$F31+$G31-1),1,""))</f>
         <v/>
       </c>
       <c r="AI31" s="26" t="str">
-        <f t="shared" ca="1" si="11"/>
+        <f ca="1">IF(AND($C31="Objetivo",AI$7&gt;=$F31,AI$7&lt;=$F31+$G31-1),2,IF(AND($C31="Marco",AI$7&gt;=$F31,AI$7&lt;=$F31+$G31-1),1,""))</f>
         <v/>
       </c>
       <c r="AJ31" s="26" t="str">
-        <f t="shared" ca="1" si="11"/>
+        <f ca="1">IF(AND($C31="Objetivo",AJ$7&gt;=$F31,AJ$7&lt;=$F31+$G31-1),2,IF(AND($C31="Marco",AJ$7&gt;=$F31,AJ$7&lt;=$F31+$G31-1),1,""))</f>
         <v/>
       </c>
       <c r="AK31" s="26" t="str">
-        <f t="shared" ca="1" si="11"/>
+        <f ca="1">IF(AND($C31="Objetivo",AK$7&gt;=$F31,AK$7&lt;=$F31+$G31-1),2,IF(AND($C31="Marco",AK$7&gt;=$F31,AK$7&lt;=$F31+$G31-1),1,""))</f>
         <v/>
       </c>
       <c r="AL31" s="26" t="str">
-        <f t="shared" ca="1" si="11"/>
+        <f ca="1">IF(AND($C31="Objetivo",AL$7&gt;=$F31,AL$7&lt;=$F31+$G31-1),2,IF(AND($C31="Marco",AL$7&gt;=$F31,AL$7&lt;=$F31+$G31-1),1,""))</f>
         <v/>
       </c>
       <c r="AM31" s="26" t="str">
-        <f t="shared" ca="1" si="11"/>
+        <f ca="1">IF(AND($C31="Objetivo",AM$7&gt;=$F31,AM$7&lt;=$F31+$G31-1),2,IF(AND($C31="Marco",AM$7&gt;=$F31,AM$7&lt;=$F31+$G31-1),1,""))</f>
         <v/>
       </c>
       <c r="AN31" s="26" t="str">
-        <f t="shared" ca="1" si="9"/>
+        <f ca="1">IF(AND($C31="Objetivo",AN$7&gt;=$F31,AN$7&lt;=$F31+$G31-1),2,IF(AND($C31="Marco",AN$7&gt;=$F31,AN$7&lt;=$F31+$G31-1),1,""))</f>
         <v/>
       </c>
       <c r="AO31" s="26" t="str">
-        <f t="shared" ca="1" si="9"/>
+        <f ca="1">IF(AND($C31="Objetivo",AO$7&gt;=$F31,AO$7&lt;=$F31+$G31-1),2,IF(AND($C31="Marco",AO$7&gt;=$F31,AO$7&lt;=$F31+$G31-1),1,""))</f>
         <v/>
       </c>
       <c r="AP31" s="26" t="str">
-        <f t="shared" ca="1" si="9"/>
+        <f ca="1">IF(AND($C31="Objetivo",AP$7&gt;=$F31,AP$7&lt;=$F31+$G31-1),2,IF(AND($C31="Marco",AP$7&gt;=$F31,AP$7&lt;=$F31+$G31-1),1,""))</f>
         <v/>
       </c>
       <c r="AQ31" s="26" t="str">
-        <f t="shared" ca="1" si="9"/>
+        <f ca="1">IF(AND($C31="Objetivo",AQ$7&gt;=$F31,AQ$7&lt;=$F31+$G31-1),2,IF(AND($C31="Marco",AQ$7&gt;=$F31,AQ$7&lt;=$F31+$G31-1),1,""))</f>
         <v/>
       </c>
       <c r="AR31" s="26" t="str">
-        <f t="shared" ca="1" si="9"/>
+        <f ca="1">IF(AND($C31="Objetivo",AR$7&gt;=$F31,AR$7&lt;=$F31+$G31-1),2,IF(AND($C31="Marco",AR$7&gt;=$F31,AR$7&lt;=$F31+$G31-1),1,""))</f>
         <v/>
       </c>
       <c r="AS31" s="26" t="str">
-        <f t="shared" ca="1" si="9"/>
+        <f ca="1">IF(AND($C31="Objetivo",AS$7&gt;=$F31,AS$7&lt;=$F31+$G31-1),2,IF(AND($C31="Marco",AS$7&gt;=$F31,AS$7&lt;=$F31+$G31-1),1,""))</f>
         <v/>
       </c>
       <c r="AT31" s="26" t="str">
-        <f t="shared" ca="1" si="9"/>
+        <f ca="1">IF(AND($C31="Objetivo",AT$7&gt;=$F31,AT$7&lt;=$F31+$G31-1),2,IF(AND($C31="Marco",AT$7&gt;=$F31,AT$7&lt;=$F31+$G31-1),1,""))</f>
         <v/>
       </c>
       <c r="AU31" s="26" t="str">
-        <f t="shared" ca="1" si="9"/>
+        <f ca="1">IF(AND($C31="Objetivo",AU$7&gt;=$F31,AU$7&lt;=$F31+$G31-1),2,IF(AND($C31="Marco",AU$7&gt;=$F31,AU$7&lt;=$F31+$G31-1),1,""))</f>
         <v/>
       </c>
       <c r="AV31" s="26" t="str">
-        <f t="shared" ca="1" si="9"/>
+        <f ca="1">IF(AND($C31="Objetivo",AV$7&gt;=$F31,AV$7&lt;=$F31+$G31-1),2,IF(AND($C31="Marco",AV$7&gt;=$F31,AV$7&lt;=$F31+$G31-1),1,""))</f>
         <v/>
       </c>
       <c r="AW31" s="26" t="str">
-        <f t="shared" ca="1" si="9"/>
+        <f ca="1">IF(AND($C31="Objetivo",AW$7&gt;=$F31,AW$7&lt;=$F31+$G31-1),2,IF(AND($C31="Marco",AW$7&gt;=$F31,AW$7&lt;=$F31+$G31-1),1,""))</f>
         <v/>
       </c>
       <c r="AX31" s="26" t="str">
-        <f t="shared" ca="1" si="9"/>
+        <f ca="1">IF(AND($C31="Objetivo",AX$7&gt;=$F31,AX$7&lt;=$F31+$G31-1),2,IF(AND($C31="Marco",AX$7&gt;=$F31,AX$7&lt;=$F31+$G31-1),1,""))</f>
         <v/>
       </c>
       <c r="AY31" s="26" t="str">
-        <f t="shared" ca="1" si="9"/>
+        <f ca="1">IF(AND($C31="Objetivo",AY$7&gt;=$F31,AY$7&lt;=$F31+$G31-1),2,IF(AND($C31="Marco",AY$7&gt;=$F31,AY$7&lt;=$F31+$G31-1),1,""))</f>
         <v/>
       </c>
       <c r="AZ31" s="26" t="str">
-        <f t="shared" ca="1" si="9"/>
+        <f ca="1">IF(AND($C31="Objetivo",AZ$7&gt;=$F31,AZ$7&lt;=$F31+$G31-1),2,IF(AND($C31="Marco",AZ$7&gt;=$F31,AZ$7&lt;=$F31+$G31-1),1,""))</f>
         <v/>
       </c>
       <c r="BA31" s="26" t="str">
-        <f t="shared" ca="1" si="9"/>
+        <f ca="1">IF(AND($C31="Objetivo",BA$7&gt;=$F31,BA$7&lt;=$F31+$G31-1),2,IF(AND($C31="Marco",BA$7&gt;=$F31,BA$7&lt;=$F31+$G31-1),1,""))</f>
         <v/>
       </c>
       <c r="BB31" s="26" t="str">
-        <f t="shared" ca="1" si="9"/>
+        <f ca="1">IF(AND($C31="Objetivo",BB$7&gt;=$F31,BB$7&lt;=$F31+$G31-1),2,IF(AND($C31="Marco",BB$7&gt;=$F31,BB$7&lt;=$F31+$G31-1),1,""))</f>
         <v/>
       </c>
       <c r="BC31" s="26" t="str">
-        <f t="shared" ca="1" si="9"/>
+        <f ca="1">IF(AND($C31="Objetivo",BC$7&gt;=$F31,BC$7&lt;=$F31+$G31-1),2,IF(AND($C31="Marco",BC$7&gt;=$F31,BC$7&lt;=$F31+$G31-1),1,""))</f>
         <v/>
       </c>
       <c r="BD31" s="26" t="str">
-        <f t="shared" ca="1" si="10"/>
+        <f ca="1">IF(AND($C31="Objetivo",BD$7&gt;=$F31,BD$7&lt;=$F31+$G31-1),2,IF(AND($C31="Marco",BD$7&gt;=$F31,BD$7&lt;=$F31+$G31-1),1,""))</f>
         <v/>
       </c>
       <c r="BE31" s="26" t="str">
-        <f t="shared" ca="1" si="10"/>
+        <f ca="1">IF(AND($C31="Objetivo",BE$7&gt;=$F31,BE$7&lt;=$F31+$G31-1),2,IF(AND($C31="Marco",BE$7&gt;=$F31,BE$7&lt;=$F31+$G31-1),1,""))</f>
         <v/>
       </c>
       <c r="BF31" s="26" t="str">
-        <f t="shared" ca="1" si="10"/>
+        <f ca="1">IF(AND($C31="Objetivo",BF$7&gt;=$F31,BF$7&lt;=$F31+$G31-1),2,IF(AND($C31="Marco",BF$7&gt;=$F31,BF$7&lt;=$F31+$G31-1),1,""))</f>
         <v/>
       </c>
       <c r="BG31" s="26" t="str">
-        <f t="shared" ca="1" si="10"/>
+        <f ca="1">IF(AND($C31="Objetivo",BG$7&gt;=$F31,BG$7&lt;=$F31+$G31-1),2,IF(AND($C31="Marco",BG$7&gt;=$F31,BG$7&lt;=$F31+$G31-1),1,""))</f>
         <v/>
       </c>
       <c r="BH31" s="26" t="str">
-        <f t="shared" ca="1" si="10"/>
+        <f ca="1">IF(AND($C31="Objetivo",BH$7&gt;=$F31,BH$7&lt;=$F31+$G31-1),2,IF(AND($C31="Marco",BH$7&gt;=$F31,BH$7&lt;=$F31+$G31-1),1,""))</f>
         <v/>
       </c>
       <c r="BI31" s="26" t="str">
-        <f t="shared" ca="1" si="10"/>
+        <f ca="1">IF(AND($C31="Objetivo",BI$7&gt;=$F31,BI$7&lt;=$F31+$G31-1),2,IF(AND($C31="Marco",BI$7&gt;=$F31,BI$7&lt;=$F31+$G31-1),1,""))</f>
         <v/>
       </c>
       <c r="BJ31" s="26" t="str">
-        <f t="shared" ca="1" si="10"/>
+        <f ca="1">IF(AND($C31="Objetivo",BJ$7&gt;=$F31,BJ$7&lt;=$F31+$G31-1),2,IF(AND($C31="Marco",BJ$7&gt;=$F31,BJ$7&lt;=$F31+$G31-1),1,""))</f>
         <v/>
       </c>
       <c r="BK31" s="26" t="str">
-        <f t="shared" ca="1" si="10"/>
+        <f ca="1">IF(AND($C31="Objetivo",BK$7&gt;=$F31,BK$7&lt;=$F31+$G31-1),2,IF(AND($C31="Marco",BK$7&gt;=$F31,BK$7&lt;=$F31+$G31-1),1,""))</f>
         <v/>
       </c>
       <c r="BL31" s="26" t="str">
-        <f t="shared" ca="1" si="10"/>
+        <f ca="1">IF(AND($C31="Objetivo",BL$7&gt;=$F31,BL$7&lt;=$F31+$G31-1),2,IF(AND($C31="Marco",BL$7&gt;=$F31,BL$7&lt;=$F31+$G31-1),1,""))</f>
         <v/>
       </c>
     </row>
     <row r="32" spans="1:64" s="1" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="9"/>
-      <c r="B32" s="62" t="s">
-        <v>52</v>
-      </c>
-      <c r="C32" s="58" t="s">
-        <v>21</v>
-      </c>
+      <c r="B32"/>
+      <c r="C32" s="58"/>
       <c r="D32" s="58"/>
       <c r="E32" s="59"/>
-      <c r="F32" s="60">
-        <f ca="1">F31+42</f>
-        <v>45105</v>
-      </c>
-      <c r="G32" s="61">
-        <v>1</v>
-      </c>
+      <c r="F32" s="60"/>
+      <c r="G32" s="61"/>
       <c r="H32" s="58"/>
-      <c r="I32" s="26" t="str">
-        <f t="shared" ca="1" si="12"/>
-        <v/>
-      </c>
-      <c r="J32" s="26" t="str">
-        <f t="shared" ca="1" si="12"/>
-        <v/>
-      </c>
-      <c r="K32" s="26" t="str">
-        <f t="shared" ca="1" si="12"/>
-        <v/>
-      </c>
-      <c r="L32" s="26" t="str">
-        <f t="shared" ca="1" si="12"/>
-        <v/>
-      </c>
-      <c r="M32" s="26" t="str">
-        <f t="shared" ca="1" si="12"/>
-        <v/>
-      </c>
-      <c r="N32" s="26" t="str">
-        <f t="shared" ca="1" si="12"/>
-        <v/>
-      </c>
-      <c r="O32" s="26" t="str">
-        <f t="shared" ca="1" si="12"/>
-        <v/>
-      </c>
-      <c r="P32" s="26" t="str">
-        <f t="shared" ca="1" si="12"/>
-        <v/>
-      </c>
-      <c r="Q32" s="26" t="str">
-        <f t="shared" ca="1" si="12"/>
-        <v/>
-      </c>
-      <c r="R32" s="26" t="str">
-        <f t="shared" ca="1" si="12"/>
-        <v/>
-      </c>
-      <c r="S32" s="26" t="str">
-        <f t="shared" ca="1" si="12"/>
-        <v/>
-      </c>
-      <c r="T32" s="26" t="str">
-        <f t="shared" ca="1" si="12"/>
-        <v/>
-      </c>
-      <c r="U32" s="26" t="str">
-        <f t="shared" ca="1" si="12"/>
-        <v/>
-      </c>
-      <c r="V32" s="26" t="str">
-        <f t="shared" ca="1" si="12"/>
-        <v/>
-      </c>
-      <c r="W32" s="26" t="str">
-        <f t="shared" ca="1" si="12"/>
-        <v/>
-      </c>
-      <c r="X32" s="26" t="str">
-        <f t="shared" ca="1" si="12"/>
-        <v/>
-      </c>
-      <c r="Y32" s="26" t="str">
-        <f t="shared" ca="1" si="11"/>
-        <v/>
-      </c>
-      <c r="Z32" s="26" t="str">
-        <f t="shared" ca="1" si="11"/>
-        <v/>
-      </c>
-      <c r="AA32" s="26" t="str">
-        <f t="shared" ca="1" si="11"/>
-        <v/>
-      </c>
-      <c r="AB32" s="26" t="str">
-        <f t="shared" ca="1" si="11"/>
-        <v/>
-      </c>
-      <c r="AC32" s="26" t="str">
-        <f t="shared" ca="1" si="11"/>
-        <v/>
-      </c>
-      <c r="AD32" s="26" t="str">
-        <f t="shared" ca="1" si="11"/>
-        <v/>
-      </c>
-      <c r="AE32" s="26" t="str">
-        <f t="shared" ca="1" si="11"/>
-        <v/>
-      </c>
-      <c r="AF32" s="26" t="str">
-        <f t="shared" ca="1" si="11"/>
-        <v/>
-      </c>
-      <c r="AG32" s="26" t="str">
-        <f t="shared" ca="1" si="11"/>
-        <v/>
-      </c>
-      <c r="AH32" s="26" t="str">
-        <f t="shared" ca="1" si="11"/>
-        <v/>
-      </c>
-      <c r="AI32" s="26" t="str">
-        <f t="shared" ca="1" si="11"/>
-        <v/>
-      </c>
-      <c r="AJ32" s="26" t="str">
-        <f t="shared" ca="1" si="11"/>
-        <v/>
-      </c>
-      <c r="AK32" s="26" t="str">
-        <f t="shared" ca="1" si="11"/>
-        <v/>
-      </c>
-      <c r="AL32" s="26" t="str">
-        <f t="shared" ca="1" si="11"/>
-        <v/>
-      </c>
-      <c r="AM32" s="26" t="str">
-        <f t="shared" ca="1" si="11"/>
-        <v/>
-      </c>
-      <c r="AN32" s="26" t="str">
-        <f t="shared" ca="1" si="9"/>
-        <v/>
-      </c>
-      <c r="AO32" s="26" t="str">
-        <f t="shared" ca="1" si="9"/>
-        <v/>
-      </c>
-      <c r="AP32" s="26" t="str">
-        <f t="shared" ca="1" si="9"/>
-        <v/>
-      </c>
-      <c r="AQ32" s="26" t="str">
-        <f t="shared" ca="1" si="9"/>
-        <v/>
-      </c>
-      <c r="AR32" s="26" t="str">
-        <f t="shared" ca="1" si="9"/>
-        <v/>
-      </c>
-      <c r="AS32" s="26" t="str">
-        <f t="shared" ca="1" si="9"/>
-        <v/>
-      </c>
-      <c r="AT32" s="26" t="str">
-        <f t="shared" ca="1" si="9"/>
-        <v/>
-      </c>
-      <c r="AU32" s="26" t="str">
-        <f t="shared" ca="1" si="9"/>
-        <v/>
-      </c>
-      <c r="AV32" s="26" t="str">
-        <f t="shared" ca="1" si="9"/>
-        <v/>
-      </c>
-      <c r="AW32" s="26" t="str">
-        <f t="shared" ca="1" si="9"/>
-        <v/>
-      </c>
-      <c r="AX32" s="26" t="str">
-        <f t="shared" ca="1" si="9"/>
-        <v/>
-      </c>
-      <c r="AY32" s="26" t="str">
-        <f t="shared" ca="1" si="9"/>
-        <v/>
-      </c>
-      <c r="AZ32" s="26" t="str">
-        <f t="shared" ca="1" si="9"/>
-        <v/>
-      </c>
-      <c r="BA32" s="26" t="str">
-        <f t="shared" ca="1" si="9"/>
-        <v/>
-      </c>
-      <c r="BB32" s="26" t="str">
-        <f t="shared" ca="1" si="9"/>
-        <v/>
-      </c>
-      <c r="BC32" s="26" t="str">
-        <f t="shared" ca="1" si="9"/>
-        <v/>
-      </c>
-      <c r="BD32" s="26" t="str">
-        <f t="shared" ca="1" si="10"/>
-        <v/>
-      </c>
-      <c r="BE32" s="26" t="str">
-        <f t="shared" ca="1" si="10"/>
-        <v/>
-      </c>
-      <c r="BF32" s="26" t="str">
-        <f t="shared" ca="1" si="10"/>
-        <v/>
-      </c>
-      <c r="BG32" s="26" t="str">
-        <f t="shared" ca="1" si="10"/>
-        <v/>
-      </c>
-      <c r="BH32" s="26" t="str">
-        <f t="shared" ca="1" si="10"/>
-        <v/>
-      </c>
-      <c r="BI32" s="26" t="str">
-        <f t="shared" ca="1" si="10"/>
-        <v/>
-      </c>
-      <c r="BJ32" s="26" t="str">
-        <f t="shared" ca="1" si="10"/>
-        <v/>
-      </c>
-      <c r="BK32" s="26" t="str">
-        <f t="shared" ca="1" si="10"/>
-        <v/>
-      </c>
-      <c r="BL32" s="26" t="str">
-        <f t="shared" ca="1" si="10"/>
-        <v/>
-      </c>
+      <c r="I32" s="26"/>
+      <c r="J32" s="26"/>
+      <c r="K32" s="26"/>
+      <c r="L32" s="26"/>
+      <c r="M32" s="26"/>
+      <c r="N32" s="26"/>
+      <c r="O32" s="26"/>
+      <c r="P32" s="26"/>
+      <c r="Q32" s="26"/>
+      <c r="R32" s="26"/>
+      <c r="S32" s="26"/>
+      <c r="T32" s="26"/>
+      <c r="U32" s="26"/>
+      <c r="V32" s="26"/>
+      <c r="W32" s="26"/>
+      <c r="X32" s="26"/>
+      <c r="Y32" s="26"/>
+      <c r="Z32" s="26"/>
+      <c r="AA32" s="26"/>
+      <c r="AB32" s="26"/>
+      <c r="AC32" s="26"/>
+      <c r="AD32" s="26"/>
+      <c r="AE32" s="26"/>
+      <c r="AF32" s="26"/>
+      <c r="AG32" s="26"/>
+      <c r="AH32" s="26"/>
+      <c r="AI32" s="26"/>
+      <c r="AJ32" s="26"/>
+      <c r="AK32" s="26"/>
+      <c r="AL32" s="26"/>
+      <c r="AM32" s="26"/>
+      <c r="AN32" s="26"/>
+      <c r="AO32" s="26"/>
+      <c r="AP32" s="26"/>
+      <c r="AQ32" s="26"/>
+      <c r="AR32" s="26"/>
+      <c r="AS32" s="26"/>
+      <c r="AT32" s="26"/>
+      <c r="AU32" s="26"/>
+      <c r="AV32" s="26"/>
+      <c r="AW32" s="26"/>
+      <c r="AX32" s="26"/>
+      <c r="AY32" s="26"/>
+      <c r="AZ32" s="26"/>
+      <c r="BA32" s="26"/>
+      <c r="BB32" s="26"/>
+      <c r="BC32" s="26"/>
+      <c r="BD32" s="26"/>
+      <c r="BE32" s="26"/>
+      <c r="BF32" s="26"/>
+      <c r="BG32" s="26"/>
+      <c r="BH32" s="26"/>
+      <c r="BI32" s="26"/>
+      <c r="BJ32" s="26"/>
+      <c r="BK32" s="26"/>
+      <c r="BL32" s="26"/>
     </row>
     <row r="33" spans="1:65" s="1" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="9"/>
-      <c r="B33" s="62" t="s">
-        <v>52</v>
-      </c>
+      <c r="B33"/>
       <c r="C33" s="58"/>
       <c r="D33" s="58"/>
       <c r="E33" s="59"/>
       <c r="F33" s="60"/>
       <c r="G33" s="61"/>
       <c r="H33" s="58"/>
-      <c r="I33" s="26" t="str">
-        <f t="shared" ca="1" si="12"/>
-        <v/>
-      </c>
-      <c r="J33" s="26" t="str">
-        <f t="shared" ca="1" si="12"/>
-        <v/>
-      </c>
-      <c r="K33" s="26" t="str">
-        <f t="shared" ca="1" si="12"/>
-        <v/>
-      </c>
-      <c r="L33" s="26" t="str">
-        <f t="shared" ca="1" si="12"/>
-        <v/>
-      </c>
-      <c r="M33" s="26" t="str">
-        <f t="shared" ca="1" si="12"/>
-        <v/>
-      </c>
-      <c r="N33" s="26" t="str">
-        <f t="shared" ca="1" si="12"/>
-        <v/>
-      </c>
-      <c r="O33" s="26" t="str">
-        <f t="shared" ca="1" si="12"/>
-        <v/>
-      </c>
-      <c r="P33" s="26" t="str">
-        <f t="shared" ca="1" si="12"/>
-        <v/>
-      </c>
-      <c r="Q33" s="26" t="str">
-        <f t="shared" ca="1" si="12"/>
-        <v/>
-      </c>
-      <c r="R33" s="26" t="str">
-        <f t="shared" ca="1" si="12"/>
-        <v/>
-      </c>
-      <c r="S33" s="26" t="str">
-        <f t="shared" ca="1" si="12"/>
-        <v/>
-      </c>
-      <c r="T33" s="26" t="str">
-        <f t="shared" ca="1" si="12"/>
-        <v/>
-      </c>
-      <c r="U33" s="26" t="str">
-        <f t="shared" ca="1" si="12"/>
-        <v/>
-      </c>
-      <c r="V33" s="26" t="str">
-        <f t="shared" ca="1" si="12"/>
-        <v/>
-      </c>
-      <c r="W33" s="26" t="str">
-        <f t="shared" ca="1" si="12"/>
-        <v/>
-      </c>
-      <c r="X33" s="26" t="str">
-        <f t="shared" ca="1" si="12"/>
-        <v/>
-      </c>
-      <c r="Y33" s="26" t="str">
-        <f t="shared" ca="1" si="11"/>
-        <v/>
-      </c>
-      <c r="Z33" s="26" t="str">
-        <f t="shared" ca="1" si="11"/>
-        <v/>
-      </c>
-      <c r="AA33" s="26" t="str">
-        <f t="shared" ca="1" si="11"/>
-        <v/>
-      </c>
-      <c r="AB33" s="26" t="str">
-        <f t="shared" ca="1" si="11"/>
-        <v/>
-      </c>
-      <c r="AC33" s="26" t="str">
-        <f t="shared" ca="1" si="11"/>
-        <v/>
-      </c>
-      <c r="AD33" s="26" t="str">
-        <f t="shared" ca="1" si="11"/>
-        <v/>
-      </c>
-      <c r="AE33" s="26" t="str">
-        <f t="shared" ca="1" si="11"/>
-        <v/>
-      </c>
-      <c r="AF33" s="26" t="str">
-        <f t="shared" ca="1" si="11"/>
-        <v/>
-      </c>
-      <c r="AG33" s="26" t="str">
-        <f t="shared" ca="1" si="11"/>
-        <v/>
-      </c>
-      <c r="AH33" s="26" t="str">
-        <f t="shared" ca="1" si="11"/>
-        <v/>
-      </c>
-      <c r="AI33" s="26" t="str">
-        <f t="shared" ca="1" si="11"/>
-        <v/>
-      </c>
-      <c r="AJ33" s="26" t="str">
-        <f t="shared" ca="1" si="11"/>
-        <v/>
-      </c>
-      <c r="AK33" s="26" t="str">
-        <f t="shared" ca="1" si="11"/>
-        <v/>
-      </c>
-      <c r="AL33" s="26" t="str">
-        <f t="shared" ca="1" si="11"/>
-        <v/>
-      </c>
-      <c r="AM33" s="26" t="str">
-        <f t="shared" ca="1" si="11"/>
-        <v/>
-      </c>
-      <c r="AN33" s="26" t="str">
-        <f t="shared" ca="1" si="9"/>
-        <v/>
-      </c>
-      <c r="AO33" s="26" t="str">
-        <f t="shared" ca="1" si="9"/>
-        <v/>
-      </c>
-      <c r="AP33" s="26" t="str">
-        <f t="shared" ca="1" si="9"/>
-        <v/>
-      </c>
-      <c r="AQ33" s="26" t="str">
-        <f t="shared" ca="1" si="9"/>
-        <v/>
-      </c>
-      <c r="AR33" s="26" t="str">
-        <f t="shared" ca="1" si="9"/>
-        <v/>
-      </c>
-      <c r="AS33" s="26" t="str">
-        <f t="shared" ca="1" si="9"/>
-        <v/>
-      </c>
-      <c r="AT33" s="26" t="str">
-        <f t="shared" ca="1" si="9"/>
-        <v/>
-      </c>
-      <c r="AU33" s="26" t="str">
-        <f t="shared" ca="1" si="9"/>
-        <v/>
-      </c>
-      <c r="AV33" s="26" t="str">
-        <f t="shared" ca="1" si="9"/>
-        <v/>
-      </c>
-      <c r="AW33" s="26" t="str">
-        <f t="shared" ca="1" si="9"/>
-        <v/>
-      </c>
-      <c r="AX33" s="26" t="str">
-        <f t="shared" ca="1" si="9"/>
-        <v/>
-      </c>
-      <c r="AY33" s="26" t="str">
-        <f t="shared" ca="1" si="9"/>
-        <v/>
-      </c>
-      <c r="AZ33" s="26" t="str">
-        <f t="shared" ca="1" si="9"/>
-        <v/>
-      </c>
-      <c r="BA33" s="26" t="str">
-        <f t="shared" ca="1" si="9"/>
-        <v/>
-      </c>
-      <c r="BB33" s="26" t="str">
-        <f t="shared" ca="1" si="9"/>
-        <v/>
-      </c>
-      <c r="BC33" s="26" t="str">
-        <f t="shared" ca="1" si="9"/>
-        <v/>
-      </c>
-      <c r="BD33" s="26" t="str">
-        <f t="shared" ca="1" si="10"/>
-        <v/>
-      </c>
-      <c r="BE33" s="26" t="str">
-        <f t="shared" ca="1" si="10"/>
-        <v/>
-      </c>
-      <c r="BF33" s="26" t="str">
-        <f t="shared" ca="1" si="10"/>
-        <v/>
-      </c>
-      <c r="BG33" s="26" t="str">
-        <f t="shared" ca="1" si="10"/>
-        <v/>
-      </c>
-      <c r="BH33" s="26" t="str">
-        <f t="shared" ca="1" si="10"/>
-        <v/>
-      </c>
-      <c r="BI33" s="26" t="str">
-        <f t="shared" ca="1" si="10"/>
-        <v/>
-      </c>
-      <c r="BJ33" s="26" t="str">
-        <f t="shared" ca="1" si="10"/>
-        <v/>
-      </c>
-      <c r="BK33" s="26" t="str">
-        <f t="shared" ca="1" si="10"/>
-        <v/>
-      </c>
-      <c r="BL33" s="26" t="str">
-        <f t="shared" ca="1" si="10"/>
-        <v/>
-      </c>
+      <c r="I33" s="26"/>
+      <c r="J33" s="26"/>
+      <c r="K33" s="26"/>
+      <c r="L33" s="26"/>
+      <c r="M33" s="26"/>
+      <c r="N33" s="26"/>
+      <c r="O33" s="26"/>
+      <c r="P33" s="26"/>
+      <c r="Q33" s="26"/>
+      <c r="R33" s="26"/>
+      <c r="S33" s="26"/>
+      <c r="T33" s="26"/>
+      <c r="U33" s="26"/>
+      <c r="V33" s="26"/>
+      <c r="W33" s="26"/>
+      <c r="X33" s="26"/>
+      <c r="Y33" s="26"/>
+      <c r="Z33" s="26"/>
+      <c r="AA33" s="26"/>
+      <c r="AB33" s="26"/>
+      <c r="AC33" s="26"/>
+      <c r="AD33" s="26"/>
+      <c r="AE33" s="26"/>
+      <c r="AF33" s="26"/>
+      <c r="AG33" s="26"/>
+      <c r="AH33" s="26"/>
+      <c r="AI33" s="26"/>
+      <c r="AJ33" s="26"/>
+      <c r="AK33" s="26"/>
+      <c r="AL33" s="26"/>
+      <c r="AM33" s="26"/>
+      <c r="AN33" s="26"/>
+      <c r="AO33" s="26"/>
+      <c r="AP33" s="26"/>
+      <c r="AQ33" s="26"/>
+      <c r="AR33" s="26"/>
+      <c r="AS33" s="26"/>
+      <c r="AT33" s="26"/>
+      <c r="AU33" s="26"/>
+      <c r="AV33" s="26"/>
+      <c r="AW33" s="26"/>
+      <c r="AX33" s="26"/>
+      <c r="AY33" s="26"/>
+      <c r="AZ33" s="26"/>
+      <c r="BA33" s="26"/>
+      <c r="BB33" s="26"/>
+      <c r="BC33" s="26"/>
+      <c r="BD33" s="26"/>
+      <c r="BE33" s="26"/>
+      <c r="BF33" s="26"/>
+      <c r="BG33" s="26"/>
+      <c r="BH33" s="26"/>
+      <c r="BI33" s="26"/>
+      <c r="BJ33" s="26"/>
+      <c r="BK33" s="26"/>
+      <c r="BL33" s="26"/>
     </row>
     <row r="34" spans="1:65" s="1" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="9"/>
-      <c r="B34" s="62" t="s">
-        <v>52</v>
-      </c>
-      <c r="C34" s="58"/>
-      <c r="D34" s="58"/>
-      <c r="E34" s="59"/>
-      <c r="F34" s="60"/>
-      <c r="G34" s="61"/>
-      <c r="H34" s="58"/>
-      <c r="I34" s="26" t="str">
-        <f t="shared" ca="1" si="12"/>
-        <v/>
-      </c>
-      <c r="J34" s="26" t="str">
-        <f t="shared" ca="1" si="12"/>
-        <v/>
-      </c>
-      <c r="K34" s="26" t="str">
-        <f t="shared" ca="1" si="12"/>
-        <v/>
-      </c>
-      <c r="L34" s="26" t="str">
-        <f t="shared" ca="1" si="12"/>
-        <v/>
-      </c>
-      <c r="M34" s="26" t="str">
-        <f t="shared" ca="1" si="12"/>
-        <v/>
-      </c>
-      <c r="N34" s="26" t="str">
-        <f t="shared" ca="1" si="12"/>
-        <v/>
-      </c>
-      <c r="O34" s="26" t="str">
-        <f t="shared" ca="1" si="12"/>
-        <v/>
-      </c>
-      <c r="P34" s="26" t="str">
-        <f t="shared" ca="1" si="12"/>
-        <v/>
-      </c>
-      <c r="Q34" s="26" t="str">
-        <f t="shared" ca="1" si="12"/>
-        <v/>
-      </c>
-      <c r="R34" s="26" t="str">
-        <f t="shared" ca="1" si="12"/>
-        <v/>
-      </c>
-      <c r="S34" s="26" t="str">
-        <f t="shared" ca="1" si="12"/>
-        <v/>
-      </c>
-      <c r="T34" s="26" t="str">
-        <f t="shared" ca="1" si="12"/>
-        <v/>
-      </c>
-      <c r="U34" s="26" t="str">
-        <f t="shared" ca="1" si="12"/>
-        <v/>
-      </c>
-      <c r="V34" s="26" t="str">
-        <f t="shared" ca="1" si="12"/>
-        <v/>
-      </c>
-      <c r="W34" s="26" t="str">
-        <f t="shared" ca="1" si="12"/>
-        <v/>
-      </c>
-      <c r="X34" s="26" t="str">
-        <f t="shared" ca="1" si="12"/>
-        <v/>
-      </c>
-      <c r="Y34" s="26" t="str">
-        <f t="shared" ca="1" si="11"/>
-        <v/>
-      </c>
-      <c r="Z34" s="26" t="str">
-        <f t="shared" ca="1" si="11"/>
-        <v/>
-      </c>
-      <c r="AA34" s="26" t="str">
-        <f t="shared" ca="1" si="11"/>
-        <v/>
-      </c>
-      <c r="AB34" s="26" t="str">
-        <f t="shared" ca="1" si="11"/>
-        <v/>
-      </c>
-      <c r="AC34" s="26" t="str">
-        <f t="shared" ca="1" si="11"/>
-        <v/>
-      </c>
-      <c r="AD34" s="26" t="str">
-        <f t="shared" ca="1" si="11"/>
-        <v/>
-      </c>
-      <c r="AE34" s="26" t="str">
-        <f t="shared" ca="1" si="11"/>
-        <v/>
-      </c>
-      <c r="AF34" s="26" t="str">
-        <f t="shared" ca="1" si="11"/>
-        <v/>
-      </c>
-      <c r="AG34" s="26" t="str">
-        <f t="shared" ca="1" si="11"/>
-        <v/>
-      </c>
-      <c r="AH34" s="26" t="str">
-        <f t="shared" ca="1" si="11"/>
-        <v/>
-      </c>
-      <c r="AI34" s="26" t="str">
-        <f t="shared" ca="1" si="11"/>
-        <v/>
-      </c>
-      <c r="AJ34" s="26" t="str">
-        <f t="shared" ca="1" si="11"/>
-        <v/>
-      </c>
-      <c r="AK34" s="26" t="str">
-        <f t="shared" ca="1" si="11"/>
-        <v/>
-      </c>
-      <c r="AL34" s="26" t="str">
-        <f t="shared" ca="1" si="11"/>
-        <v/>
-      </c>
-      <c r="AM34" s="26" t="str">
-        <f t="shared" ca="1" si="11"/>
-        <v/>
-      </c>
-      <c r="AN34" s="26" t="str">
-        <f t="shared" ca="1" si="9"/>
-        <v/>
-      </c>
-      <c r="AO34" s="26" t="str">
-        <f t="shared" ca="1" si="9"/>
-        <v/>
-      </c>
-      <c r="AP34" s="26" t="str">
-        <f t="shared" ca="1" si="9"/>
-        <v/>
-      </c>
-      <c r="AQ34" s="26" t="str">
-        <f t="shared" ca="1" si="9"/>
-        <v/>
-      </c>
-      <c r="AR34" s="26" t="str">
-        <f t="shared" ca="1" si="9"/>
-        <v/>
-      </c>
-      <c r="AS34" s="26" t="str">
-        <f t="shared" ca="1" si="9"/>
-        <v/>
-      </c>
-      <c r="AT34" s="26" t="str">
-        <f t="shared" ca="1" si="9"/>
-        <v/>
-      </c>
-      <c r="AU34" s="26" t="str">
-        <f t="shared" ca="1" si="9"/>
-        <v/>
-      </c>
-      <c r="AV34" s="26" t="str">
-        <f t="shared" ca="1" si="9"/>
-        <v/>
-      </c>
-      <c r="AW34" s="26" t="str">
-        <f t="shared" ca="1" si="9"/>
-        <v/>
-      </c>
-      <c r="AX34" s="26" t="str">
-        <f t="shared" ca="1" si="9"/>
-        <v/>
-      </c>
-      <c r="AY34" s="26" t="str">
-        <f t="shared" ca="1" si="9"/>
-        <v/>
-      </c>
-      <c r="AZ34" s="26" t="str">
-        <f t="shared" ca="1" si="9"/>
-        <v/>
-      </c>
-      <c r="BA34" s="26" t="str">
-        <f t="shared" ca="1" si="9"/>
-        <v/>
-      </c>
-      <c r="BB34" s="26" t="str">
-        <f t="shared" ca="1" si="9"/>
-        <v/>
-      </c>
-      <c r="BC34" s="26" t="str">
-        <f t="shared" ca="1" si="9"/>
-        <v/>
-      </c>
-      <c r="BD34" s="26" t="str">
-        <f t="shared" ca="1" si="10"/>
-        <v/>
-      </c>
-      <c r="BE34" s="26" t="str">
-        <f t="shared" ca="1" si="10"/>
-        <v/>
-      </c>
-      <c r="BF34" s="26" t="str">
-        <f t="shared" ca="1" si="10"/>
-        <v/>
-      </c>
-      <c r="BG34" s="26" t="str">
-        <f t="shared" ca="1" si="10"/>
-        <v/>
-      </c>
-      <c r="BH34" s="26" t="str">
-        <f t="shared" ca="1" si="10"/>
-        <v/>
-      </c>
-      <c r="BI34" s="26" t="str">
-        <f t="shared" ca="1" si="10"/>
-        <v/>
-      </c>
-      <c r="BJ34" s="26" t="str">
-        <f t="shared" ca="1" si="10"/>
-        <v/>
-      </c>
-      <c r="BK34" s="26" t="str">
-        <f t="shared" ca="1" si="10"/>
-        <v/>
-      </c>
-      <c r="BL34" s="26" t="str">
-        <f t="shared" ca="1" si="10"/>
-        <v/>
-      </c>
     </row>
     <row r="35" spans="1:65" s="1" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="9"/>
@@ -24052,237 +23501,67 @@
       <c r="F35" s="60"/>
       <c r="G35" s="61"/>
       <c r="H35" s="58"/>
-      <c r="I35" s="26" t="str">
-        <f t="shared" ca="1" si="12"/>
-        <v/>
-      </c>
-      <c r="J35" s="26" t="str">
-        <f t="shared" ca="1" si="12"/>
-        <v/>
-      </c>
-      <c r="K35" s="26" t="str">
-        <f t="shared" ca="1" si="12"/>
-        <v/>
-      </c>
-      <c r="L35" s="26" t="str">
-        <f t="shared" ca="1" si="12"/>
-        <v/>
-      </c>
-      <c r="M35" s="26" t="str">
-        <f t="shared" ca="1" si="12"/>
-        <v/>
-      </c>
-      <c r="N35" s="26" t="str">
-        <f t="shared" ca="1" si="12"/>
-        <v/>
-      </c>
-      <c r="O35" s="26" t="str">
-        <f t="shared" ca="1" si="12"/>
-        <v/>
-      </c>
-      <c r="P35" s="26" t="str">
-        <f t="shared" ca="1" si="12"/>
-        <v/>
-      </c>
-      <c r="Q35" s="26" t="str">
-        <f t="shared" ca="1" si="12"/>
-        <v/>
-      </c>
-      <c r="R35" s="26" t="str">
-        <f t="shared" ca="1" si="12"/>
-        <v/>
-      </c>
-      <c r="S35" s="26" t="str">
-        <f t="shared" ca="1" si="12"/>
-        <v/>
-      </c>
-      <c r="T35" s="26" t="str">
-        <f t="shared" ca="1" si="12"/>
-        <v/>
-      </c>
-      <c r="U35" s="26" t="str">
-        <f t="shared" ca="1" si="12"/>
-        <v/>
-      </c>
-      <c r="V35" s="26" t="str">
-        <f t="shared" ca="1" si="12"/>
-        <v/>
-      </c>
-      <c r="W35" s="26" t="str">
-        <f t="shared" ca="1" si="12"/>
-        <v/>
-      </c>
-      <c r="X35" s="26" t="str">
-        <f t="shared" ca="1" si="12"/>
-        <v/>
-      </c>
-      <c r="Y35" s="26" t="str">
-        <f t="shared" ca="1" si="11"/>
-        <v/>
-      </c>
-      <c r="Z35" s="26" t="str">
-        <f t="shared" ca="1" si="11"/>
-        <v/>
-      </c>
-      <c r="AA35" s="26" t="str">
-        <f t="shared" ca="1" si="11"/>
-        <v/>
-      </c>
-      <c r="AB35" s="26" t="str">
-        <f t="shared" ca="1" si="11"/>
-        <v/>
-      </c>
-      <c r="AC35" s="26" t="str">
-        <f t="shared" ca="1" si="11"/>
-        <v/>
-      </c>
-      <c r="AD35" s="26" t="str">
-        <f t="shared" ca="1" si="11"/>
-        <v/>
-      </c>
-      <c r="AE35" s="26" t="str">
-        <f t="shared" ca="1" si="11"/>
-        <v/>
-      </c>
-      <c r="AF35" s="26" t="str">
-        <f t="shared" ca="1" si="11"/>
-        <v/>
-      </c>
-      <c r="AG35" s="26" t="str">
-        <f t="shared" ca="1" si="11"/>
-        <v/>
-      </c>
-      <c r="AH35" s="26" t="str">
-        <f t="shared" ca="1" si="11"/>
-        <v/>
-      </c>
-      <c r="AI35" s="26" t="str">
-        <f t="shared" ca="1" si="11"/>
-        <v/>
-      </c>
-      <c r="AJ35" s="26" t="str">
-        <f t="shared" ca="1" si="11"/>
-        <v/>
-      </c>
-      <c r="AK35" s="26" t="str">
-        <f t="shared" ca="1" si="11"/>
-        <v/>
-      </c>
-      <c r="AL35" s="26" t="str">
-        <f t="shared" ca="1" si="11"/>
-        <v/>
-      </c>
-      <c r="AM35" s="26" t="str">
-        <f t="shared" ca="1" si="11"/>
-        <v/>
-      </c>
-      <c r="AN35" s="26" t="str">
-        <f t="shared" ca="1" si="9"/>
-        <v/>
-      </c>
-      <c r="AO35" s="26" t="str">
-        <f t="shared" ca="1" si="9"/>
-        <v/>
-      </c>
-      <c r="AP35" s="26" t="str">
-        <f t="shared" ca="1" si="9"/>
-        <v/>
-      </c>
-      <c r="AQ35" s="26" t="str">
-        <f t="shared" ca="1" si="9"/>
-        <v/>
-      </c>
-      <c r="AR35" s="26" t="str">
-        <f t="shared" ca="1" si="9"/>
-        <v/>
-      </c>
-      <c r="AS35" s="26" t="str">
-        <f t="shared" ca="1" si="9"/>
-        <v/>
-      </c>
-      <c r="AT35" s="26" t="str">
-        <f t="shared" ca="1" si="9"/>
-        <v/>
-      </c>
-      <c r="AU35" s="26" t="str">
-        <f t="shared" ca="1" si="9"/>
-        <v/>
-      </c>
-      <c r="AV35" s="26" t="str">
-        <f t="shared" ca="1" si="9"/>
-        <v/>
-      </c>
-      <c r="AW35" s="26" t="str">
-        <f t="shared" ca="1" si="9"/>
-        <v/>
-      </c>
-      <c r="AX35" s="26" t="str">
-        <f t="shared" ca="1" si="9"/>
-        <v/>
-      </c>
-      <c r="AY35" s="26" t="str">
-        <f t="shared" ca="1" si="9"/>
-        <v/>
-      </c>
-      <c r="AZ35" s="26" t="str">
-        <f t="shared" ca="1" si="9"/>
-        <v/>
-      </c>
-      <c r="BA35" s="26" t="str">
-        <f t="shared" ca="1" si="9"/>
-        <v/>
-      </c>
-      <c r="BB35" s="26" t="str">
-        <f t="shared" ca="1" si="9"/>
-        <v/>
-      </c>
-      <c r="BC35" s="26" t="str">
-        <f t="shared" ca="1" si="9"/>
-        <v/>
-      </c>
-      <c r="BD35" s="26" t="str">
-        <f t="shared" ca="1" si="10"/>
-        <v/>
-      </c>
-      <c r="BE35" s="26" t="str">
-        <f t="shared" ca="1" si="10"/>
-        <v/>
-      </c>
-      <c r="BF35" s="26" t="str">
-        <f t="shared" ca="1" si="10"/>
-        <v/>
-      </c>
-      <c r="BG35" s="26" t="str">
-        <f t="shared" ca="1" si="10"/>
-        <v/>
-      </c>
-      <c r="BH35" s="26" t="str">
-        <f t="shared" ca="1" si="10"/>
-        <v/>
-      </c>
-      <c r="BI35" s="26" t="str">
-        <f t="shared" ca="1" si="10"/>
-        <v/>
-      </c>
-      <c r="BJ35" s="26" t="str">
-        <f t="shared" ca="1" si="10"/>
-        <v/>
-      </c>
-      <c r="BK35" s="26" t="str">
-        <f t="shared" ca="1" si="10"/>
-        <v/>
-      </c>
-      <c r="BL35" s="26" t="str">
-        <f t="shared" ca="1" si="10"/>
-        <v/>
-      </c>
+      <c r="I35" s="26"/>
+      <c r="J35" s="26"/>
+      <c r="K35" s="26"/>
+      <c r="L35" s="26"/>
+      <c r="M35" s="26"/>
+      <c r="N35" s="26"/>
+      <c r="O35" s="26"/>
+      <c r="P35" s="26"/>
+      <c r="Q35" s="26"/>
+      <c r="R35" s="26"/>
+      <c r="S35" s="26"/>
+      <c r="T35" s="26"/>
+      <c r="U35" s="26"/>
+      <c r="V35" s="26"/>
+      <c r="W35" s="26"/>
+      <c r="X35" s="26"/>
+      <c r="Y35" s="26"/>
+      <c r="Z35" s="26"/>
+      <c r="AA35" s="26"/>
+      <c r="AB35" s="26"/>
+      <c r="AC35" s="26"/>
+      <c r="AD35" s="26"/>
+      <c r="AE35" s="26"/>
+      <c r="AF35" s="26"/>
+      <c r="AG35" s="26"/>
+      <c r="AH35" s="26"/>
+      <c r="AI35" s="26"/>
+      <c r="AJ35" s="26"/>
+      <c r="AK35" s="26"/>
+      <c r="AL35" s="26"/>
+      <c r="AM35" s="26"/>
+      <c r="AN35" s="26"/>
+      <c r="AO35" s="26"/>
+      <c r="AP35" s="26"/>
+      <c r="AQ35" s="26"/>
+      <c r="AR35" s="26"/>
+      <c r="AS35" s="26"/>
+      <c r="AT35" s="26"/>
+      <c r="AU35" s="26"/>
+      <c r="AV35" s="26"/>
+      <c r="AW35" s="26"/>
+      <c r="AX35" s="26"/>
+      <c r="AY35" s="26"/>
+      <c r="AZ35" s="26"/>
+      <c r="BA35" s="26"/>
+      <c r="BB35" s="26"/>
+      <c r="BC35" s="26"/>
+      <c r="BD35" s="26"/>
+      <c r="BE35" s="26"/>
+      <c r="BF35" s="26"/>
+      <c r="BG35" s="26"/>
+      <c r="BH35" s="26"/>
+      <c r="BI35" s="26"/>
+      <c r="BJ35" s="26"/>
+      <c r="BK35" s="26"/>
+      <c r="BL35" s="26"/>
       <c r="BM35" s="87"/>
     </row>
     <row r="36" spans="1:65" s="1" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="10"/>
-      <c r="B36" s="116" t="s">
-        <v>18</v>
-      </c>
+      <c r="B36" s="62"/>
       <c r="C36" s="58"/>
       <c r="D36" s="58"/>
       <c r="E36" s="74"/>
@@ -24365,7 +23644,7 @@
     <mergeCell ref="N4:Q4"/>
     <mergeCell ref="S4:V4"/>
   </mergeCells>
-  <conditionalFormatting sqref="E9:E36">
+  <conditionalFormatting sqref="E35:E36 E9:E33">
     <cfRule type="dataBar" priority="5">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -24379,40 +23658,40 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I7:BL36">
-    <cfRule type="expression" dxfId="12" priority="1">
+  <conditionalFormatting sqref="I35:BL36 I7:BL33">
+    <cfRule type="expression" dxfId="8" priority="1">
       <formula>AND(TODAY()&gt;=I$7,TODAY()&lt;J$7)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I6:AM6">
-    <cfRule type="expression" dxfId="11" priority="4">
+    <cfRule type="expression" dxfId="7" priority="4">
       <formula>I$7&lt;=EOMONTH($I$7,0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J6:BL6">
-    <cfRule type="expression" dxfId="10" priority="3">
+    <cfRule type="expression" dxfId="6" priority="3">
       <formula>AND(J$7&lt;=EOMONTH($I$7,2),J$7&gt;EOMONTH($I$7,0),J$7&gt;EOMONTH($I$7,1))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I6:BL6">
-    <cfRule type="expression" dxfId="9" priority="2">
+    <cfRule type="expression" dxfId="5" priority="2">
       <formula>AND(I$7&lt;=EOMONTH($I$7,1),I$7&gt;EOMONTH($I$7,0))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I10:BL35">
-    <cfRule type="expression" dxfId="8" priority="7" stopIfTrue="1">
+  <conditionalFormatting sqref="I35:BL35 I10:BL33">
+    <cfRule type="expression" dxfId="4" priority="7" stopIfTrue="1">
       <formula>AND($C10="Risco Baixo",I$7&gt;=$F10,I$7&lt;=$F10+$G10-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="7" priority="8" stopIfTrue="1">
+    <cfRule type="expression" dxfId="3" priority="8" stopIfTrue="1">
       <formula>AND($C10="Risco Elevado",I$7&gt;=$F10,I$7&lt;=$F10+$G10-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="6" priority="9" stopIfTrue="1">
+    <cfRule type="expression" dxfId="2" priority="9" stopIfTrue="1">
       <formula>AND($C10="Dentro do prazo",I$7&gt;=$F10,I$7&lt;=$F10+$G10-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="5" priority="10" stopIfTrue="1">
+    <cfRule type="expression" dxfId="1" priority="10" stopIfTrue="1">
       <formula>AND($C10="Risco Médio",I$7&gt;=$F10,I$7&lt;=$F10+$G10-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="4" priority="11" stopIfTrue="1">
+    <cfRule type="expression" dxfId="0" priority="11" stopIfTrue="1">
       <formula>AND(LEN($C10)=0,I$7&gt;=$F10,I$7&lt;=$F10+$G10-1)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -24420,7 +23699,7 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="C11" xr:uid="{2A71DF35-3E17-4EA3-9F65-3869ED6D651B}">
       <formula1>"Objetivo,Marco,Dentro do prazo, Risco Baixo, Risco Médio, Risco Elevado"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C10 C12:C35" xr:uid="{A8CFFA66-BA13-4963-ABE3-DD76F5716C76}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C10 C35 C12:C33" xr:uid="{A8CFFA66-BA13-4963-ABE3-DD76F5716C76}">
       <formula1>"Objetivo,Marco,Dentro do prazo, Risco Baixo, Risco Médio, Risco Elevado"</formula1>
     </dataValidation>
     <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" promptTitle="Incremento de rolagem" prompt="A alteração deste número irá percorrer a vista do Mapa de Gantt." sqref="C7" xr:uid="{86087FA1-35BE-457A-912C-7FF26BCE687A}">
@@ -24435,9 +23714,6 @@
   </dataValidations>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" fitToHeight="0" orientation="portrait" r:id="rId1"/>
-  <ignoredErrors>
-    <ignoredError sqref="F20" formula="1"/>
-  </ignoredErrors>
   <drawing r:id="rId2"/>
   <legacyDrawing r:id="rId3"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -24487,7 +23763,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>E9:E36</xm:sqref>
+          <xm:sqref>E35:E36 E9:E33</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="iconSet" priority="6" id="{67763332-2AE9-4F93-8BB7-5ECDB6B99BA2}">
@@ -24506,7 +23782,7 @@
               <x14:cfIcon iconSet="3Signs" iconId="0"/>
             </x14:iconSet>
           </x14:cfRule>
-          <xm:sqref>I10:BL35</xm:sqref>
+          <xm:sqref>I35:BL35 I10:BL33</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="iconSet" priority="12" id="{5AD67FB9-23B4-4F54-BD80-7A6CF9720346}">
